--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3922C-BBE0-44BF-AB5C-ED697EDBFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495388B8-3C90-4AED-B6C4-A5D9B3D49D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1662,1188 +1662,1159 @@
 0#占领冰谷#1</t>
   </si>
   <si>
-    <t>4#Encuentra un Elixir de Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
-  </si>
-  <si>
-    <t>0#Ir a Qebui Keep#1##大雪山:2372,8379:0</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Omar#1##大雪山:2338,9105:0|trigger:北风镇宴会琥珀</t>
-  </si>
-  <si>
-    <t>0#Viaja a Redstone Keep y busca a "esa persona"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
-  </si>
-  <si>
-    <t>0#Espera siete días#7
-0#Ve a la mina abandonada en Crying Rock#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Gana 8+ Puntos de Talento y luego encuentra al sirviente de Ouma#1##大雪山:10072,11659:0|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Encuesta el pueblo#3##大雪山:9515,15488:400
-0#Encuentra al Jefe del Pueblo#1|兽人主线村长</t>
-  </si>
-  <si>
-    <t>0#Encuentra al sirviente de Ouma y reporta tus hallazgos#1##大雪山:10072,11659:0|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Derrota a Ouma#1</t>
-  </si>
-  <si>
-    <t>0#Habla con Yaksha en el Valle del Cazador#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
-    <t>0#Ayuda al mago en la Ciudad de Amaranth a encontrar a su vecino#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
-  </si>
-  <si>
-    <t>4#Recupera cinco dientes de lobo para Tausiq#5#狼牙#</t>
-  </si>
-  <si>
-    <t>0#Recupera tus recuerdos#1</t>
-  </si>
-  <si>
-    <t>0#Ve a Amaranth Town en Crying Rock#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Encuentra a tu viejo amigo en la esquina sureste de la Ciudad Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
-  </si>
-  <si>
-    <t>4#Dar 1000 Utar a Nariz Gancho en el suroeste de la Ciudad Amaranto#1000#金钱#|三石堡腾越</t>
-  </si>
-  <si>
-    <t>0#Espera dos días antes de regresar a Dunestorm#1</t>
-  </si>
-  <si>
-    <t>0#Ve hacia el este de Dunestorm en busca del palacio Corsac #1##大沙漠:-3052,-872:300|trigger:心灵巫师主线401</t>
-  </si>
-  <si>
-    <t>0#Ve a la Biblioteca Subterránea en Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
-  </si>
-  <si>
-    <t>0#Viaja al noroeste de los Acantilados Umbra hasta Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
-  </si>
-  <si>
-    <t>0#Encuentra el hogar de Zarathustra#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar el hogar de Zarathustra#1
-0#Derrotar a Zarathustra#1</t>
-  </si>
-  <si>
-    <t>0#Salida Verdadera Nagukka#1</t>
-  </si>
-  <si>
-    <t>0#Busca a Jihan el comerciante en Redstone Keep#1##沙盒红石城:-1211,1133:100|红石城古达</t>
-  </si>
-  <si>
-    <t>0#Escapa del calabozo de Shujae#1</t>
-  </si>
-  <si>
-    <t>0#Ve al Bazar de la Campana del Camello#1|trigger:驼铃集市触发器
-0#Gana la confianza del Circo de las Arenas#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
-  </si>
-  <si>
-    <t>4#Encuentra una túnica de mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Badis junto al lago al sureste de Snowridge#1##大雪山:7976,-2851:100|大沙漠长孙弘</t>
-  </si>
-  <si>
-    <t>0#Badis te cuenta el plan de Laik. ¡Espera que puedas detener a Laik en el banquete!#1##大雪山:10911,-4848:500|trigger:白狮宴会树林触发器</t>
-  </si>
-  <si>
-    <t>0#Espera noticias de Malak#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Malak cerca del Vacío de Lava Pāhoehoe#1
-0#Derrota al Ifrit#1|火魔巢穴入口格瓦</t>
-  </si>
-  <si>
-    <t>0#Espera noticias de Isra#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Isra#1|Entrada al Valle de la Luna de Plata</t>
-  </si>
-  <si>
-    <t>0#Espera a que el Rift se vuelva a abrir#1</t>
-  </si>
-  <si>
-    <t>0#Ve al portal cerca del Vacío de Lava Pāhoehoe#1|trigger:大主线真结局2001</t>
-  </si>
-  <si>
-    <t>0#Encuentra a la Princesa Ilayda cerca de Agadir (Puesto Norte) en el Valle de Twinluna#1|双月山谷入口银珊</t>
-  </si>
-  <si>
-    <t>0#Espera a que se abra la Grieta#1</t>
-  </si>
-  <si>
-    <t>0#Habla con Ilayda#1|二周目河边银珊</t>
-  </si>
-  <si>
-    <t>0#¡Este es el final! ¡Lucha!#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Little Hewez#1</t>
-  </si>
-  <si>
-    <t>0#Transportar la cerca#1|Carpintero</t>
-  </si>
-  <si>
-    <t>0#Conduce lejos a los lobos salvajes#3##沙盒黑崖花卉乡:-4813,-13013:2000
-0#Derrota al Rey Canis#1##沙盒黑崖花卉乡:-6196,-13160:300</t>
-  </si>
-  <si>
-    <t>0#Encuentra un sanador en Fleur#1##沙盒黑崖花卉乡:-1301,-1918:1000|花卉乡普洛
-0#Cura al desertor#1</t>
-  </si>
-  <si>
-    <t>0#Busca la Armadura Desert Ash en Crying Rock#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
-  </si>
-  <si>
-    <t>4#Trae dos botellas de Elixir de Rosa Blanca#2#白蔷薇秘药小#</t>
-  </si>
-  <si>
-    <t>0#Habla con el líder de la caravana#1
-0#Acompaña a la caravana#1</t>
-  </si>
-  <si>
-    <t>0#Elaborar un plan de rescate#1
-0#Escapar del campamento de bandidos#1</t>
-  </si>
-  <si>
-    <t>0#Derrota a Muna#1</t>
-  </si>
-  <si>
-    <t>0#Habla con Alaf Jahim#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra algo para comer#1</t>
-  </si>
-  <si>
-    <t>0#Enseñarle una lección al matón#1
-0#Hablar con Ilham#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra algo para comer#1
-0#Encuentra a Little Ilham#1</t>
-  </si>
-  <si>
-    <t>0#Derrota al mago Noor#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra la entrada en Crying Rock#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
-0#Encuentra las hierbas#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra la entrada dentro de las Montañas Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择
-0#Encuentra las hierbas#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra la entrada dentro de los Acantilados Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
-0#Encuentra las hierbas#1</t>
-  </si>
-  <si>
-    <t>0#Ir a la ubicación especificada#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102
-0#Completar la entrega#1|北荒村村长</t>
-  </si>
-  <si>
-    <t>0#Ve a las afueras del Campamento Sava en busca de una casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
-  </si>
-  <si>
-    <t>0#Desarrolla tu tribu y defiéndete de Nemishi#1</t>
-  </si>
-  <si>
-    <t>0#Rechazar la última invasión de Nemishi#1</t>
-  </si>
-  <si>
-    <t>0#Buscar a la hija del pintor#1</t>
-  </si>
-  <si>
-    <t>0#Buscar la Piedra de las Maldiciones#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
-  </si>
-  <si>
-    <t>0#Recoge cuatro fragmentos del Libro de Fuego#4</t>
-  </si>
-  <si>
-    <t>0#Espera junto al río cerca del puesto avanzado de North Crag#1##沙盒风哭岩:-1811,6976:0|trigger:希云娜支线102</t>
-  </si>
-  <si>
-    <t>0#Acompañar a Umara a su actuación#1##沙盒黑崖花卉乡:-8858,-12217:0|trigger:希云娜支线202</t>
-  </si>
-  <si>
-    <t>0#Explora el pueblo cercano#1##韩靖主线村庄:2558,-4378:0</t>
-  </si>
-  <si>
-    <t>0#Ingresa al refugio subterráneo de la Iglesia de la Radiancia en el recuerdo de Mathali#1</t>
-  </si>
-  <si>
-    <t>0#Derrota a Burak#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Sigue a Kun'na hasta la casa de Burak#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Derrota a Burak y Kun'na#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Sigue a Rubi a su casa#1##沙盒双月山谷:-2134,-1283:0</t>
-  </si>
-  <si>
-    <t>0#Sigue a Rubi a la casa del mago#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>4#Encuentra las Pociones de Rosa Blanca y llévalas a casa de Rubi#1#白蔷薇秘药小#沙盒双月山谷:-2134,-1283:0|trigger:心灵女巫主线225</t>
-  </si>
-  <si>
-    <t>0#Ve a las puertas de Agadir#1##沙盒双月山谷:-2025,-72:0</t>
-  </si>
-  <si>
-    <t>0#Descubre el secreto de la técnica de Ghodja#1</t>
-  </si>
-  <si>
-    <t>4#Recoge 5 Elixires de Arcana y luego desafía a Ghodja a un duelo#5#巫术药剂#沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
-  </si>
-  <si>
-    <t>0#Continúa con Oli hacia la casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
-  </si>
-  <si>
-    <t>0#Dirígete a la entrada del acantilado al este de Fleur#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Ingresa a los acantilados del este para buscar a Basila, la hija de Barqash#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Entra en la cueva de Shaitan con Ouda#1##大雪山:11766,10596:0
-0#Derrota a Shaitan#1</t>
-  </si>
-  <si>
-    <t>0#Busca el monumento del Caballero General#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
-  </si>
-  <si>
-    <t>0#Controlar al menos 18 pueblos#18
-0#Ocupar Redstone Keep#1
-0#Ocupar Triptych Rock#1</t>
-  </si>
-  <si>
-    <t>0#Controlar al menos 18 pueblos#18
-0#Ocupar el Bazar de la Campana de Camello#1
-0#Ocupar Mireton#1
-0#Ocupar el Valle de Frost#1</t>
-  </si>
-  <si>
-    <t>Investigar los asuntos de Uday el comerciante</t>
-  </si>
-  <si>
-    <t>Uday de Qebui Keep quiere que encuentres a su hijo y ex esposa</t>
-  </si>
-  <si>
-    <t>Sigue a Omar</t>
-  </si>
-  <si>
-    <t>Encuentra el Elixir del Gigante Alpino para Omar</t>
-  </si>
-  <si>
-    <t>Dirígete a Qebui Keep para unirte a las festividades de Uday</t>
-  </si>
-  <si>
-    <t>Encuentra a Omar</t>
-  </si>
-  <si>
-    <t>Buscas frenéticamente a quienquiera que haya llamado tu nombre. Él se alejó hacia el Castillo de Redstone</t>
-  </si>
-  <si>
-    <t>Una vez que sea el momento, dirígete a las minas abandonadas al este del pueblo de Prism Rock y encuentra a Shafaqat</t>
-  </si>
-  <si>
-    <t>Encuentra a un mago llamado Ouma en el extremo norte del Valle de Frost en las Montañas Zagros</t>
-  </si>
-  <si>
-    <t>Debes expandir tu reputación y ganar más Favor</t>
-  </si>
-  <si>
-    <t>Entregar medicinas a los habitantes del pueblo de Misty Village</t>
-  </si>
-  <si>
-    <t>Los lugareños de la aldea Misty tienen ideas extrañas sobre medicina. Regresa a la cabaña y pregunta al sirviente de Ouma qué está sucediendo</t>
-  </si>
-  <si>
-    <t>Aprende la verdad sobre tu propia vida</t>
-  </si>
-  <si>
-    <t>Coge un barco desde el norte de Agadir de regreso al Valle de Hunter y echa un vistazo</t>
-  </si>
-  <si>
-    <t>Un mago en el pueblo de Amaranth te pide ayuda para localizar a un residente muy especial</t>
-  </si>
-  <si>
-    <t>El explorador Tausiq espera que puedas encontrarle cinco colmillos de lobo. Sin embargo, no puedes evitar sentir que él te está ocultando algo</t>
-  </si>
-  <si>
-    <t>Áreas de tu memoria permanecen borrosas para ti. Tomará unos días para que tu memoria se recupere</t>
-  </si>
-  <si>
-    <t>Deseando arrojar luz sobre tu pasado, Zeynep sugiere que vayas a Amaranth Town en Crying Rock y busques a "esa" persona</t>
-  </si>
-  <si>
-    <t>Todo lo que puedes hacer es intentar algo más: encuentra a tu viejo amigo en los suburbios del sureste de la ciudad de Amaranth</t>
-  </si>
-  <si>
-    <t>Aceptas ayudar a vigilar la prisión para el alcalde a cambio de información</t>
-  </si>
-  <si>
-    <t>Ya sea que te guste o no, Nariz Gancho solo revelará lo que sabe sobre Zarathustra por 1000 Utar. Podrías extorsionar a Tandu, un joven en Triptych Rock, por una deuda que le debe a Nariz Gancho, o puedes pagar los Utar tú mismo</t>
-  </si>
-  <si>
-    <t>Las pistas llevaron directamente de vuelta al Gremio de Comerciantes Corsac de Dunestorm</t>
-  </si>
-  <si>
-    <t>Espera dos días antes de regresar a Dunestorm</t>
-  </si>
-  <si>
-    <t>Busca a Khurram Aslae al este de Dunestorm</t>
-  </si>
-  <si>
-    <t>Khurram Aslae te cuenta lo que te espera en la Biblioteca Subterránea de Diresprings</t>
-  </si>
-  <si>
-    <t>Zaratustra está en &lt;color=red&gt;Nagukka&lt;/color&gt;, cerca de los Acantilados de Umbra. Ve a buscarlo a Nagukka</t>
-  </si>
-  <si>
-    <t>Encuentra la residencia de Zarathustra en &lt;color=red&gt;True Nagukka&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Encuentra la residencia de Zarathustra en &lt;color=red&gt;Verdadero Nagukka&lt;/color&gt;, y derrota a él para vengarte</t>
-  </si>
-  <si>
-    <t>Ya sabiendo la verdad del asunto, ahora puedes irte &lt;color=red&gt;True Nagukka&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Encuentra a un comerciante llamado Jihan en el Castillo de Redstone para recoger tu próxima misión de recompensa</t>
-  </si>
-  <si>
-    <t>Ve al cañón en Crying Rock y encuentra un árbol extraño ubicado al norte de West Crag Outpost, luego regresa y reporta a Jihan en Redstone Keep</t>
-  </si>
-  <si>
-    <t>Reclama una nueva misión de recompensa cerca de Sandedge Village en Twinluna Valley</t>
-  </si>
-  <si>
-    <t>Escapa del calabozo de Shujae</t>
-  </si>
-  <si>
-    <t>Conoce a Laik en el Campamento Precipicio</t>
-  </si>
-  <si>
-    <t>Dirígete al Bazar de la Campana del Camello y encuentra una forma de colarte en el Circo de las Arenas</t>
-  </si>
-  <si>
-    <t>Encuentra una forma de conseguir un traje de circo adecuado</t>
-  </si>
-  <si>
-    <t>Adquiere cinco unidades de Madera de Palma</t>
-  </si>
-  <si>
-    <t>Dirígete a las Montañas Zagros y encuentra a Badis en el lago al sureste de Snowridge. Como comandante de las fuerzas Shujae que te encarcelaron... ¿realmente puedes confiar en él?</t>
-  </si>
-  <si>
-    <t>Badis te cuenta el plan de Laik y espera que puedas detener a Laik en el banquete. Ve y asiste al banquete en el rincón sureste más lejano de las Montañas Zagros</t>
-  </si>
-  <si>
-    <t>Ves la señal de Badis. Laika está en movimiento. Ve a ayudarlo</t>
-  </si>
-  <si>
-    <t>Dirígete hacia el rincón sureste más lejano de las Montañas Zagros y únete al Circo de las Arenas. Luego, mata al Jefe Shujae</t>
-  </si>
-  <si>
-    <t>Malak dice que su experimento estará terminado en un mes y necesita tu ayuda. Perfecciona tus habilidades durante este tiempo</t>
-  </si>
-  <si>
-    <t>Ve a la guarida del Ifrit al sur del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Isra es una mujer muy misteriosa, pero afirma que ahora no es el momento de confesarlo todo. Cuando seas lo suficientemente fuerte, ella te lo contará todo. Espera 30 días hasta que Isra se ponga en contacto contigo nuevamente</t>
-  </si>
-  <si>
-    <t>Isra escribió una carta para decirte que te está esperando al norte de Agadir en el Valle de Twinluna</t>
-  </si>
-  <si>
-    <t>Atraviesa el túnel secreto con Ilayda y descubre los secretos de la Diosa del Río y el Ifrit</t>
-  </si>
-  <si>
-    <t>Ilyada te dijo que el Ifrit regresará. Haz preparativos ese día. Habla con el Árbitro en el Vacío de Lava Pāhoehoe del Valle de Redstone si esta misión no puede avanzar</t>
-  </si>
-  <si>
-    <t>¡Ha llegado el día de la profecía! ¡Derrota al Ifrit y defiende las tierras del desierto!
-Habla con el Árbitro en el Vacío de Lava Pāhoehoe del Valle de Redstone si esta misión no puede avanzar</t>
-  </si>
-  <si>
-    <t>Recuerdas vagamente que tienes que ir al portal cercano al Vacío de Lava Pāhoehoe en el próximo mes para derrotar a Malak</t>
-  </si>
-  <si>
-    <t>La princesa Ilayda te invita una vez más al Valle de Twinluna y promete explicarte absolutamente todo en ese momento</t>
-  </si>
-  <si>
-    <t>Visita el espejismo de la Diosa del Río y toma el cimitarra nuevamente</t>
-  </si>
-  <si>
-    <t>Prepárate para el día en que se abra esa grieta</t>
-  </si>
-  <si>
-    <t>Ha llegado el momento de revertir el destino del universo. Adéntrate en la grieta con Ilayda</t>
-  </si>
-  <si>
-    <t>Te encuentras en un espacio desconocido. ¿Podría ser esto realmente cómo era el mundo hace mil años? Ilayda no puede responderte, sin embargo, ha desaparecido. Encuéntrala</t>
-  </si>
-  <si>
-    <t>Encuentra a Ilayda y habla con ella</t>
-  </si>
-  <si>
-    <t>Este realmente es el final. ¡Derrota la Grieta!</t>
-  </si>
-  <si>
-    <t>Ayuda a Little Jarah a encontrar a los otros dos niños</t>
-  </si>
-  <si>
-    <t>Ayuda a Ghazi a transportar algo de madera hacia el sur y ayuda a construir una cerca para proteger la ciudad del Ifrit</t>
-  </si>
-  <si>
-    <t>Explora la Mina de Redstone Abandonada justo al sur del Campamento Precipice</t>
-  </si>
-  <si>
-    <t>El Valle Verde espera tu exploración. Dirígete hacia el norte desde Snowridge y sigue un pequeño sendero hacia el este</t>
-  </si>
-  <si>
-    <t>Dirígete hacia el sur desde el pueblo de Khamsin para explorar el Valle de Sirocco</t>
-  </si>
-  <si>
-    <t>Busca en las Cuevas de Agadir el licor del que hablaban los agricultores. Están cerca del Puerto Norte</t>
-  </si>
-  <si>
-    <t>Un hombre te suplica que busques el Escondite Secreto y rescates a su esposa del mago que la secuestró</t>
-  </si>
-  <si>
-    <t>Dirígete al noroeste de Fleur hasta el Palacio Arbor y recupera el cristal del transeúnte</t>
-  </si>
-  <si>
-    <t>Ve a las Cavernas de Nieve junto al pequeño lago al sureste de Snowridge</t>
-  </si>
-  <si>
-    <t>Ve a las Cuevas de Hueso del Leviatán cerca de la aldea de Marfil. Está justo al sur de los campos de cultivo de la aldea</t>
-  </si>
-  <si>
-    <t>Ve al Vacío de Lava Pāhoehoe en esa extraña área justo al sur de Redstone Keep. Es posible que tengas problemas para llegar allí</t>
-  </si>
-  <si>
-    <t>Ve a la Formación Gigante de Zagros al suroeste de Snowridge. La leyenda cuenta que hay un cañón si te diriges hacia el sur y luego hacia el oeste desde Snowridge. La formación se encuentra al final de este cañón</t>
-  </si>
-  <si>
-    <t>Ve a las Cavernas del Ritual</t>
-  </si>
-  <si>
-    <t>Explora la Guarida del Lobo al sur de la aldea del Pantano Negro y captura al Lobo Alfa</t>
-  </si>
-  <si>
-    <t>Rumor has it that the Dakn están organizando un concurso de gladiadores. El ganador será premiado con los botines obtenidos del saqueo de la Ciudad de Jamal</t>
-  </si>
-  <si>
-    <t>Un hombre ha sido mortalmente herido en el Campamento de Bandidos cerca de Fleur. Ve a buscar un médico en Fleur y llévalo al campamento para salvarlo</t>
-  </si>
-  <si>
-    <t>Como dijo el desertor, hay una piedra azul en la Roca Llorona. Debajo se encuentra el tesoro secreto del Viejo Mundo: la Armadura de Ceniza del Desierto</t>
-  </si>
-  <si>
-    <t>En Dunestorm, te encuentras con una caravana en camino hacia el Bazar de la Campana de Camello y prometes escoltarlos a su destino en un plazo de tres días</t>
-  </si>
-  <si>
-    <t>Ves a una joven parada cerca de una de las áreas donde se vio por última vez la serpiente gigante. Ella insinúa que dos pequeñas botellas de Elixir de Rosa Blanca podrían ser suficientes para domar a la serpiente gigante</t>
-  </si>
-  <si>
-    <t>Alaf Jahim te regala un cuento de sus días más jóvenes, cuando era solo un patrullero ordinario del desierto</t>
-  </si>
-  <si>
-    <t>Alaf Jahim fue capturado por bandidos junto con el resto de la caravana. Rompe tu cabeza y encuentra una forma de escapar</t>
-  </si>
-  <si>
-    <t>Justo cuando estaba a punto de huir, Alaf Jahim descubre que el líder de los bandidos es Muna, una vieja amiga de su propio pueblo natal</t>
-  </si>
-  <si>
-    <t>Has escuchado las historias de Alaf Jahim. Ten otra charla con él</t>
-  </si>
-  <si>
-    <t>Yaya comienza a contarte sobre cuando él era un niño normal... antes de convertirse en esto</t>
-  </si>
-  <si>
-    <t>Yaya se convirtió en una persona mucho más fuerte después de conocer a Ilham, pero</t>
-  </si>
-  <si>
-    <t>Un corto tiempo después de que Ilham se fuera, Yaya viajó sola a los Acantilados Umbra para buscarla</t>
-  </si>
-  <si>
-    <t>A lo largo de los años, Yaya creció hasta convertirse en su forma actual desfigurada: ¡pero ahora, es el momento adecuado para que él ajuste cuentas con Noor!</t>
-  </si>
-  <si>
-    <t>Tiqin te suplica que vayas con ella a un valle secreto lleno de hierbas cerca de &lt;color=red&gt;North Crag Outpost&lt;/color&gt; para buscar algunos ingredientes herbales preciosos y raros</t>
-  </si>
-  <si>
-    <t>Ya has encontrado una entrada. Una segunda entrada se encuentra &lt;color=red&gt;entre la Formación del Gigante Zagros y el Pueblo Southcliff&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Después de una misión helada, se puede encontrar una tercera entrada en el pantano junto a &lt;color=red&gt;Ebon Village&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Amira Zahra te ruega que vayas al cañón al norte de Diresprings y entregues algunos objetos a las personas que viven allí</t>
-  </si>
-  <si>
-    <t>Un vagabundo de un solo ojo afirma que su hogar ha sido tomado por un tirano rico. Te suplica que idees un plan para ayudarlo a recuperar su propiedad</t>
-  </si>
-  <si>
-    <t>Elam demostró que la propiedad le pertenece. ¿Y ahora qué?</t>
-  </si>
-  <si>
-    <t>Tomaste el liderazgo de tu tribu de tu padre, pero tu vecino, Nemishi, vino en busca de algo llamado una Caña de Época. ¡Si no puedes producir esto dentro del mes, sus fuerzas atacarán nuestra tribu!</t>
-  </si>
-  <si>
-    <t>Has logrado desactivar exitosamente la primera invasión de Nemishi, pero él jura regresar con tropas en dos meses. Debes entrenarte para derrotarlos</t>
-  </si>
-  <si>
-    <t>Después de las dos primeras derrotas, Nemishi no está dispuesto a dejar las cosas así. Escuchas rumores de que está movilizando un ejército para lanzar un ataque final ¡contra nosotros!</t>
-  </si>
-  <si>
-    <t>Nemishi ha sido derrotado y, juzgando por lo que dejó atrás, el Epoch Reed yace oculto en algún lugar de las &lt;color=red&gt;Ruinas Destrozadas&lt;/color&gt; de tu propia tribu</t>
-  </si>
-  <si>
-    <t>¡Tu capital ha sido capturada! ¡Encuentra una forma de recapturar la ciudad!</t>
-  </si>
-  <si>
-    <t>La hija del pintor errante se ha perdido ella misma. Él espera que puedas ayudar a encontrarla y devolverla</t>
-  </si>
-  <si>
-    <t>Conociste a dos niños en el puesto avanzado de West Crag. Te entregaron una extraña botella con la esperanza de que la arrojaras al Vacío de lava Pāhoehoe para destruirla</t>
-  </si>
-  <si>
-    <t>Compraste un cristal a un comerciante en el Valle de Redstone. Él dijo que podía transformar a una Dríada en el Bosque de la Ilusión de regreso a su forma humana. Estás preparado para poner a prueba sus palabras viajando al &lt;color=red&gt;Bosque de la Ilusión&lt;/color&gt; en los Acantilados de Umbra</t>
-  </si>
-  <si>
-    <t>Tu experiencia en el Bosque de la Ilusión demuestra que el cristal que el comerciante te vendió no era más que una falsificación. ¡Búscalo y exige una explicación! Es posible que sea mejor preguntar a los guardias dentro de la Fortaleza de Piedra Roja por su ubicación</t>
-  </si>
-  <si>
-    <t>Has atrapado al comerciante en la Roca Llorona. Llévalo de vuelta al Castillo de Piedra Roja y reclama tu recompensa</t>
-  </si>
-  <si>
-    <t>El comerciante te contó el paradero de una mítica Piedra de Maldiciones, en algún lugar al oeste de los Acantilados de Umbra. Es posible que necesites preguntar por ahí en los Acantilados de Umbra para determinar su ubicación exacta</t>
-  </si>
-  <si>
-    <t>Obtuviste inesperadamente el Libro de Fuego, un antiguo libro de hechizos Ifrit. El alma de su autor, el Maestro de Llamas Ifrit, está sellada dentro de sus páginas. Recoge los otros cuatro fragmentos del libro y únelos para liberar su espíritu y obtener sus poderes. Busca una gran marca de energía cerca de cada fragmento</t>
-  </si>
-  <si>
-    <t>Los zapatos de baile de Umara han desaparecido. Decides esperar al culpable junto al gran árbol a lo largo del río del puesto avanzado de North Crag</t>
-  </si>
-  <si>
-    <t>¿Se podría esperar que Umara rechazara un concierto valorado en diez mil Utar? Pero algo parece estar mal. Decides vigilarla en secreto para protegerla</t>
-  </si>
-  <si>
-    <t>Se está haciendo tarde. Mathali busca refugio para descansar su mente cansada</t>
-  </si>
-  <si>
-    <t>Mathali conoció a una joven llamada Yara después de derrotar a los infieles. Yara, emocionada de haber sido salvada, decidió guiar a Mathali a su aldea cercana</t>
-  </si>
-  <si>
-    <t>Mathali tiene la intención de liberar a los aldeanos de la Iglesia del Resplandor que los aflige. Decide viajar a su fortaleza subterránea para expulsarlos</t>
-  </si>
-  <si>
-    <t>Los rumores hablan de un poderoso Espiritumante que reside en Agadir. Encuéntralo y derrota como el primer paso de tu viaje</t>
-  </si>
-  <si>
-    <t>Te encuentras con un hechicero llamado Malek que comparte su conocimiento sobre Burak. Decides buscar más pistas juntos, un poco de trabajo en equipo nunca le hizo daño a nadie</t>
-  </si>
-  <si>
-    <t>Tú y Malek han aprendido más información sobre Burak. ¡Regresen a Agadir y atrápenlo!</t>
-  </si>
-  <si>
-    <t>Malek resultó gravemente herido y no pudo darte tu recompensa personalmente. En su lugar, dejó un paquete con el tabernero en Agadir</t>
-  </si>
-  <si>
-    <t>Una anciana te cuenta sobre Burak, un Espiritumante que vive en Agadir. Decides seguirla hasta la casa de Burak</t>
-  </si>
-  <si>
-    <t>¡Fuiste engañado por Burak y Kun'na! ¡Ellos tienen la intención de sacrificarte en un ritual infernal!</t>
-  </si>
-  <si>
-    <t>Kun'na podría parecer una dulce anciana, pero no te engañas con su actuación. Decides continuar buscando al Espiritumante en las calles de Agadir solo</t>
-  </si>
-  <si>
-    <t>Te encuentras con Rubi, una joven que vende flores. Ella dice que te llevará a conocer a uno de sus empleadores con habilidades arcanas, después de que la acompañes a su casa</t>
-  </si>
-  <si>
-    <t>Rubi ha terminado de revisar a su padre. Es hora de buscar al mago</t>
-  </si>
-  <si>
-    <t>Burak y la anciana van a matar a Rubi. No puedes quedarte sentado sin hacer nada y mirar, ¡sálvala!</t>
-  </si>
-  <si>
-    <t>El padre de Rubí te suplica que salves a su niña. Solo una Poción de Rosa Blanca puede ayudarla ahora</t>
-  </si>
-  <si>
-    <t>Has hecho todo lo que puedes aquí. Decides dejar Agadir en busca de tu próximo objetivo</t>
-  </si>
-  <si>
-    <t>Te enteras de una joven Bruja de Espíritus que fue vista recientemente cerca de la Ciudad de Amaranth. Sería de tu interés aprender más</t>
-  </si>
-  <si>
-    <t>Un joven llamado Tandu sugiere que busques al herbolario en el pueblo de Cotta para obtener ayuda. Aparentemente, él tiene un método infalible para derrotar enemigos poderosos</t>
-  </si>
-  <si>
-    <t>Ghodja fácilmente desvía tu hechizo y te controla a cambio. ¿Cómo pudo vencerte? Estás decidido a descubrirlo. Da un paseo por Cotta Town y averigua qué puedes descubrir</t>
-  </si>
-  <si>
-    <t>Te encuentras con un joven mago llamado Oli. Después de una breve charla, él revela con alegría la técnica secreta de Ghodja: tomar poción tras poción. Decides reunir pociones de mayor calidad y usar su propio truco en su contra. (Las Elixires de Arcana se pueden crear o comprar en la Botica de la Ciudad de Amaranth)</t>
-  </si>
-  <si>
-    <t>Te encuentras con un joven mago llamado Oli. Después de una breve charla, él revela con alegría la técnica secreta de Ghodja: tomar poción tras poción. No te avergüenzas de su método, de hecho, te intriga el desafío</t>
-  </si>
-  <si>
-    <t>Piensas en Tandu después de derrotar a Ghodja. Es hora de exigirle información sobre el verdadero Espiritumante</t>
-  </si>
-  <si>
-    <t>Khaldun, un hombre misterioso de cabello blanco, te habla de un maestro arcano llamado Zarathustra. Si él tiene razón, encontrarás a Zarathustra dentro de los Acantilados de la Umbra. La ciudad más cercana a los acantilados es un encantador lugar llamado Fleur. Sería sabio viajar allí en busca de más información</t>
-  </si>
-  <si>
-    <t>Parece que algunos habitantes locales en el este de Fleur han perdido sus recuerdos. Solo se puede pensar en un culpable: un Espiritumante</t>
-  </si>
-  <si>
-    <t>Hablas con Barqash, un padre que está buscando a su hija, en la entrada de los acantilados. Él te ha pedido que lo ayudes a encontrar a su hija Basila</t>
-  </si>
-  <si>
-    <t>Te encuentras con un cazador herido mientras exploras los acantilados del este. Te preparas para escoltarlo de regreso al Pueblo Esmeralda</t>
-  </si>
-  <si>
-    <t>Finalmente llevas a Basila lejos. Nadira ha aceptado tu duelo</t>
-  </si>
-  <si>
-    <t>Sigue el consejo de Khaldun y viaja a Frost Valley</t>
-  </si>
-  <si>
-    <t>Te encuentras con un cazador de recompensas desanimado en las cumbres nevadas llamado Ouda. Él sabe dónde encontrar al Shaitan y está dispuesto a llevarte a su cueva</t>
-  </si>
-  <si>
-    <t>Después de coser los dos fragmentos del mapa juntos, descubres la ubicación específica del General Caballero</t>
-  </si>
-  <si>
-    <t>¿Tu objetivo? Derrotar a los Dakn y a los Nasir. Ocupar Redstone Keep y Triptych Rock para doblegarlos. El progreso de la ocupación se actualizará cada mañana</t>
-  </si>
-  <si>
-    <t>¿Tu objetivo? Derrotar a los Dhib y los Akhal. Ocupar el Bazar de la Campana de Camel y el Valle de Frost para doblegarlos. El progreso de la ocupación se actualizará cada mañana</t>
-  </si>
-  <si>
-    <t>¿Tu objetivo? Derrotar a los Akhal, los Thur y los Dhib. Ocupar Camel Bell Bazaar, Mireton y Frost Valley para doblegarlos. El progreso de la ocupación se actualizará cada mañana</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Me encontré con un extraño comerciante cerca de Redstone Keep...]]#通用线索霍翎支线1</t>
-  </si>
-  <si>
-    <t>¿Quién soy yo?</t>
-  </si>
-  <si>
-    <t>Mina abandonada</t>
-  </si>
-  <si>
-    <t>Buscando un favor</t>
-  </si>
-  <si>
-    <t>La Plaga del Pueblo Niebla</t>
-  </si>
-  <si>
-    <t>Informe de vuelta</t>
-  </si>
-  <si>
-    <t>Forma de dragón</t>
-  </si>
-  <si>
-    <t>Valle del Cazador</t>
-  </si>
-  <si>
-    <t>Vecino desaparecido</t>
-  </si>
-  <si>
-    <t>Cinco Colmillos</t>
-  </si>
-  <si>
-    <t>Venganza inteligente</t>
-  </si>
-  <si>
-    <t>Pueblo Amaranth</t>
-  </si>
-  <si>
-    <t>Un viejo amigo</t>
-  </si>
-  <si>
-    <t>Guardia de prisión</t>
-  </si>
-  <si>
-    <t>Pistas Enganchadas</t>
-  </si>
-  <si>
-    <t>Biblioteca Subterránea</t>
-  </si>
-  <si>
-    <t>La Residencia Zarathustra</t>
-  </si>
-  <si>
-    <t>Verdadero Nagukka</t>
-  </si>
-  <si>
-    <t>Un árbol extraño</t>
-  </si>
-  <si>
-    <t>Nueva recompensa</t>
-  </si>
-  <si>
-    <t>Mazmorra de Shujae</t>
-  </si>
-  <si>
-    <t>Carta de Shujae</t>
-  </si>
-  <si>
-    <t>Circo de las Arenas</t>
-  </si>
-  <si>
-    <t>Circo de las Arenas: Disfraces</t>
-  </si>
-  <si>
-    <t>Circo de las Arenas: Palma de Madera</t>
-  </si>
-  <si>
-    <t>Amigo o enemigo</t>
-  </si>
-  <si>
-    <t>El Banquete</t>
-  </si>
-  <si>
-    <t>Asesinato en la montaña</t>
-  </si>
-  <si>
-    <t>Ifrit Ghoul &lt;color=red&gt;(Misión principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Guarida del Ifrit &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>La Promesa de Isra &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Encuentra a Isra &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>El Secreto &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Calamidad se repite &lt;color=red&gt;(Misión principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Día de Destrucción &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Princesa Ilayda &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Mirage &lt;color=red&gt;(Misión principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Una Nueva Esperanza &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Volver en el tiempo &lt;color=red&gt;(Misión principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Hace 1000 años &lt;color=red&gt;(Misión principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Tiempo &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>El Fin &lt;color=red&gt;(Misión Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Escondite</t>
-  </si>
-  <si>
-    <t>Cerca</t>
-  </si>
-  <si>
-    <t>Mina de Redstone abandonada</t>
-  </si>
-  <si>
-    <t>Valle Verde</t>
-  </si>
-  <si>
-    <t>Valle del Siroco</t>
-  </si>
-  <si>
-    <t>Cuevas de Agadir</t>
-  </si>
-  <si>
-    <t>Escondite secreto</t>
-  </si>
-  <si>
-    <t>Palacio del Árbol</t>
-  </si>
-  <si>
-    <t>Cavernas de nieve</t>
-  </si>
-  <si>
-    <t>Cuevas de huesos de Leviatán</t>
-  </si>
-  <si>
-    <t>Vacío de lava pāhoehoe</t>
-  </si>
-  <si>
-    <t>Formación Gigante de Zagros</t>
-  </si>
-  <si>
-    <t>Cavernas del Ritual</t>
-  </si>
-  <si>
-    <t>Guarida del lobo de los Acantilados de Umbra</t>
-  </si>
-  <si>
-    <t>El Tesoro de la Ciudad de Jamal</t>
-  </si>
-  <si>
-    <t>¡Doctor! ¡Doctor!</t>
-  </si>
-  <si>
-    <t>Armadura de ceniza</t>
-  </si>
-  <si>
-    <t>Guardián de la caravana</t>
-  </si>
-  <si>
-    <t>Monta la Serpiente</t>
-  </si>
-  <si>
-    <t>Los recuerdos de Alaf Jahim</t>
-  </si>
-  <si>
-    <t>Los recuerdos de Yaya</t>
-  </si>
-  <si>
-    <t>El Valle de Hierbas de Tiqin</t>
-  </si>
-  <si>
-    <t>La comisión de Amira Zahra</t>
-  </si>
-  <si>
-    <t>Hogar ocupado</t>
-  </si>
-  <si>
-    <t>¿De quién es la casa?</t>
-  </si>
-  <si>
-    <t>La amenaza Nemishi</t>
-  </si>
-  <si>
-    <t>El Asalto Final</t>
-  </si>
-  <si>
     <t>Época</t>
   </si>
   <si>
-    <t>Recapturar la Capital</t>
-  </si>
-  <si>
-    <t>Hija desaparecida</t>
-  </si>
-  <si>
-    <t>Niños y botellas</t>
-  </si>
-  <si>
-    <t>Espejismo del bosque</t>
-  </si>
-  <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Justicia entregada</t>
-  </si>
-  <si>
-    <t>Piedra de Maldiciones</t>
-  </si>
-  <si>
-    <t>Libro de Fuego</t>
-  </si>
-  <si>
-    <t>Zapatos de baile desapareciendo</t>
-  </si>
-  <si>
-    <t>La vida de los conciertos</t>
-  </si>
-  <si>
-    <t>Un momento de descanso</t>
-  </si>
-  <si>
-    <t>Iglesia de los paganos</t>
-  </si>
-  <si>
-    <t>Atrapa a Burak</t>
-  </si>
-  <si>
-    <t>Paquete en una taberna</t>
-  </si>
-  <si>
-    <t>Derrota a Burak</t>
-  </si>
-  <si>
-    <t>Volver a Agadir</t>
-  </si>
-  <si>
-    <t>Salva a Rubi</t>
-  </si>
-  <si>
     <t>Bálsamo curativo</t>
   </si>
   <si>
-    <t>Dejando Agadir</t>
-  </si>
-  <si>
-    <t>El Espiritumante de la Ciudad de Cotta</t>
-  </si>
-  <si>
-    <t>El Secreto de Ghodja</t>
-  </si>
-  <si>
-    <t>¡Pociones! ¡Pociones!</t>
-  </si>
-  <si>
-    <t>Espiritualidad Honorable</t>
-  </si>
-  <si>
     <t>Súplica de Tandu</t>
   </si>
   <si>
     <t>Flor</t>
   </si>
   <si>
-    <t>Acantilados del Este</t>
-  </si>
-  <si>
-    <t>Acantilados del Este II</t>
-  </si>
-  <si>
-    <t>El cazador herido</t>
-  </si>
-  <si>
-    <t>Valle de Frost</t>
-  </si>
-  <si>
-    <t>Caballero General</t>
-  </si>
-  <si>
-    <t>Restauración de Akhal</t>
-  </si>
-  <si>
-    <t>Restauración Dakn</t>
-  </si>
-  <si>
-    <t>Restauración de Nasir</t>
-  </si>
-  <si>
-    <t>0#Investigar Uday#1##大雪山:2079,8554:0|北风镇瓦德争吵</t>
-  </si>
-  <si>
-    <t>0#Ve a un pueblo al norte de Qebui Keep#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
-  </si>
-  <si>
-    <t>0#Sigue a Omar#1##大雪山:5594,9879:0|trigger:琥珀找到不远处的琥珀正在与怪物战斗</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Conoces a alguien llamado Shafaqat?]]#通用线索人物兽人主线2</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre Ouma el mago....]]#通用线索人物兽人主线3</t>
-  </si>
-  <si>
-    <t>Lucha contra Ouma</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre la Legión Oscura...]]#通用线索人物兽人主线8</t>
-  </si>
-  <si>
-    <t>0#Ve al norte de Sandedge Village en Valle Twinluna#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞.
-0#Ve al norte de Sandedge Village en Valle Twinluna#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Conoces el nombre de Zarathustra?]]#通用线索人物心灵巫师主线1</t>
-  </si>
-  <si>
-    <t>0#Guardar la prisión por la noche#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗.
-0#Guardar la prisión por la noche#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Cómo está conectado el Gremio de Comerciantes Corsac...?]]#通用线索人物心灵巫师主线4</t>
-  </si>
-  <si>
-    <t>El Gremio de Mercaderes Corsac</t>
-  </si>
-  <si>
-    <t>0#Espera información del Gremio de Comerciantes Corsac#1
-0#Viaja a Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Conoces la historia de Diresprings?]]#通用线索人物心灵巫师主线7
-</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Puedes hablarme sobre Nagukka?]]#通用线索人物心灵巫师主线8</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Conoces a alguien llamado Jihan?]]#通用线索人物猎人帮会主线1</t>
-  </si>
-  <si>
-    <t>0#Después de encontrar un árbol extraño dentro de los cañones de Crying Rock, regresa a Redstone Keep y habla con Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
-  </si>
-  <si>
-    <t>0#Viaje al Campamento Precipicio#1##沙盒红石城:-545,3929:0|红石城北聚落雷毅</t>
-  </si>
-  <si>
-    <t>0#Ir a Sandedge Village#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:¿Qué ocurre en el Circo de las Arenas?]]#通用线索人物猎人帮会主线6</t>
-  </si>
-  <si>
-    <t>4#Obtener 5 unidades de Madera de Palma#5#棕榈木#大沙漠:343,-317:300|trigger:猎人帮会主线8棕榈园</t>
-  </si>
-  <si>
-    <t>Detente a Laik</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Eisa#1|白狮宴会蓝伊莎
-0#Mata al Jefe Shujae#1|trigger:白狮宴会触发器</t>
-  </si>
-  <si>
-    <t>0#Derrota a Laik y su ejército#1|trigger:白狮宴会雷毅触发器</t>
-  </si>
-  <si>
-    <t>0#Explora el túnel secreto#1|trigger:大主线5009</t>
-  </si>
-  <si>
-    <t>0#Resistir al Ifrit#1|trigger:大主线8006</t>
-  </si>
-  <si>
-    <t>0#Recupera el cimitarra del espejismo|trigger:大主线真结局4004</t>
-  </si>
-  <si>
-    <t>0#Entra en el Rift con Ilayda#1|trigger:大主线真结局6002</t>
-  </si>
-  <si>
-    <t>0#Intenta encontrar a Ilayda#1|trigger:大主线真结局8001</t>
-  </si>
-  <si>
-    <t>0#Explora la mina abandonada#1##沙盒红石城:-310,3163:0|PLACE:红石城废弃矿洞</t>
-  </si>
-  <si>
-    <t>0#Explora el Valle Verde#1##大雪山:6598,2333:0|PLACE:采药雪谷</t>
-  </si>
-  <si>
-    <t>0#Explora el Valle Sirocco#1##沙盒风哭岩:3322,-5951:0|PLACE:狂风山谷</t>
-  </si>
-  <si>
-    <t>0#Explora las Cuevas de Agadir#1##沙盒双月山谷:-1725,1471:0|PLACE:浅溪溶洞</t>
-  </si>
-  <si>
-    <t>0#Encuentra la esposa del hombre#1##沙盒双月山谷:2760,6661:0|PLACE:秘密集会所</t>
-  </si>
-  <si>
-    <t>0#Explora el Palacio Arbor#1##沙盒黑崖花卉乡:-4267,3378:0|PLACE:树宫</t>
-  </si>
-  <si>
-    <t>0#Explora las Cavernas de Nieve#1##大雪山:9107,-2394:0|PLACE:雪山冰窟</t>
-  </si>
-  <si>
-    <t>0#Explora las Cuevas de Huesos del Leviatán#1##沙盒双月山谷:-305,596:0|PLACE:巨大兽骨洞窟</t>
-  </si>
-  <si>
-    <t>0#Explora el Vacío de Lava Pāhoehoe#1##沙盒红石城:-914,-1727:0|PLACE:巨大熔岩空洞</t>
-  </si>
-  <si>
-    <t>0#Explora la Formación Gigante de Zagros#1##大雪山:4926,-2923:0|PLACE:雪山巨人石阵</t>
-  </si>
-  <si>
-    <t>0#Explora las Cavernas del Ritual#1##大雪山:4557,7657:0|PLACE:古老秘仪之窟</t>
-  </si>
-  <si>
-    <t>0#Únete al concurso en Papyriduo Village#1##沙盒风哭岩:422,2677:0|trigger:骆驼城的秘宝2001</t>
-  </si>
-  <si>
-    <t>0#Escoltar una caravana desde Dunestorm hasta Camel Bell Bazaar#1|PLACE:驼铃集市</t>
-  </si>
-  <si>
-    <t>Encuentra otra forma de obtener la escritura de la casa.#1##大沙漠:-3343,1355:0|野马部落富豪</t>
-  </si>
-  <si>
-    <t>0#Entra en el espejismo y busca el Cañaveral de la Época#1|CHEST:建设MOD美舍卢标记</t>
-  </si>
-  <si>
-    <t>0#Recapturar la capital#1|PLACE:建设MOD主城</t>
-  </si>
-  <si>
-    <t>Dirígete al lugar donde conociste al Pintor Errante en la Roca Llorona. #1|CHEST:流浪画师女儿之墓</t>
-  </si>
-  <si>
-    <t>0#Ve al gran árbol junto a los acantilados del norte de Cotta Town#1|CHEST:流浪画师女儿之墓</t>
-  </si>
-  <si>
-    <t>0#Ponte al lado de la lava en el Pāhoehoe Lava Void#1|PLACE:巨大熔岩空洞</t>
-  </si>
-  <si>
-    <t>0#Ve al Bosque de Espejismos en los Acantilados de Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
-  </si>
-  <si>
-    <t>0#Localiza al comerciante#1##沙盒红石城:-1471,611:500|PLACE:红石城</t>
-  </si>
-  <si>
-    <t>0#Vuelve a Redstone Keep y entrega al aprovechador#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
-  </si>
-  <si>
-    <t>0#Viaja a Agadir en el Valle de Twinluna para buscar pistas sobre el Spiritmancer#1##沙盒双月山谷:-2017,-268:500|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Viaja a Northport con Malek#1##沙盒双月山谷:-2551,2264:0|PLACE:浅溪镇北聚落</t>
-  </si>
-  <si>
-    <t>0#Habla con Shukriya en Agadir#1##沙盒双月山谷:-2580,-535:0|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Volver a Agadir#1##沙盒双月山谷:-2552,-471:500|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Ve a la Ciudad de Amaranto#1##沙盒风哭岩:2330,8441:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Ve a Cotta Town#1##沙盒风哭岩:-638,-5306:0|PLACE:陶山镇</t>
-  </si>
-  <si>
-    <t>0#Habla con Tandu en la Ciudad de Amaranth#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
-  </si>
-  <si>
-    <t>0#Pregunta a los lugareños en Fleur sobre Zarathustra#1##沙盒黑崖花卉乡:-927,-1507:100|PLACE:花卉乡</t>
-  </si>
-  <si>
-    <t>0#Escolta al cazador herido de regreso a la aldea Esmeralda antes de que pierda demasiada sangre#1##沙盒黑崖花卉乡:3247,-1045:0|PLACE:花卉乡东聚落</t>
-  </si>
-  <si>
-    <t>0#Derrota a Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Escucha los rumores locales en la taberna de Frost Valley#1##大雪山:9940,8699:50|PLACE:冰谷</t>
-  </si>
-  <si>
-    <t>0#Controlar al menos 18 pueblos#18
-0#Ocupar el Camel Bell Bazaar#1
-0#Ocupar el Valle de la Escarcha(Frost)#1</t>
+    <t>Quem sou eu?</t>
+  </si>
+  <si>
+    <t>mina abandonada</t>
+  </si>
+  <si>
+    <t>procurando um favor</t>
+  </si>
+  <si>
+    <t>A praga do povo da neblina</t>
+  </si>
+  <si>
+    <t>Relatório de devolução</t>
+  </si>
+  <si>
+    <t>forma de dragão</t>
+  </si>
+  <si>
+    <t>Vale do Caçador</t>
+  </si>
+  <si>
+    <t>Vizinho desaparecido</t>
+  </si>
+  <si>
+    <t>Cinco Presas</t>
+  </si>
+  <si>
+    <t>Vingança Inteligente</t>
+  </si>
+  <si>
+    <t>Vila Amaranto</t>
+  </si>
+  <si>
+    <t>Um velho amigo</t>
+  </si>
+  <si>
+    <t>Guarda prisional</t>
+  </si>
+  <si>
+    <t>Faixas com ganchos</t>
+  </si>
+  <si>
+    <t>A Guilda dos Mercadores Corsac</t>
+  </si>
+  <si>
+    <t>Biblioteca Subterrânea</t>
+  </si>
+  <si>
+    <t>A Residência Zaratustra</t>
+  </si>
+  <si>
+    <t>Verdadeiro Nagukka</t>
+  </si>
+  <si>
+    <t>uma árvore estranha</t>
+  </si>
+  <si>
+    <t>Nova recompensa</t>
+  </si>
+  <si>
+    <t>Masmorra Shujae</t>
+  </si>
+  <si>
+    <t>Shujae Cardápio</t>
+  </si>
+  <si>
+    <t>Circo das Areias</t>
+  </si>
+  <si>
+    <t>Circo das Areias: Fantasias</t>
+  </si>
+  <si>
+    <t>Circo das Areias: Palmeira de Madeira</t>
+  </si>
+  <si>
+    <t>Amigo ou inimigo</t>
+  </si>
+  <si>
+    <t>O banquete</t>
+  </si>
+  <si>
+    <t>Pare Laik</t>
+  </si>
+  <si>
+    <t>Assassinato na montanha</t>
+  </si>
+  <si>
+    <t>Ifrit Ghoul &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Covil do Ifrit &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>A Promessa de Isra &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Encontre Isra &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>O Segredo &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Calamidade se repete &lt;color=red&gt;(Missão principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Dia da Destruição &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Princesa Ilayda &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mirage &lt;color=red&gt;(Missão principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Uma Nova Esperança &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Volte no tempo &lt;color=red&gt;(Missão principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1000 anos atrás &lt;color=red&gt;(Missão principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Tempo &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>O Fim &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Esconderijo</t>
+  </si>
+  <si>
+    <t>Aproximar</t>
+  </si>
+  <si>
+    <t>Mina Abandonada de Redstone</t>
+  </si>
+  <si>
+    <t>Vale Verde</t>
+  </si>
+  <si>
+    <t>Vale do Siroco</t>
+  </si>
+  <si>
+    <t>Cavernas de Agadir</t>
+  </si>
+  <si>
+    <t>Esconderijo secreto</t>
+  </si>
+  <si>
+    <t>Palácio da Árvore</t>
+  </si>
+  <si>
+    <t>cavernas de neve</t>
+  </si>
+  <si>
+    <t>Cavernas de Ossos do Leviatã</t>
+  </si>
+  <si>
+    <t>vazio de lava pāhoehoe</t>
+  </si>
+  <si>
+    <t>Formação Gigante Zagros</t>
+  </si>
+  <si>
+    <t>Cavernas Rituais</t>
+  </si>
+  <si>
+    <t>Covil do Lobo no Penhasco Umbra</t>
+  </si>
+  <si>
+    <t>tesouro da cidade de Jamal</t>
+  </si>
+  <si>
+    <t>Doutor! Doutor!</t>
+  </si>
+  <si>
+    <t>Armadura de Cinzas</t>
+  </si>
+  <si>
+    <t>Guardião da Caravana</t>
+  </si>
+  <si>
+    <t>Monte a cobra</t>
+  </si>
+  <si>
+    <t>As memórias de Alaf Jahim</t>
+  </si>
+  <si>
+    <t>Memórias de Yaya</t>
+  </si>
+  <si>
+    <t>Vale de ervas de Tiqin</t>
+  </si>
+  <si>
+    <t>Comissão de Amira Zahra</t>
+  </si>
+  <si>
+    <t>Casa ocupada</t>
+  </si>
+  <si>
+    <t>De quem é a casa?</t>
+  </si>
+  <si>
+    <t>A ameaça Nemishi</t>
+  </si>
+  <si>
+    <t>O Ataque Final</t>
+  </si>
+  <si>
+    <t>Recapturar a Capital</t>
+  </si>
+  <si>
+    <t>filha desaparecida</t>
+  </si>
+  <si>
+    <t>Crianças e garrafas</t>
+  </si>
+  <si>
+    <t>miragem da floresta</t>
+  </si>
+  <si>
+    <t>Seguir</t>
+  </si>
+  <si>
+    <t>Justiça entregue</t>
+  </si>
+  <si>
+    <t>Pedra das Maldições</t>
+  </si>
+  <si>
+    <t>Livro do Fogo</t>
+  </si>
+  <si>
+    <t>Sapatos de dança desaparecendo</t>
+  </si>
+  <si>
+    <t>Vida de concerto</t>
+  </si>
+  <si>
+    <t>Um momento de descanso</t>
+  </si>
+  <si>
+    <t>Igreja dos pagãos</t>
+  </si>
+  <si>
+    <t>Pegue Burak</t>
+  </si>
+  <si>
+    <t>Pacote em uma taberna</t>
+  </si>
+  <si>
+    <t>Derrote Burak</t>
+  </si>
+  <si>
+    <t>Regresso a Agadir</t>
+  </si>
+  <si>
+    <t>Salve Rubi</t>
+  </si>
+  <si>
+    <t>Saindo de Agadir</t>
+  </si>
+  <si>
+    <t>O Espiritualista da Cidade de Cotta</t>
+  </si>
+  <si>
+    <t>O Segredo de Ghodja</t>
+  </si>
+  <si>
+    <t>Poções! Poções!</t>
+  </si>
+  <si>
+    <t>Espiritualidade Honorável</t>
+  </si>
+  <si>
+    <t>Penhascos Orientais</t>
+  </si>
+  <si>
+    <t>Penhascos Orientais II</t>
+  </si>
+  <si>
+    <t>O caçador ferido</t>
+  </si>
+  <si>
+    <t>Vale Gelado</t>
+  </si>
+  <si>
+    <t>Cavaleiro Geral</t>
+  </si>
+  <si>
+    <t>Restauração de Akhal</t>
+  </si>
+  <si>
+    <t>Restauração Dakn</t>
+  </si>
+  <si>
+    <t>Restauração de Nasir</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Shafaqat?]]#通用线索人物兽人主线2</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre Ouma, o mágico....]]#通用线索人物兽人主线3</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre a Legião Negra...]]#通用线索人物兽人主线8</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você sabe o nome de Zaratustra?]]#通用线索人物心灵巫师主线1</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Como a Guilda Comercial Corsac está conectada...?]]#通用线索人物心灵巫师主线4</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece a história de Diresprings?]]#通用线索人物心灵巫师主线7</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você pode me falar sobre Nagukka?]]#通用线索人物心灵巫师主线8</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Jihan?]]#通用线索人物猎人帮会主线1</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole: id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:O que acontece no Sand Circus?]]#通用线索人物猎人帮会主线6</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]风颖#[[amarelo:Encontrei um comerciante estranho perto de Redstone Keep...]]#通用线索霍翎支线1</t>
+  </si>
+  <si>
+    <t>Investigue os assuntos do comerciante Uday</t>
+  </si>
+  <si>
+    <t>Uday de Qebui Keep quer que você encontre seu filho e ex-esposa</t>
+  </si>
+  <si>
+    <t>Siga Omar</t>
+  </si>
+  <si>
+    <t>Encontre o Elixir do Gigante Alpino para Omar</t>
+  </si>
+  <si>
+    <t>Vá para Qebui Keep para participar das festividades de Uday</t>
+  </si>
+  <si>
+    <t>Encontre Omar</t>
+  </si>
+  <si>
+    <t>Você procura freneticamente por quem chamou seu nome. Ele foi embora em direção ao Castelo Redstone</t>
+  </si>
+  <si>
+    <t>Quando chegar a hora, vá para as minas abandonadas a leste da cidade de Prism Rock e encontre Shafaqat</t>
+  </si>
+  <si>
+    <t>Encontre um mago chamado Ouma no extremo norte do Vale Congelado, nas Montanhas Zagros.</t>
+  </si>
+  <si>
+    <t>Você deve expandir sua reputação e ganhar mais Favor</t>
+  </si>
+  <si>
+    <t>Entregue medicamentos aos habitantes da Vila Nebulosa</t>
+  </si>
+  <si>
+    <t>Os moradores de Misty Village têm ideias estranhas sobre medicina. Volte para a cabana e pergunte ao servo de Ouma o que está acontecendo</t>
+  </si>
+  <si>
+    <t>Lute contra Ouma</t>
+  </si>
+  <si>
+    <t>Aprenda a verdade sobre sua própria vida</t>
+  </si>
+  <si>
+    <t>Pegue um barco do norte de Agadir de volta ao Hunter Valley e confira</t>
+  </si>
+  <si>
+    <t>Um mago da cidade de Amaranth pede sua ajuda para localizar um residente muito especial.</t>
+  </si>
+  <si>
+    <t>O batedor Tausiq espera que você encontre cinco presas de lobo para ele. No entanto, você não consegue evitar a sensação de que ele está escondendo algo de você.</t>
+  </si>
+  <si>
+    <t>Áreas da sua memória permanecem embaçadas para você. Levará alguns dias para sua memória se recuperar</t>
+  </si>
+  <si>
+    <t>Desejando esclarecer seu passado, Zeynep sugere que você vá para Amaranth Town em Crying Rock e procure por "aquela" pessoa.</t>
+  </si>
+  <si>
+    <t>Tudo o que você pode fazer é tentar outra coisa: encontrar seu velho amigo nos subúrbios ao sudeste da cidade de Amaranth.</t>
+  </si>
+  <si>
+    <t>Você concorda em ajudar a proteger a prisão do prefeito em troca de informações.</t>
+  </si>
+  <si>
+    <t>Quer você goste ou não, Hooknose só revelará o que sabe sobre Zaratustra por 1000 Utar. Você poderia chantagear Tandu, um jovem de Triptych Rock, por uma dívida que ele tem com Hooknose, ou você mesmo pode pagar o Utar.</t>
+  </si>
+  <si>
+    <t>As pistas levaram diretamente de volta à Guilda Comercial Corsac de Dunestorm</t>
+  </si>
+  <si>
+    <t>Espere dois dias antes de retornar ao Dunestorm</t>
+  </si>
+  <si>
+    <t>Procure Khurram Aslae a leste de Dunestorm</t>
+  </si>
+  <si>
+    <t>Khurram Aslae conta o que espera por você na Biblioteca Subterrânea Diresprings</t>
+  </si>
+  <si>
+    <t>Zaratustra está em &lt;color=red&gt;Nagukka&lt;/color&gt;, perto dos Penhascos Umbra. Vá encontrá-lo em Nagukka</t>
+  </si>
+  <si>
+    <t>Encontre a residência de Zaratustra em &lt;color=red&gt;True Nagukka&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Encontre a residência de Zaratustra em &lt;color=red&gt;True Nagukka&lt;/color&gt; e derrote-o para se vingar.</t>
+  </si>
+  <si>
+    <t>Sabendo a verdade sobre o assunto, agora você pode sair de &lt;color=red&gt;True Nagukka&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Encontre um comerciante chamado Jihan no Castelo Redstone para coletar sua próxima missão de recompensa</t>
+  </si>
+  <si>
+    <t>Vá para o desfiladeiro em Crying Rock e encontre uma árvore estranha localizada ao norte do Posto Avançado de West Crag, então retorne e reporte-se a Jihan em Redstone Keep</t>
+  </si>
+  <si>
+    <t>Reivindique uma nova missão de recompensa perto de Sandedge Village, no Vale Twinluna</t>
+  </si>
+  <si>
+    <t>Fuja da masmorra de Shujae</t>
+  </si>
+  <si>
+    <t>Conheça Laik no Camp Precipice</t>
+  </si>
+  <si>
+    <t>Vá para o Camel Bell Bazaar e encontre uma maneira de entrar furtivamente no Circus of Sands</t>
+  </si>
+  <si>
+    <t>Encontre uma maneira de conseguir uma fantasia de circo adequada</t>
+  </si>
+  <si>
+    <t>Adquira cinco unidades de Palm Wood</t>
+  </si>
+  <si>
+    <t>Vá para as montanhas Zagros e encontre Badis no lago a sudeste de Snowridge. Como comandante das forças Shujae que o aprisionaram... você pode realmente confiar nele?</t>
+  </si>
+  <si>
+    <t>Badis conta o plano de Laik e espera que você possa impedi-lo no banquete. Vá e participe do banquete no canto sudeste das Montanhas Zagros</t>
+  </si>
+  <si>
+    <t>Você vê o sinal Badis. Laika está em movimento. vá ajudá-lo</t>
+  </si>
+  <si>
+    <t>Vá para o extremo sudeste das Montanhas Zagros e junte-se ao Circo das Areias. Então mate o chefe Shujae.</t>
+  </si>
+  <si>
+    <t>Malak diz que seu experimento terminará em um mês e ele precisa de sua ajuda. Aprimore suas habilidades durante esse período</t>
+  </si>
+  <si>
+    <t>Vá para o covil do Ifrit ao sul do Vale Redstone</t>
+  </si>
+  <si>
+    <t>Isra é uma mulher muito misteriosa, mas afirma que agora não é hora de confessar tudo. Quando você estiver forte o suficiente, ela lhe contará tudo. Aguarde 30 dias até que Isra entre em contato com você novamente</t>
+  </si>
+  <si>
+    <t>Isra escreveu uma carta para lhe dizer que está esperando por você ao norte de Agadir, no Vale Twinluna</t>
+  </si>
+  <si>
+    <t>Atravesse o túnel secreto com Ilayda e descubra os segredos da Deusa do Rio e do Ifrit</t>
+  </si>
+  <si>
+    <t>Ilyada lhe disse que o Ifrit retornará. Faça os preparativos naquele dia. Fale com o Árbitro no Vazio de Lava Pāhoehoe em Redstone Valley se esta missão não puder progredir.</t>
+  </si>
+  <si>
+    <t>O dia da profecia chegou! Derrote o Ifrit e defenda as terras desertas! Fale com o Árbitro no Vazio de Lava Pāhoehoe em Redstone Valley se esta missão não puder progredir.</t>
+  </si>
+  <si>
+    <t>Você lembra vagamente que terá que ir ao portal próximo ao Pāhoehoe Lava Void no próximo mês para derrotar Malak</t>
+  </si>
+  <si>
+    <t>A Princesa Ilayda convida você mais uma vez para o Vale Twinluna e promete explicar absolutamente tudo para você naquele momento.</t>
+  </si>
+  <si>
+    <t>Visite a miragem da Deusa do Rio e pegue a cimitarra novamente</t>
+  </si>
+  <si>
+    <t>Prepare-se para o dia em que essa rachadura abrir</t>
+  </si>
+  <si>
+    <t>Chegou a hora de reverter o destino do universo. Entre na fenda com Ilayda</t>
+  </si>
+  <si>
+    <t>Você se encontra em um espaço desconhecido. Seria realmente assim que o mundo era há mil anos? Ilayda não pode responder, porém, ela desapareceu. Encontre</t>
+  </si>
+  <si>
+    <t>Encontre Ilayda e fale com ela</t>
+  </si>
+  <si>
+    <t>Este é realmente o fim. Derrote a Fenda!</t>
+  </si>
+  <si>
+    <t>Ajude o pequeno Jarah a encontrar as outras duas crianças</t>
+  </si>
+  <si>
+    <t>Ajude Ghazi a transportar um pouco de madeira para o sul e ajude a construir uma cerca para proteger a cidade do Ifrit</t>
+  </si>
+  <si>
+    <t>Explore a mina abandonada de Redstone, ao sul de Camp Precipice</t>
+  </si>
+  <si>
+    <t>O Green Valley aguarda sua exploração. Vá para o norte a partir de Snowridge e siga uma pequena trilha para o leste</t>
+  </si>
+  <si>
+    <t>Siga para o sul a partir da cidade de Khamsin para explorar o Vale do Sirocco</t>
+  </si>
+  <si>
+    <t>Procure nas Cavernas de Agadir a bebida de que os agricultores falaram. Eles estão perto do Porto Norte</t>
+  </si>
+  <si>
+    <t>Um homem implora que você encontre o Esconderijo Secreto e resgate sua esposa do mágico que a sequestrou.</t>
+  </si>
+  <si>
+    <t>Vá para noroeste de Fleur até o Palácio da Árvore e recupere o Cristal do Transeunte</t>
+  </si>
+  <si>
+    <t>Vá para as Cavernas de Neve próximas ao pequeno lago a sudeste de Snowridge</t>
+  </si>
+  <si>
+    <t>Vá para as Cavernas de Ossos do Leviatã perto de Ivory Village. Fica logo ao sul dos campos agrícolas da vila.</t>
+  </si>
+  <si>
+    <t>Vá para Pāhoehoe Lava Void naquela área estranha ao sul de Redstone Keep. Você pode ter problemas para chegar lá</t>
+  </si>
+  <si>
+    <t>Vá para a Formação Gigante Zagros, a sudoeste de Snowridge. Diz a lenda que existe um desfiladeiro se você seguir para o sul e depois para o oeste de Snowridge. A formação está localizada no final deste cânion</t>
+  </si>
+  <si>
+    <t>Vá para as cavernas rituais</t>
+  </si>
+  <si>
+    <t>Explore a Toca do Lobo ao sul da Vila do Pântano Negro e capture o Lobo Alfa</t>
+  </si>
+  <si>
+    <t>Há rumores de que os Dakn estão organizando uma competição de gladiadores. O vencedor será premiado com o saque obtido no saque de Jamal City.</t>
+  </si>
+  <si>
+    <t>Um homem foi mortalmente ferido no acampamento dos bandidos perto de Fleur. Vá encontrar um médico em Fleur e leve-o ao acampamento para salvá-lo</t>
+  </si>
+  <si>
+    <t>Como disse o desertor, há uma pedra azul na Pedra das Lamentações. Abaixo está o tesouro secreto do Velho Mundo: a Desert Ash Armor</t>
+  </si>
+  <si>
+    <t>Em Dunestorm, você encontra uma caravana a caminho do Camel Bell Bazaar e promete acompanhá-la até seu destino em três dias.</t>
+  </si>
+  <si>
+    <t>Você vê uma jovem parada perto de uma das áreas onde a cobra gigante foi vista pela última vez. Ela sugere que dois pequenos frascos de Elixir de Rosa Branca podem ser suficientes para domar a cobra gigante.</t>
+  </si>
+  <si>
+    <t>Alaf Jahim conta a história de sua juventude, quando ele era apenas um patrulheiro comum do deserto</t>
+  </si>
+  <si>
+    <t>Alaf Jahim foi capturado por bandidos junto com o resto da caravana. Quebre sua cabeça e encontre uma maneira de escapar</t>
+  </si>
+  <si>
+    <t>Quando estava prestes a fugir, Alaf Jahim descobre que o líder dos bandidos é Muna, um velho amigo de sua cidade natal.</t>
+  </si>
+  <si>
+    <t>Você ouviu as histórias de Alaf Jahim. Tenha outra conversa com ele</t>
+  </si>
+  <si>
+    <t>A vovó começa a contar sobre quando ele era uma criança normal... antes de se tornar isso.</t>
+  </si>
+  <si>
+    <t>Yaya se tornou uma pessoa muito mais forte depois de conhecer Ilham, mas</t>
+  </si>
+  <si>
+    <t>Pouco tempo depois da partida de Ilham, a vovó viajou sozinha até os Penhascos Umbra para procurá-la.</t>
+  </si>
+  <si>
+    <t>Com o passar dos anos, Yaya cresceu até sua forma desfigurada atual: mas agora é a hora certa para ele acertar as contas com Noor!</t>
+  </si>
+  <si>
+    <t>Tiqin implora que você vá com ela a um vale secreto cheio de ervas perto do &lt;color=red&gt;Posto Avançado do Penhasco Norte&lt;/color&gt; para procurar alguns ingredientes herbais preciosos e raros.</t>
+  </si>
+  <si>
+    <t>Você já encontrou uma entrada. Uma segunda entrada está localizada &lt;color=red&gt;entre a Formação Gigante Zagros e a Vila Southcliff&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Após uma missão congelada, uma terceira entrada pode ser encontrada no pântano próximo à &lt;color=red&gt;Ebon Village&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Amira Zahra pede para você ir até o cânion ao norte de Diresprings e entregar alguns itens para as pessoas que moram lá.</t>
+  </si>
+  <si>
+    <t>Um andarilho caolho afirma que sua casa foi tomada por um tirano rico. Ele implora que você elabore um plano para ajudá-lo a recuperar sua propriedade.</t>
+  </si>
+  <si>
+    <t>Elam provou que a propriedade pertence a ele. E agora que?</t>
+  </si>
+  <si>
+    <t>Você assumiu a liderança de sua tribo de seu pai, mas seu vizinho, Nemishi, veio procurar por algo chamado Vintage Reed. Se você não conseguir produzir isso dentro de um mês, as forças deles atacarão nossa tribo!</t>
+  </si>
+  <si>
+    <t>Você desativou com sucesso a primeira invasão de Nemishi, mas ele promete retornar com tropas em dois meses. Você deve treinar para derrotá-los</t>
+  </si>
+  <si>
+    <t>Depois das duas primeiras derrotas, Nemishi não está disposto a deixar as coisas por aí. Você ouve rumores de que ele está mobilizando um exército para lançar um ataque final contra nós!</t>
+  </si>
+  <si>
+    <t>Nemishi foi derrotado e, a julgar pelo que ele deixou para trás, o Epoch Reed está escondido em algum lugar nas &lt;color=red&gt;Ruínas Quebradas&lt;/color&gt; de sua própria tribo.</t>
+  </si>
+  <si>
+    <t>Seu capital foi capturado! Encontre uma maneira de recapturar a cidade!</t>
+  </si>
+  <si>
+    <t>A filha do pintor errante se perdeu. Ele espera que você possa ajudar a encontrá-la e devolvê-la.</t>
+  </si>
+  <si>
+    <t>Vá para o local onde você conheceu o Wandering Painter em Weeping Rock. #1| PEITO:流浪画师女儿之墓</t>
+  </si>
+  <si>
+    <t>Você conheceu duas crianças no posto avançado de West Crag. Eles lhe deram uma garrafa estranha na esperança de que você a jogasse no Pāhoehoe Lava Void para destruí-la.</t>
+  </si>
+  <si>
+    <t>Você comprou um cristal de um comerciante em Redstone Valley. Ele disse que poderia transformar uma Dríade na Floresta da Ilusão de volta à forma humana. Você está pronto para testar suas palavras viajando para a &lt;color=red&gt;Floresta da Ilusão&lt;/color&gt; nos Penhascos Umbra</t>
+  </si>
+  <si>
+    <t>Sua experiência na Floresta da Ilusão prova que o cristal que o comerciante lhe vendeu não passava de uma falsificação. Pesquise e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro da Fortaleza da Pedra Vermelha sua localização.</t>
+  </si>
+  <si>
+    <t>Você prendeu o comerciante em Weeping Rock. Leve-o de volta ao Castelo de Pedra Vermelha e receba sua recompensa</t>
+  </si>
+  <si>
+    <t>O comerciante contou a você o paradeiro de uma mítica Pedra da Maldição, em algum lugar a oeste dos Penhascos Umbra. Você pode precisar perguntar nos Penhascos Umbra para determinar sua localização exata.</t>
+  </si>
+  <si>
+    <t>Você obteve inesperadamente o Livro do Fogo, um antigo livro de feitiços Ifrit. A alma de seu autor, o Flame Master Ifrit, está selada em suas páginas. Colete os outros quatro fragmentos do livro e junte-se a eles para libertar seu espírito e ganhar seus poderes. Procure uma grande marca de energia perto de cada fragmento</t>
+  </si>
+  <si>
+    <t>Os sapatos de dança de Umara desapareceram. Você decide esperar pelo culpado perto da grande árvore ao longo do rio do posto avançado North Crag.</t>
+  </si>
+  <si>
+    <t>Seria de se esperar que Umara recusasse um show no valor de dez mil Utar? Mas algo parece errado. Você decide observá-la secretamente para protegê-la.</t>
+  </si>
+  <si>
+    <t>Se está fazendo tarde. Mathali busca abrigo para descansar sua mente cansada</t>
+  </si>
+  <si>
+    <t>Mathali conheceu uma jovem chamada Yara após derrotar os infiéis. Yara, entusiasmada por ter sido salva, decidiu guiar Mathali até sua aldeia próxima.</t>
+  </si>
+  <si>
+    <t>Mathali pretende libertar os aldeões da Igreja da Resplendor que os aflige. Ele decide viajar para sua fortaleza subterrânea para expulsá-los.</t>
+  </si>
+  <si>
+    <t>Rumores falam de um poderoso espírita residente em Agadir. Encontre-o e derrote-o como o primeiro passo da sua jornada</t>
+  </si>
+  <si>
+    <t>Você conhece um feiticeiro chamado Malek que compartilha seu conhecimento sobre Burak. Vocês decidem procurar mais pistas juntos, um pouco de trabalho em equipe nunca fez mal a ninguém.</t>
+  </si>
+  <si>
+    <t>Você e Malek aprenderam mais informações sobre Burak. Volte para Agadir e pegue-o!</t>
+  </si>
+  <si>
+    <t>Malek ficou gravemente ferido e não pôde lhe dar a recompensa pessoalmente. Em vez disso, deixou um pacote com o taverneiro em Agadir</t>
+  </si>
+  <si>
+    <t>Uma velha conta sobre Burak, um espírita que mora em Agadir. Você decide segui-la até a casa de Burak.</t>
+  </si>
+  <si>
+    <t>Você foi enganado por Burak e Kun'na! Eles pretendem sacrificar você em um ritual infernal!</t>
+  </si>
+  <si>
+    <t>Kun'na pode parecer uma velhinha doce, mas não se deixe enganar por seu desempenho. Você decide continuar procurando o Espiritualizador sozinho nas ruas de Agadir.</t>
+  </si>
+  <si>
+    <t>Você conhece Rubi, uma jovem que vende flores. Ela diz que irá levá-lo para conhecer um de seus empregadores com habilidades misteriosas, depois que você a levar para casa.</t>
+  </si>
+  <si>
+    <t>Rubi terminou de verificar o pai. É hora de procurar o mágico</t>
+  </si>
+  <si>
+    <t>Burak e a velha vão matar Rubi. Você não pode simplesmente ficar aí sentado sem fazer nada e assistir, salve-a!</t>
+  </si>
+  <si>
+    <t>O pai de Rubí implora que você salve a filha dele. Apenas uma Poção da Rosa Branca pode ajudá-la agora.</t>
+  </si>
+  <si>
+    <t>Você fez tudo que podia aqui. Você decide sair de Agadir em busca do seu próximo objetivo</t>
+  </si>
+  <si>
+    <t>Você fica sabendo de uma jovem Bruxa Espiritual que foi vista recentemente perto de Amaranth City. Seria do seu interesse saber mais</t>
+  </si>
+  <si>
+    <t>Um jovem chamado Tandu sugere que você procure o fitoterapeuta da vila de Cotta para obter ajuda. Aparentemente, ele tem um método infalível para derrotar inimigos poderosos.</t>
+  </si>
+  <si>
+    <t>Ghodja desvia facilmente seu feitiço e controla você em troca. Como ele poderia vencer você? Você está determinado a descobrir. Dê um passeio por Cotta Town e veja o que você pode descobrir</t>
+  </si>
+  <si>
+    <t>Você conhece um jovem bruxo chamado Oli. Após uma breve conversa, ele revela alegremente a técnica secreta de Ghodja: tomar poção após poção. Você decide reunir poções de maior qualidade e usar seu próprio truque contra ele. (Elixires of Arcana podem ser criados ou adquiridos no Boticário da Cidade de Amaranth)</t>
+  </si>
+  <si>
+    <t>Você conhece um jovem bruxo chamado Oli. Após uma breve conversa, ele revela alegremente a técnica secreta de Ghodja: tomar poção após poção. Você não tem vergonha do método dele, na verdade, você está intrigado com o desafio</t>
+  </si>
+  <si>
+    <t>Você pensa em Tandu depois de derrotar Ghodja. É hora de exigir informações sobre o verdadeiro Espírita.</t>
+  </si>
+  <si>
+    <t>Khaldun, um misterioso homem de cabelos brancos, conta sobre um mestre arcano chamado Zaratustra. Se ele estiver certo, você encontrará Zaratustra nos Penhascos Umbra. A cidade mais próxima das falésias é um lugar encantador chamado Fleur. Seria sensato viajar até lá em busca de mais informações</t>
+  </si>
+  <si>
+    <t>Parece que alguns moradores do leste de Fleur perderam a memória. Você só consegue pensar em um culpado: um espírita</t>
+  </si>
+  <si>
+    <t>Você conversa com Barqash, um pai que procura sua filha, na entrada das falésias. Ele pediu que você o ajudasse a encontrar sua filha Basila</t>
+  </si>
+  <si>
+    <t>Você encontra um caçador ferido enquanto explora os penhascos orientais. Você se prepara para acompanhá-lo de volta à Cidade Esmeralda.</t>
+  </si>
+  <si>
+    <t>Você finalmente leva Basila embora. Nadira aceitou sua dor</t>
+  </si>
+  <si>
+    <t>Siga o conselho de Khaldun e viaje para Frost Valley</t>
+  </si>
+  <si>
+    <t>Você encontra um caçador de recompensas desanimado nos picos nevados chamado Ouda. Ele sabe onde encontrar o Shaitan e está disposto a levá-lo para sua caverna</t>
+  </si>
+  <si>
+    <t>Depois de juntar os dois fragmentos do mapa, você descobre a localização específica do Cavaleiro General</t>
+  </si>
+  <si>
+    <t>Seu objetivo? Derrote o Dakn e o Nasir. Ocupe Redstone Keep e Triptych Rock para derrotá-los. O progresso da ocupação será atualizado todas as manhãs</t>
+  </si>
+  <si>
+    <t>Seu objetivo? Derrote o Dhib e o Akhal. Ocupe Camel Bell Bazaar e Frost Valley para derrotá-los. O progresso da ocupação será atualizado todas as manhãs</t>
+  </si>
+  <si>
+    <t>Seu objetivo? Derrote o Akhal, o Thur e o Dhib. Ocupe Camel Bell Bazaar, Mireton e Frost Valley para subjugá-los. O progresso da ocupação será atualizado todas as manhãs</t>
+  </si>
+  <si>
+    <t>0#Investigate Uday#1##大雪山:2079,8554:0|北风镇瓦德争吵</t>
+  </si>
+  <si>
+    <t>0#Vá para uma vila ao norte de Qebui Keep#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
+  </si>
+  <si>
+    <t>0#Follow Omar#1##大雪山:5594,9879:0|trigger:琥珀找到不远处的琥珀正在与怪物战斗</t>
+  </si>
+  <si>
+    <t>4#Encontre um Elixir Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
+  </si>
+  <si>
+    <t>0#Vá para Qebui Keep#1##大雪山:2372,8379:0</t>
+  </si>
+  <si>
+    <t>0#Find Omar#1##大雪山:2338,9105:0|trigger:北风镇宴会琥珀</t>
+  </si>
+  <si>
+    <t>0#Viaje para Redstone Keep e procure por "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
+  </si>
+  <si>
+    <t>0#Espere sete dias#7 0#Vá para a mina abandonada em Crying Rock#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
+  </si>
+  <si>
+    <t>0#Find Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Ganhe mais de 8 pontos de talento e encontre o servo de Ouma#1##大雪山:10072,11659:0|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Pesquise a aldeia#3##大雪山:9515,15488:400 0#Encontre o chefe da aldeia#1|兽人主线村长</t>
+  </si>
+  <si>
+    <t>0#Encontre o servo de Ouma e relate suas descobertas#1##大雪山:10072,11659:0|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Derrote Ouma#1</t>
+  </si>
+  <si>
+    <t>0#Vá para o norte de Sandedge Village em Twinmoon Valley#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞. 0#Vá para o norte de Sandedge Village em Twinmoon Valley#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞</t>
+  </si>
+  <si>
+    <t>0#Fale com Yaksha no Vale do Caçador#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Ajude o mago em Amaranth City a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
+  </si>
+  <si>
+    <t>4#Recupere cinco dentes de lobo para Tausiq#5#狼牙#</t>
+  </si>
+  <si>
+    <t>0#Recupere suas memórias#1</t>
+  </si>
+  <si>
+    <t>0#Vá para a cidade de Amaranth em Crying Rock#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Encontre seu velho amigo no canto sudeste da cidade de Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
+  </si>
+  <si>
+    <t>0#Guardar a prisão à noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗. 0#Guardar a prisão à noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
+  </si>
+  <si>
+    <t>4#Dê 1000 Utar para Hooknose no sudoeste da cidade de Amaranth#1000#金钱#|三石堡腾越</t>
+  </si>
+  <si>
+    <t>0#Aguarde informações da Guilda Comercial Corsac#1 0#Viagem para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
+  </si>
+  <si>
+    <t>0#Espere dois dias antes de retornar ao Dunestorm#1</t>
+  </si>
+  <si>
+    <t>0#Vá para o leste de Dunestorm em busca do Palácio Corsac #1##大沙漠:-3052,-872:300|trigger:心灵巫师主线401</t>
+  </si>
+  <si>
+    <t>0#Vá para a Biblioteca Subterrânea em Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
+  </si>
+  <si>
+    <t>0#Viaje para noroeste dos penhascos de Umbra até Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
+  </si>
+  <si>
+    <t>0#Encontre a casa de Zaratustra#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a casa de Zaratustra#1 0#Derrote Zaratustra#1</t>
+  </si>
+  <si>
+    <t>0#Saída Verdadeira Nagukka#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Jihan, o Mercador, em Redstone Keep#1##沙盒红石城:-1211,1133:100|红石城古达</t>
+  </si>
+  <si>
+    <t>0#Depois de encontrar uma árvore estranha dentro dos cânions de Crying Rock, volte para Redstone Keep e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|triger:猎人帮会主线301</t>
+  </si>
+  <si>
+    <t>0#Vá para Sandedge Village#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
+  </si>
+  <si>
+    <t>0#Escape da masmorra de Shujae#1</t>
+  </si>
+  <si>
+    <t>0#Journey to Camp Cliff#1##沙盒红石城:-545.3929:0|红石城北聚落雷毅</t>
+  </si>
+  <si>
+    <t>0#Vá para o Camel Bell Bazaar#1|trigger:驼铃集市触发器 0#Ganhe a confiança do Sand Circus#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
+  </si>
+  <si>
+    <t>4#Encontre um manto de mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
+  </si>
+  <si>
+    <t>4#Obtenha 5 unidades de Madeira de Palmeira#5#棕榈木#大沙漠:343,-317:300|trigger:猎人帮会主线8棕榈园</t>
+  </si>
+  <si>
+    <t>0#Encontre Badis perto do lago a sudeste de Snowridge#1##大雪山:7976,-2851:100|大沙漠长孙弘</t>
+  </si>
+  <si>
+    <t>0#Badis conta o plano de Laik. Espero que você consiga impedir Laik no banquete!</t>
+  </si>
+  <si>
+    <t>0#Derrote Laik e seu exército#1|gatilho:白狮宴会雷毅触发器</t>
+  </si>
+  <si>
+    <t>0#Encontrar Eisa#1|白狮宴会蓝伊莎 0#Matar Boss Shujae#1|gatilho:白狮宴会触发器</t>
+  </si>
+  <si>
+    <t>0#Espere por notícias de Malak#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Malak perto do Vazio de Lava Pāhoehoe#1 0#Derrote o Ifrit#1|火魔巢穴入口格瓦</t>
+  </si>
+  <si>
+    <t>0#Espere por notícias de Isra#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Isra#1|Entrada para o Vale da Lua Prateada</t>
+  </si>
+  <si>
+    <t>0#Explore o túnel secreto#1|trigger:大主线5009</t>
+  </si>
+  <si>
+    <t>0#Espere o Rift reabrir#1</t>
+  </si>
+  <si>
+    <t>0#Resistir Ifrit#1|trigger:大主线8006</t>
+  </si>
+  <si>
+    <t>0#Vá para o portal próximo ao Vazio de Lava Pāhoehoe#1|trigger:大主线真结局2001</t>
+  </si>
+  <si>
+    <t>0#Encontre a Princesa Ilayda perto de Agadir (Posto Norte) no Vale Twinluna#1|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Recupere a Cimitarra Mirage|gatilho:大主线真结局4004</t>
+  </si>
+  <si>
+    <t>0#Espere o Rift abrir#1</t>
+  </si>
+  <si>
+    <t>0#Entre no Rift com Ilayda#1|trigger:大主线真结局6002</t>
+  </si>
+  <si>
+    <t>0#Tente encontrar Ilayda#1|trigger:大主线真结局8001</t>
+  </si>
+  <si>
+    <t>0#Fale com Ilayda#1|二周目河边银珊</t>
+  </si>
+  <si>
+    <t>0#Este é o fim! Lute!#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o Pequeno Hewez#1</t>
+  </si>
+  <si>
+    <t>0#Transporte a cerca#1|Carpinteiro</t>
+  </si>
+  <si>
+    <t>0#Explore a mina abandonada#1##沙盒红石城:-310,3163:0|LUGAR:红石城废弃矿洞</t>
+  </si>
+  <si>
+    <t>0#Explore o Vale Verde#1##大雪山:6598,2333:0|LUGAR:采药雪谷</t>
+  </si>
+  <si>
+    <t>0#Explore o Vale do Siroco#1##沙盒风哭岩:3322,-5951:0|LOCAL:狂风山谷</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas de Agadir#1##沙盒双月山谷:-1725,1471:0|LOCAL:浅溪溶洞</t>
+  </si>
+  <si>
+    <t>0#Encontre a esposa do homem#1##沙盒双月山谷:2760,6661:0|LUGAR:秘密集会所</t>
+  </si>
+  <si>
+    <t>0#Explore o Palácio da Árvore#1##沙盒黑崖花卉乡:-4267,3378:0|LUGAR:树宫</t>
+  </si>
+  <si>
+    <t>0#Explore as cavernas nevadas#1##大雪山:9107,-2394:0|LUGAR:雪山冰窟</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas de Ossos do Leviatã#1##沙盒双月山谷:-305,596:0|LUGAR:巨大兽骨洞窟</t>
+  </si>
+  <si>
+    <t>0#Explore o Vazio de Lava Pāhoehoe#1##沙盒红石城:-914,-1727:0|LOCAL:巨大熔岩空洞</t>
+  </si>
+  <si>
+    <t>0#Explore a Formação Gigante Zagros#1##大雪山:4926,-2923:0|LOCAL:雪山巨人石阵</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas Rituais#1##大雪山:4557,7657:0|LUGAR:古老秘仪之窟</t>
+  </si>
+  <si>
+    <t>0#Afaste os lobos selvagens#3##沙盒黑崖花卉乡:-4813,-13013:2000 0#Derrotar o Rei Canis#1##沙盒黑崖花卉乡:-6196,-13160:300</t>
+  </si>
+  <si>
+    <t>0#Participe do concurso na Vila Papyriduo#1##沙盒风哭岩:422,2677:0|trigger:骆驼城的秘宝2001</t>
+  </si>
+  <si>
+    <t>0#Encontre um curandeiro em Fleur#1##沙盒黑崖花卉乡:-1301,-1918:1000|花卉乡普洛 0#Cure o desertor#1</t>
+  </si>
+  <si>
+    <t>0#Procure a Armadura de Cinzas do Deserto em Crying Rock#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
+  </si>
+  <si>
+    <t>0#Acompanhe uma caravana de Dunestorm até Camel Bell Bazaar#1|LUGAR:驼铃集市</t>
+  </si>
+  <si>
+    <t>4#Traga dois frascos de Elixir de Rosa Branca#2#白蔷薇秘药小#</t>
+  </si>
+  <si>
+    <t>0#Fale com o líder da caravana#1 0#Acompanhe a caravana#1</t>
+  </si>
+  <si>
+    <t>0#Faça um plano de resgate#1 0#Fuja do acampamento dos bandidos#1</t>
+  </si>
+  <si>
+    <t>0#Derrote Muna#1</t>
+  </si>
+  <si>
+    <t>0#Fale com Alaf Jahim#1</t>
+  </si>
+  <si>
+    <t>0#Encontre algo para comer#1</t>
+  </si>
+  <si>
+    <t>0#Dê uma lição ao agressor#1 0#Fale com Ilham#1</t>
+  </si>
+  <si>
+    <t>0#Encontre algo para comer#1 0#Encontre a Pequena Ilham#1</t>
+  </si>
+  <si>
+    <t>0#Derrote o mago Noor#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada em Crying Rock#1##沙盒风哭岩:-835.9342:200|trigger:提可沁主线101选择 0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada dentro das Montanhas Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择 0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada dentro dos Penhascos Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|triger:提可沁主线105选择 0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Vá para o local especificado#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102 0#Conclua a entrega#1|北荒村村长</t>
+  </si>
+  <si>
+    <t>0#Vá para os arredores do Acampamento Sava em busca de uma casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
+  </si>
+  <si>
+    <t>Encontre outra maneira de obter a escritura da casa.#1##大沙漠:-3343,1355:0|野马部落富豪</t>
+  </si>
+  <si>
+    <t>0#Desenvolva sua tribo e defenda-se de Nemishi#1</t>
+  </si>
+  <si>
+    <t>0#Repelir a última invasão de Nemishi#1</t>
+  </si>
+  <si>
+    <t>0#Entre na miragem e procure pelo Canaveral da Era#1|BAÚ:建设MOD美舍卢标记</t>
+  </si>
+  <si>
+    <t>0#Recapturar a capital#1|LUGAR:建设MOD主城</t>
+  </si>
+  <si>
+    <t>0#Encontre a filha do pintor#1</t>
+  </si>
+  <si>
+    <t>0#Vá até a grande árvore perto dos penhascos ao norte da cidade de Cotta#1|BAÚ:流浪画师女儿之墓</t>
+  </si>
+  <si>
+    <t>0#Fique próximo à lava no Vazio de Lava Pāhoehoe#1|LUGAR:巨大熔岩空洞</t>
+  </si>
+  <si>
+    <t>0#Vá para a Floresta Mirage nos Penhascos Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|LUGAR:林间幻境</t>
+  </si>
+  <si>
+    <t>0#Localize o comerciante#1##沙盒红石城:-1471,611:500|LOCAL:红石城</t>
+  </si>
+  <si>
+    <t>0#Retorne ao Redstone Keep e entregue ao aproveitador#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
+  </si>
+  <si>
+    <t>0#Procure a Pedra das Maldições#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
+  </si>
+  <si>
+    <t>0#Colete quatro fragmentos do Livro do Fogo#4</t>
+  </si>
+  <si>
+    <t>0#Espere perto do rio perto do Posto Avançado North Crag#1##沙盒风哭岩:-1811,6976:0|trigger:希云娜支线102</t>
+  </si>
+  <si>
+    <t>0#Acompanhe Umara em sua apresentação#1##沙盒黑崖花卉乡:-8858,-12217:0|trigger:希云娜支线202</t>
+  </si>
+  <si>
+    <t>0#Explore a cidade próxima#1##韩靖主线村庄:2558,-4378:0</t>
+  </si>
+  <si>
+    <t>0#Entre no abrigo subterrâneo da Igreja da Radiância em memória de Mathali#1</t>
+  </si>
+  <si>
+    <t>0#Viaje para Agadir no Vale Twinluna em busca de pistas sobre o Spiritmancer#1##沙盒双月山谷:-2017,-268:500|LOCAL:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Viagem para Northport com Malek#1##沙盒双月山谷:-2551,2264:0|LUGAR:浅溪镇北聚落</t>
+  </si>
+  <si>
+    <t>0#Derrote Burak#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Fale com Shukriya em Agadir#1##沙盒双月山谷:-2580,-535:0|LOCAL:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Siga Kun'na até a casa de Burak#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Derrote Burak e Kun'na#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Regresso a Agadir#1##沙盒双月山谷:-2552,-471:500|LOCAL:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Siga Rubi até a casa dela#1##沙盒双月山谷:-2134,-1283:0</t>
+  </si>
+  <si>
+    <t>0#Siga Rubi até a casa do mago#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>4#Encontre as Poções da Rosa Branca e leve-as para a casa de Rubi#1#白蔷薇秘药小#沙盒双月山谷:-2134,-1283:0|trigger:心灵女巫主线225</t>
+  </si>
+  <si>
+    <t>0#Vá para os portões de Agadir#1##沙盒双月山谷:-2025,-72:0</t>
+  </si>
+  <si>
+    <t>0#Vá para a cidade de Amaranth#1##沙盒风哭岩:2330,8441:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Vá para a cidade de Cotta#1##沙盒风哭岩:-638,-5306:0|LUGAR:陶山镇</t>
+  </si>
+  <si>
+    <t>0#Descubra o segredo da técnica Ghodja#1</t>
+  </si>
+  <si>
+    <t>4#Colete 5 Elixires Arcanos e desafie Ghodja para um duelo#5#巫术药剂#沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
+  </si>
+  <si>
+    <t>0#Continue com Oli até a casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
+  </si>
+  <si>
+    <t>0#Fale com Tandu na cidade de Amaranth#1##沙盒风哭岩:2330,8441:100|LOCAL:紫木镇</t>
+  </si>
+  <si>
+    <t>0#Pergunte aos moradores de Fleur sobre Zaratustra#1##沙盒黑崖花卉乡:-927,-1507:100|LOCAL:花卉乡</t>
+  </si>
+  <si>
+    <t>0#Vá para a entrada do penhasco a leste de Fleur#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Entre nos penhascos orientais para procurar Basila, filha de Barqash#1##沙盒黑崖花卉乡:1559,-2746:1000|triger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Acompanhe o caçador ferido de volta à Vila Esmeralda antes que ele perca muito sangue#1##沙盒黑崖花卉乡:3247,-1045:0|LOCAL:花卉乡东聚落</t>
+  </si>
+  <si>
+    <t>0#Defeat Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Ouça os rumores locais na Taverna Frost Valley#1##大雪山:9940,8699:50|LOCAL:冰谷</t>
+  </si>
+  <si>
+    <t>0#Entre na caverna de Shaitan com Ouda#1##大雪山:11766,10596:0 0#Derrote Shaitan#1</t>
+  </si>
+  <si>
+    <t>0#Procure o monumento do Cavaleiro General#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
+  </si>
+  <si>
+    <t>0#Controle pelo menos 18 cidades#18 0#Ocupe Redstone Keep#1 0#Ocupe Triptych Rock#1</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18 0#Ocupar Camel Bell Bazaar#1 0#Ocupar Frost Valley#1</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18 0#Ocupar Camel Bell Bazaar#1 0#Ocupar Mireton#1 0#Ocupar Frost Valley#1</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3228,13 +3199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="239" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="75">
@@ -3283,13 +3254,13 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>856</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="195">
@@ -3309,13 +3280,13 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>857</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="165">
@@ -3335,13 +3306,13 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>858</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135">
@@ -3361,13 +3332,13 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>534</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75">
@@ -3387,13 +3358,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>535</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120">
@@ -3413,13 +3384,13 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>536</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="165">
@@ -3430,7 +3401,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>754</v>
+        <v>538</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -3439,13 +3410,13 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>537</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5">
@@ -3456,25 +3427,25 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>755</v>
+        <v>539</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>859</v>
+        <v>638</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>538</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="390">
@@ -3491,19 +3462,19 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>860</v>
+        <v>639</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>539</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="180">
@@ -3514,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>756</v>
+        <v>540</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -3523,13 +3494,13 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>540</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="135">
@@ -3540,7 +3511,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>757</v>
+        <v>541</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -3549,13 +3520,13 @@
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>541</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="180">
@@ -3566,7 +3537,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>758</v>
+        <v>542</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -3575,13 +3546,13 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>542</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
@@ -3592,7 +3563,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>759</v>
+        <v>543</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -3601,13 +3572,13 @@
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>861</v>
+        <v>660</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>543</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="390">
@@ -3624,19 +3595,19 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>862</v>
+        <v>640</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>863</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="180">
@@ -3647,7 +3618,7 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>760</v>
+        <v>544</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -3656,13 +3627,13 @@
         <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>544</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="240">
@@ -3673,7 +3644,7 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>761</v>
+        <v>545</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -3682,13 +3653,13 @@
         <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>632</v>
+        <v>663</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>545</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="165">
@@ -3699,7 +3670,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>762</v>
+        <v>546</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -3708,13 +3679,13 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>546</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="150">
@@ -3725,7 +3696,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>763</v>
+        <v>547</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -3734,13 +3705,13 @@
         <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>547</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="405">
@@ -3751,25 +3722,25 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>764</v>
+        <v>548</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>864</v>
+        <v>641</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>548</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="285">
@@ -3780,7 +3751,7 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>765</v>
+        <v>549</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -3789,13 +3760,13 @@
         <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>549</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="165">
@@ -3806,7 +3777,7 @@
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>766</v>
+        <v>550</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -3815,13 +3786,13 @@
         <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>637</v>
+        <v>668</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>865</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="300">
@@ -3832,7 +3803,7 @@
         <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>767</v>
+        <v>551</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
@@ -3841,13 +3812,13 @@
         <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>550</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="405">
@@ -3858,25 +3829,25 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>867</v>
+        <v>552</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>866</v>
+        <v>642</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>868</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="405">
@@ -3887,25 +3858,25 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>867</v>
+        <v>552</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>866</v>
+        <v>642</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>551</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="405">
@@ -3922,19 +3893,19 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>866</v>
+        <v>642</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>552</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="405">
@@ -3945,25 +3916,25 @@
         <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>768</v>
+        <v>553</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>869</v>
+        <v>643</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>553</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="409.5">
@@ -3980,19 +3951,19 @@
         <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>870</v>
+        <v>644</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>554</v>
+        <v>811</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -4003,7 +3974,7 @@
         <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>769</v>
+        <v>554</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -4012,13 +3983,13 @@
         <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>555</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="150">
@@ -4029,7 +4000,7 @@
         <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>769</v>
+        <v>554</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -4038,13 +4009,13 @@
         <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>556</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105">
@@ -4055,7 +4026,7 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>770</v>
+        <v>555</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -4064,13 +4035,13 @@
         <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>557</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="405">
@@ -4087,19 +4058,19 @@
         <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>871</v>
+        <v>645</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>558</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="405">
@@ -4110,25 +4081,25 @@
         <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>771</v>
+        <v>556</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>871</v>
+        <v>645</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>141</v>
       </c>
       <c r="G33" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>142</v>
       </c>
       <c r="I33" t="s">
-        <v>872</v>
+        <v>816</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="150">
@@ -4139,7 +4110,7 @@
         <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>772</v>
+        <v>557</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -4148,13 +4119,13 @@
         <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>146</v>
       </c>
       <c r="I34" t="s">
-        <v>874</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60">
@@ -4165,7 +4136,7 @@
         <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>773</v>
+        <v>558</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -4174,13 +4145,13 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I35" t="s">
-        <v>559</v>
+        <v>818</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="180">
@@ -4191,7 +4162,7 @@
         <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>559</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -4200,13 +4171,13 @@
         <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>154</v>
       </c>
       <c r="I36" t="s">
-        <v>873</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="409.5">
@@ -4217,25 +4188,25 @@
         <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>775</v>
+        <v>560</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>875</v>
+        <v>646</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>560</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="409.5">
@@ -4246,25 +4217,25 @@
         <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>776</v>
+        <v>561</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>875</v>
+        <v>646</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>561</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.5">
@@ -4275,25 +4246,25 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>562</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>875</v>
+        <v>646</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G39" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>876</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="270">
@@ -4304,7 +4275,7 @@
         <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>778</v>
+        <v>563</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -4313,13 +4284,13 @@
         <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>562</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="240">
@@ -4330,7 +4301,7 @@
         <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>779</v>
+        <v>564</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -4339,13 +4310,13 @@
         <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>563</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="135">
@@ -4356,7 +4327,7 @@
         <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>877</v>
+        <v>565</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -4365,13 +4336,13 @@
         <v>177</v>
       </c>
       <c r="G42" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>178</v>
       </c>
       <c r="I42" t="s">
-        <v>879</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="195">
@@ -4382,7 +4353,7 @@
         <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -4391,13 +4362,13 @@
         <v>181</v>
       </c>
       <c r="G43" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="195">
@@ -4408,7 +4379,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
@@ -4417,13 +4388,13 @@
         <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="210">
@@ -4434,7 +4405,7 @@
         <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>781</v>
+        <v>567</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -4443,16 +4414,16 @@
         <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="210">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="195">
       <c r="A46" s="3" t="s">
         <v>189</v>
       </c>
@@ -4460,7 +4431,7 @@
         <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>782</v>
+        <v>568</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -4469,13 +4440,13 @@
         <v>191</v>
       </c>
       <c r="G46" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>192</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>565</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="330">
@@ -4486,7 +4457,7 @@
         <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>783</v>
+        <v>569</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
@@ -4495,13 +4466,13 @@
         <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>196</v>
       </c>
       <c r="I47" t="s">
-        <v>566</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="120">
@@ -4512,7 +4483,7 @@
         <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
@@ -4521,13 +4492,13 @@
         <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>200</v>
       </c>
       <c r="I48" t="s">
-        <v>567</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="150">
@@ -4538,7 +4509,7 @@
         <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>785</v>
+        <v>571</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
@@ -4547,13 +4518,13 @@
         <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="345">
@@ -4564,7 +4535,7 @@
         <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>786</v>
+        <v>572</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -4573,13 +4544,13 @@
         <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I50" t="s">
-        <v>568</v>
+        <v>832</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="360">
@@ -4590,7 +4561,7 @@
         <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>787</v>
+        <v>573</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
@@ -4599,13 +4570,13 @@
         <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>881</v>
+        <v>833</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="195">
@@ -4616,7 +4587,7 @@
         <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>781</v>
+        <v>567</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -4625,13 +4596,13 @@
         <v>214</v>
       </c>
       <c r="G52" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>215</v>
       </c>
       <c r="I52" t="s">
-        <v>569</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="225">
@@ -4642,7 +4613,7 @@
         <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>788</v>
+        <v>574</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -4651,13 +4622,13 @@
         <v>218</v>
       </c>
       <c r="G53" t="s">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I53" t="s">
-        <v>570</v>
+        <v>835</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="120">
@@ -4668,7 +4639,7 @@
         <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>789</v>
+        <v>575</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -4677,13 +4648,13 @@
         <v>222</v>
       </c>
       <c r="G54" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>223</v>
       </c>
       <c r="I54" t="s">
-        <v>882</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="60">
@@ -4694,7 +4665,7 @@
         <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>790</v>
+        <v>576</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -4703,13 +4674,13 @@
         <v>226</v>
       </c>
       <c r="G55" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>227</v>
       </c>
       <c r="I55" t="s">
-        <v>571</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="120">
@@ -4720,7 +4691,7 @@
         <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>791</v>
+        <v>577</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
@@ -4729,13 +4700,13 @@
         <v>230</v>
       </c>
       <c r="G56" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>883</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="225">
@@ -4746,7 +4717,7 @@
         <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>792</v>
+        <v>578</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
@@ -4755,13 +4726,13 @@
         <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>671</v>
+        <v>702</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>235</v>
       </c>
       <c r="I57" t="s">
-        <v>884</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="75">
@@ -4772,7 +4743,7 @@
         <v>237</v>
       </c>
       <c r="C58" t="s">
-        <v>793</v>
+        <v>579</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
@@ -4781,13 +4752,13 @@
         <v>238</v>
       </c>
       <c r="G58" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>239</v>
       </c>
       <c r="I58" t="s">
-        <v>572</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="90">
@@ -4798,7 +4769,7 @@
         <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>794</v>
+        <v>580</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
@@ -4807,13 +4778,13 @@
         <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>573</v>
+        <v>841</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75">
@@ -4824,7 +4795,7 @@
         <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>795</v>
+        <v>581</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
@@ -4833,13 +4804,13 @@
         <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>247</v>
       </c>
       <c r="I60" t="s">
-        <v>574</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="120">
@@ -4850,7 +4821,7 @@
         <v>249</v>
       </c>
       <c r="C61" t="s">
-        <v>796</v>
+        <v>582</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
@@ -4859,13 +4830,13 @@
         <v>250</v>
       </c>
       <c r="G61" t="s">
-        <v>675</v>
+        <v>706</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>251</v>
       </c>
       <c r="I61" t="s">
-        <v>575</v>
+        <v>843</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="150">
@@ -4876,7 +4847,7 @@
         <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>797</v>
+        <v>583</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
@@ -4885,13 +4856,13 @@
         <v>253</v>
       </c>
       <c r="G62" t="s">
-        <v>676</v>
+        <v>707</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>254</v>
       </c>
       <c r="I62" t="s">
-        <v>885</v>
+        <v>844</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="210">
@@ -4902,7 +4873,7 @@
         <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>798</v>
+        <v>584</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
@@ -4911,13 +4882,13 @@
         <v>256</v>
       </c>
       <c r="G63" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>257</v>
       </c>
       <c r="I63" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="135">
@@ -4928,7 +4899,7 @@
         <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>799</v>
+        <v>585</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
@@ -4937,13 +4908,13 @@
         <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>260</v>
       </c>
       <c r="I64" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="135">
@@ -4954,7 +4925,7 @@
         <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>800</v>
+        <v>586</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>9</v>
@@ -4963,13 +4934,13 @@
         <v>262</v>
       </c>
       <c r="G65" t="s">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I65" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135">
@@ -4980,7 +4951,7 @@
         <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>801</v>
+        <v>587</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>9</v>
@@ -4989,13 +4960,13 @@
         <v>265</v>
       </c>
       <c r="G66" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>266</v>
       </c>
       <c r="I66" t="s">
-        <v>889</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="120">
@@ -5006,7 +4977,7 @@
         <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>802</v>
+        <v>588</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>9</v>
@@ -5015,13 +4986,13 @@
         <v>268</v>
       </c>
       <c r="G67" t="s">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>269</v>
       </c>
       <c r="I67" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150">
@@ -5032,7 +5003,7 @@
         <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>803</v>
+        <v>589</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
@@ -5041,13 +5012,13 @@
         <v>272</v>
       </c>
       <c r="G68" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150">
@@ -5058,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>804</v>
+        <v>590</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
@@ -5067,13 +5038,13 @@
         <v>275</v>
       </c>
       <c r="G69" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>276</v>
       </c>
       <c r="I69" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="210">
@@ -5084,7 +5055,7 @@
         <v>277</v>
       </c>
       <c r="C70" t="s">
-        <v>805</v>
+        <v>591</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
@@ -5093,13 +5064,13 @@
         <v>278</v>
       </c>
       <c r="G70" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>279</v>
       </c>
       <c r="I70" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="315">
@@ -5110,7 +5081,7 @@
         <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>806</v>
+        <v>592</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
@@ -5119,13 +5090,13 @@
         <v>281</v>
       </c>
       <c r="G71" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>282</v>
       </c>
       <c r="I71" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135">
@@ -5136,7 +5107,7 @@
         <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>807</v>
+        <v>593</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
@@ -5145,16 +5116,16 @@
         <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="270">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="255">
       <c r="A73" s="3" t="s">
         <v>286</v>
       </c>
@@ -5162,7 +5133,7 @@
         <v>286</v>
       </c>
       <c r="C73" t="s">
-        <v>808</v>
+        <v>594</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
@@ -5171,13 +5142,13 @@
         <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>288</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>576</v>
+        <v>855</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="210">
@@ -5188,7 +5159,7 @@
         <v>289</v>
       </c>
       <c r="C74" t="s">
-        <v>809</v>
+        <v>595</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>9</v>
@@ -5197,13 +5168,13 @@
         <v>290</v>
       </c>
       <c r="G74" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>291</v>
       </c>
       <c r="I74" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="240">
@@ -5214,7 +5185,7 @@
         <v>293</v>
       </c>
       <c r="C75" t="s">
-        <v>810</v>
+        <v>596</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -5223,13 +5194,13 @@
         <v>294</v>
       </c>
       <c r="G75" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>295</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>577</v>
+        <v>857</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="195">
@@ -5240,7 +5211,7 @@
         <v>297</v>
       </c>
       <c r="C76" t="s">
-        <v>811</v>
+        <v>597</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
@@ -5249,13 +5220,13 @@
         <v>298</v>
       </c>
       <c r="G76" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I76" t="s">
-        <v>578</v>
+        <v>858</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="165">
@@ -5266,7 +5237,7 @@
         <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>812</v>
+        <v>598</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>9</v>
@@ -5275,13 +5246,13 @@
         <v>302</v>
       </c>
       <c r="G77" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>303</v>
       </c>
       <c r="I77" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210">
@@ -5292,7 +5263,7 @@
         <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>813</v>
+        <v>599</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -5301,13 +5272,13 @@
         <v>306</v>
       </c>
       <c r="G78" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>307</v>
       </c>
       <c r="I78" t="s">
-        <v>579</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="165">
@@ -5318,7 +5289,7 @@
         <v>309</v>
       </c>
       <c r="C79" t="s">
-        <v>814</v>
+        <v>600</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
@@ -5327,13 +5298,13 @@
         <v>310</v>
       </c>
       <c r="G79" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>311</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>580</v>
+        <v>861</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="135">
@@ -5344,7 +5315,7 @@
         <v>309</v>
       </c>
       <c r="C80" t="s">
-        <v>814</v>
+        <v>600</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>9</v>
@@ -5353,13 +5324,13 @@
         <v>313</v>
       </c>
       <c r="G80" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>314</v>
       </c>
       <c r="I80" t="s">
-        <v>581</v>
+        <v>862</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150">
@@ -5370,7 +5341,7 @@
         <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>814</v>
+        <v>600</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
@@ -5379,13 +5350,13 @@
         <v>316</v>
       </c>
       <c r="G81" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>317</v>
       </c>
       <c r="I81" t="s">
-        <v>582</v>
+        <v>863</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="105">
@@ -5396,7 +5367,7 @@
         <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>814</v>
+        <v>600</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>9</v>
@@ -5405,13 +5376,13 @@
         <v>319</v>
       </c>
       <c r="G82" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>320</v>
       </c>
       <c r="I82" t="s">
-        <v>583</v>
+        <v>864</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="150">
@@ -5422,19 +5393,19 @@
         <v>322</v>
       </c>
       <c r="C83" t="s">
-        <v>815</v>
+        <v>601</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>323</v>
       </c>
       <c r="G83" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>324</v>
       </c>
       <c r="I83" t="s">
-        <v>584</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="135">
@@ -5445,7 +5416,7 @@
         <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>815</v>
+        <v>601</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>9</v>
@@ -5454,13 +5425,13 @@
         <v>326</v>
       </c>
       <c r="G84" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>327</v>
       </c>
       <c r="I84" t="s">
-        <v>585</v>
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="120">
@@ -5471,7 +5442,7 @@
         <v>322</v>
       </c>
       <c r="C85" t="s">
-        <v>815</v>
+        <v>601</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>9</v>
@@ -5480,13 +5451,13 @@
         <v>329</v>
       </c>
       <c r="G85" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>330</v>
       </c>
       <c r="I85" t="s">
-        <v>586</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="210">
@@ -5497,22 +5468,22 @@
         <v>322</v>
       </c>
       <c r="C86" t="s">
-        <v>815</v>
+        <v>601</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>332</v>
       </c>
       <c r="G86" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>333</v>
       </c>
       <c r="I86" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="255">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="240">
       <c r="A87" s="3" t="s">
         <v>334</v>
       </c>
@@ -5520,7 +5491,7 @@
         <v>335</v>
       </c>
       <c r="C87" t="s">
-        <v>816</v>
+        <v>602</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
@@ -5529,16 +5500,16 @@
         <v>336</v>
       </c>
       <c r="G87" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>337</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="285">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="270">
       <c r="A88" s="3" t="s">
         <v>338</v>
       </c>
@@ -5546,7 +5517,7 @@
         <v>335</v>
       </c>
       <c r="C88" t="s">
-        <v>816</v>
+        <v>602</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>9</v>
@@ -5555,16 +5526,16 @@
         <v>339</v>
       </c>
       <c r="G88" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>340</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="315">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="300">
       <c r="A89" s="3" t="s">
         <v>341</v>
       </c>
@@ -5572,7 +5543,7 @@
         <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>816</v>
+        <v>602</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9</v>
@@ -5581,13 +5552,13 @@
         <v>342</v>
       </c>
       <c r="G89" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>343</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>590</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="240">
@@ -5598,7 +5569,7 @@
         <v>345</v>
       </c>
       <c r="C90" t="s">
-        <v>817</v>
+        <v>603</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>9</v>
@@ -5607,13 +5578,13 @@
         <v>346</v>
       </c>
       <c r="G90" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>347</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>591</v>
+        <v>872</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="210">
@@ -5624,7 +5595,7 @@
         <v>349</v>
       </c>
       <c r="C91" t="s">
-        <v>818</v>
+        <v>604</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>9</v>
@@ -5633,13 +5604,13 @@
         <v>350</v>
       </c>
       <c r="G91" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>351</v>
       </c>
       <c r="I91" t="s">
-        <v>592</v>
+        <v>873</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="150">
@@ -5650,7 +5621,7 @@
         <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>819</v>
+        <v>605</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>9</v>
@@ -5659,13 +5630,13 @@
         <v>354</v>
       </c>
       <c r="G92" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>355</v>
       </c>
       <c r="I92" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="375">
@@ -5676,7 +5647,7 @@
         <v>357</v>
       </c>
       <c r="C93" t="s">
-        <v>820</v>
+        <v>606</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>9</v>
@@ -5685,13 +5656,13 @@
         <v>358</v>
       </c>
       <c r="G93" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>359</v>
       </c>
       <c r="I93" t="s">
-        <v>593</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="225">
@@ -5702,7 +5673,7 @@
         <v>357</v>
       </c>
       <c r="C94" t="s">
-        <v>820</v>
+        <v>606</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>9</v>
@@ -5711,13 +5682,13 @@
         <v>361</v>
       </c>
       <c r="G94" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>359</v>
       </c>
       <c r="I94" t="s">
-        <v>593</v>
+        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="225">
@@ -5728,7 +5699,7 @@
         <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>821</v>
+        <v>607</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>9</v>
@@ -5737,13 +5708,13 @@
         <v>364</v>
       </c>
       <c r="G95" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>365</v>
       </c>
       <c r="I95" t="s">
-        <v>594</v>
+        <v>876</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="225">
@@ -5754,7 +5725,7 @@
         <v>367</v>
       </c>
       <c r="C96" t="s">
-        <v>822</v>
+        <v>534</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>9</v>
@@ -5763,13 +5734,13 @@
         <v>368</v>
       </c>
       <c r="G96" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>369</v>
       </c>
       <c r="I96" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="105">
@@ -5780,7 +5751,7 @@
         <v>371</v>
       </c>
       <c r="C97" t="s">
-        <v>823</v>
+        <v>608</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>9</v>
@@ -5789,13 +5760,13 @@
         <v>372</v>
       </c>
       <c r="G97" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>373</v>
       </c>
       <c r="I97" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="120">
@@ -5806,7 +5777,7 @@
         <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>824</v>
+        <v>609</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>9</v>
@@ -5815,13 +5786,13 @@
         <v>375</v>
       </c>
       <c r="G98" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>376</v>
       </c>
       <c r="I98" t="s">
-        <v>595</v>
+        <v>879</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="165">
@@ -5832,7 +5803,7 @@
         <v>374</v>
       </c>
       <c r="C99" t="s">
-        <v>824</v>
+        <v>609</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>9</v>
@@ -5841,13 +5812,13 @@
         <v>378</v>
       </c>
       <c r="G99" t="s">
-        <v>901</v>
+        <v>744</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>379</v>
       </c>
       <c r="I99" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="240">
@@ -5858,7 +5829,7 @@
         <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>825</v>
+        <v>610</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>9</v>
@@ -5867,13 +5838,13 @@
         <v>381</v>
       </c>
       <c r="G100" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>382</v>
       </c>
       <c r="I100" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="300">
@@ -5884,25 +5855,25 @@
         <v>383</v>
       </c>
       <c r="C101" t="s">
-        <v>826</v>
+        <v>611</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E101" t="s">
-        <v>753</v>
+        <v>647</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>385</v>
       </c>
       <c r="G101" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>386</v>
       </c>
       <c r="I101" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="300">
@@ -5913,7 +5884,7 @@
         <v>387</v>
       </c>
       <c r="C102" t="s">
-        <v>827</v>
+        <v>612</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>9</v>
@@ -5922,13 +5893,13 @@
         <v>388</v>
       </c>
       <c r="G102" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>389</v>
       </c>
       <c r="I102" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="165">
@@ -5939,7 +5910,7 @@
         <v>390</v>
       </c>
       <c r="C103" t="s">
-        <v>828</v>
+        <v>613</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>9</v>
@@ -5948,13 +5919,13 @@
         <v>391</v>
       </c>
       <c r="G103" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>392</v>
       </c>
       <c r="I103" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="285">
@@ -5965,7 +5936,7 @@
         <v>393</v>
       </c>
       <c r="C104" t="s">
-        <v>829</v>
+        <v>614</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>9</v>
@@ -5974,13 +5945,13 @@
         <v>394</v>
       </c>
       <c r="G104" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>395</v>
       </c>
       <c r="I104" t="s">
-        <v>596</v>
+        <v>885</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="409.5">
@@ -5991,7 +5962,7 @@
         <v>396</v>
       </c>
       <c r="C105" t="s">
-        <v>830</v>
+        <v>615</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>9</v>
@@ -6000,13 +5971,13 @@
         <v>397</v>
       </c>
       <c r="G105" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>398</v>
       </c>
       <c r="I105" t="s">
-        <v>597</v>
+        <v>886</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="195">
@@ -6017,7 +5988,7 @@
         <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>831</v>
+        <v>616</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>9</v>
@@ -6026,13 +5997,13 @@
         <v>401</v>
       </c>
       <c r="G106" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>402</v>
       </c>
       <c r="I106" t="s">
-        <v>598</v>
+        <v>887</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="285">
@@ -6043,7 +6014,7 @@
         <v>404</v>
       </c>
       <c r="C107" t="s">
-        <v>832</v>
+        <v>617</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>9</v>
@@ -6052,13 +6023,13 @@
         <v>405</v>
       </c>
       <c r="G107" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>406</v>
       </c>
       <c r="I107" t="s">
-        <v>599</v>
+        <v>888</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="120">
@@ -6069,7 +6040,7 @@
         <v>408</v>
       </c>
       <c r="C108" t="s">
-        <v>833</v>
+        <v>618</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>9</v>
@@ -6078,13 +6049,13 @@
         <v>409</v>
       </c>
       <c r="G108" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>410</v>
       </c>
       <c r="I108" t="s">
-        <v>600</v>
+        <v>889</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="225">
@@ -6104,13 +6075,13 @@
         <v>414</v>
       </c>
       <c r="G109" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>410</v>
       </c>
       <c r="I109" t="s">
-        <v>600</v>
+        <v>889</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="225">
@@ -6121,7 +6092,7 @@
         <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>834</v>
+        <v>619</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>9</v>
@@ -6130,13 +6101,13 @@
         <v>417</v>
       </c>
       <c r="G110" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>418</v>
       </c>
       <c r="I110" t="s">
-        <v>601</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="210">
@@ -6156,13 +6127,13 @@
         <v>422</v>
       </c>
       <c r="G111" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>423</v>
       </c>
       <c r="I111" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="240">
@@ -6182,13 +6153,13 @@
         <v>427</v>
       </c>
       <c r="G112" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>428</v>
       </c>
       <c r="I112" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="165">
@@ -6199,7 +6170,7 @@
         <v>430</v>
       </c>
       <c r="C113" t="s">
-        <v>835</v>
+        <v>620</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>9</v>
@@ -6208,13 +6179,13 @@
         <v>431</v>
       </c>
       <c r="G113" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>432</v>
       </c>
       <c r="I113" t="s">
-        <v>602</v>
+        <v>893</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="195">
@@ -6225,7 +6196,7 @@
         <v>434</v>
       </c>
       <c r="C114" t="s">
-        <v>836</v>
+        <v>621</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>9</v>
@@ -6234,13 +6205,13 @@
         <v>435</v>
       </c>
       <c r="G114" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>436</v>
       </c>
       <c r="I114" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="225">
@@ -6260,13 +6231,13 @@
         <v>440</v>
       </c>
       <c r="G115" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>441</v>
       </c>
       <c r="I115" t="s">
-        <v>603</v>
+        <v>895</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="150">
@@ -6277,7 +6248,7 @@
         <v>443</v>
       </c>
       <c r="C116" t="s">
-        <v>837</v>
+        <v>622</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>9</v>
@@ -6286,13 +6257,13 @@
         <v>444</v>
       </c>
       <c r="G116" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>445</v>
       </c>
       <c r="I116" t="s">
-        <v>604</v>
+        <v>896</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="315">
@@ -6303,7 +6274,7 @@
         <v>447</v>
       </c>
       <c r="C117" t="s">
-        <v>838</v>
+        <v>623</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>9</v>
@@ -6312,13 +6283,13 @@
         <v>448</v>
       </c>
       <c r="G117" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>449</v>
       </c>
       <c r="I117" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="285">
@@ -6338,13 +6309,13 @@
         <v>453</v>
       </c>
       <c r="G118" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>454</v>
       </c>
       <c r="I118" t="s">
-        <v>605</v>
+        <v>898</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="120">
@@ -6364,13 +6335,13 @@
         <v>456</v>
       </c>
       <c r="G119" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>457</v>
       </c>
       <c r="I119" t="s">
-        <v>606</v>
+        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="195">
@@ -6381,7 +6352,7 @@
         <v>459</v>
       </c>
       <c r="C120" t="s">
-        <v>839</v>
+        <v>624</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>9</v>
@@ -6390,13 +6361,13 @@
         <v>460</v>
       </c>
       <c r="G120" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>432</v>
       </c>
       <c r="I120" t="s">
-        <v>602</v>
+        <v>893</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="225">
@@ -6407,7 +6378,7 @@
         <v>462</v>
       </c>
       <c r="C121" t="s">
-        <v>840</v>
+        <v>535</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>9</v>
@@ -6416,13 +6387,13 @@
         <v>463</v>
       </c>
       <c r="G121" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>464</v>
       </c>
       <c r="I121" t="s">
-        <v>607</v>
+        <v>900</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="135">
@@ -6433,7 +6404,7 @@
         <v>466</v>
       </c>
       <c r="C122" t="s">
-        <v>841</v>
+        <v>625</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>9</v>
@@ -6442,13 +6413,13 @@
         <v>467</v>
       </c>
       <c r="G122" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>468</v>
       </c>
       <c r="I122" t="s">
-        <v>608</v>
+        <v>901</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="180">
@@ -6459,7 +6430,7 @@
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>764</v>
+        <v>548</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>9</v>
@@ -6468,13 +6439,13 @@
         <v>470</v>
       </c>
       <c r="G123" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>471</v>
       </c>
       <c r="I123" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="270">
@@ -6485,7 +6456,7 @@
         <v>473</v>
       </c>
       <c r="C124" t="s">
-        <v>842</v>
+        <v>626</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>9</v>
@@ -6494,13 +6465,13 @@
         <v>474</v>
       </c>
       <c r="G124" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>475</v>
       </c>
       <c r="I124" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="225">
@@ -6511,7 +6482,7 @@
         <v>477</v>
       </c>
       <c r="C125" t="s">
-        <v>843</v>
+        <v>627</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>9</v>
@@ -6520,13 +6491,13 @@
         <v>478</v>
       </c>
       <c r="G125" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>479</v>
       </c>
       <c r="I125" t="s">
-        <v>609</v>
+        <v>904</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="409.5">
@@ -6537,7 +6508,7 @@
         <v>481</v>
       </c>
       <c r="C126" t="s">
-        <v>844</v>
+        <v>628</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>9</v>
@@ -6546,13 +6517,13 @@
         <v>482</v>
       </c>
       <c r="G126" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I126" t="s">
-        <v>610</v>
+        <v>905</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="390">
@@ -6563,7 +6534,7 @@
         <v>485</v>
       </c>
       <c r="C127" t="s">
-        <v>845</v>
+        <v>629</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>9</v>
@@ -6572,13 +6543,13 @@
         <v>486</v>
       </c>
       <c r="G127" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>487</v>
       </c>
       <c r="I127" t="s">
-        <v>611</v>
+        <v>906</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="195">
@@ -6589,7 +6560,7 @@
         <v>489</v>
       </c>
       <c r="C128" t="s">
-        <v>846</v>
+        <v>536</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>9</v>
@@ -6598,13 +6569,13 @@
         <v>490</v>
       </c>
       <c r="G128" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>491</v>
       </c>
       <c r="I128" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="409.5">
@@ -6615,7 +6586,7 @@
         <v>493</v>
       </c>
       <c r="C129" t="s">
-        <v>847</v>
+        <v>537</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>9</v>
@@ -6624,13 +6595,13 @@
         <v>494</v>
       </c>
       <c r="G129" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I129" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="255">
@@ -6641,7 +6612,7 @@
         <v>497</v>
       </c>
       <c r="C130" t="s">
-        <v>848</v>
+        <v>630</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>9</v>
@@ -6650,13 +6621,13 @@
         <v>498</v>
       </c>
       <c r="G130" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>499</v>
       </c>
       <c r="I130" t="s">
-        <v>612</v>
+        <v>909</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="225">
@@ -6667,7 +6638,7 @@
         <v>501</v>
       </c>
       <c r="C131" t="s">
-        <v>849</v>
+        <v>631</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>9</v>
@@ -6676,13 +6647,13 @@
         <v>502</v>
       </c>
       <c r="G131" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>503</v>
       </c>
       <c r="I131" t="s">
-        <v>613</v>
+        <v>910</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="195">
@@ -6693,7 +6664,7 @@
         <v>505</v>
       </c>
       <c r="C132" t="s">
-        <v>850</v>
+        <v>632</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>9</v>
@@ -6702,13 +6673,13 @@
         <v>506</v>
       </c>
       <c r="G132" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>507</v>
       </c>
       <c r="I132" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="150">
@@ -6728,13 +6699,13 @@
         <v>511</v>
       </c>
       <c r="G133" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>512</v>
       </c>
       <c r="I133" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="135">
@@ -6745,7 +6716,7 @@
         <v>514</v>
       </c>
       <c r="C134" t="s">
-        <v>851</v>
+        <v>633</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>9</v>
@@ -6754,13 +6725,13 @@
         <v>515</v>
       </c>
       <c r="G134" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>516</v>
       </c>
       <c r="I134" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="225">
@@ -6780,13 +6751,13 @@
         <v>520</v>
       </c>
       <c r="G135" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>521</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>614</v>
+        <v>914</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="135">
@@ -6797,7 +6768,7 @@
         <v>522</v>
       </c>
       <c r="C136" t="s">
-        <v>852</v>
+        <v>634</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>9</v>
@@ -6806,13 +6777,13 @@
         <v>523</v>
       </c>
       <c r="G136" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>524</v>
       </c>
       <c r="I136" t="s">
-        <v>615</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="285">
@@ -6823,7 +6794,7 @@
         <v>525</v>
       </c>
       <c r="C137" t="s">
-        <v>853</v>
+        <v>635</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>9</v>
@@ -6832,13 +6803,13 @@
         <v>526</v>
       </c>
       <c r="G137" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>527</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>616</v>
+        <v>916</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="285">
@@ -6849,7 +6820,7 @@
         <v>528</v>
       </c>
       <c r="C138" t="s">
-        <v>854</v>
+        <v>636</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>9</v>
@@ -6858,13 +6829,13 @@
         <v>529</v>
       </c>
       <c r="G138" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>530</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="330">
@@ -6875,7 +6846,7 @@
         <v>531</v>
       </c>
       <c r="C139" t="s">
-        <v>855</v>
+        <v>637</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>9</v>
@@ -6884,13 +6855,13 @@
         <v>532</v>
       </c>
       <c r="G139" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>533</v>
       </c>
       <c r="I139" t="s">
-        <v>617</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB302D91-A202-44ED-B73F-65FB35603651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576B766-E189-4E44-8A18-299E70E01A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2097,9 +2097,6 @@
     <t>Encontre um mercador chamado Jihan na Fortaleza Redstone para coletar sua próxima missão de recompensa.</t>
   </si>
   <si>
-    <t>Vá ao desfiladeiro em Crying Rock e localize uma árvore estranha ao norte do posto avançado de West Crag e, em seguida, relate a Jihan em Redstone Keep.</t>
-  </si>
-  <si>
     <t>Fuja da masmorra dos Shujae.</t>
   </si>
   <si>
@@ -2122,9 +2119,6 @@
   </si>
   <si>
     <t>Você recebe o sinal de Badis. Laika está em movimento. Vá ajudá-lo.</t>
-  </si>
-  <si>
-    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circus of the Sands. Depois, elimine o Chefe Shujae.</t>
   </si>
   <si>
     <t>Malak informa que seu experimento estará concluído em um mês e solicita sua ajuda. Use esse período para aperfeiçoar suas habilidades.</t>
@@ -2203,9 +2197,6 @@
     <t>Vá para as Cavernas dos Ossos do Leviatã, perto da Vila Marfim. Fica ao sul das terras agrícolas da vila.</t>
   </si>
   <si>
-    <t>Vá para o Vazio da Lava Pāhoehoe naquela área estranha ao sul de Redstone Keep. Pode ser um pouco complicado chegar lá.</t>
-  </si>
-  <si>
     <t>Vá para a Formação do Gigante Zagros a sudoeste de Snowridge. A lenda diz que há um desfiladeiro se você seguir para o sul e depois para o oeste a partir de Snowridge. A formação fica no final deste desfiladeiro.</t>
   </si>
   <si>
@@ -2221,12 +2212,6 @@
     <t>Um homem foi gravemente ferido no Acampamento dos Bandidos perto de Fleur. Traga um médico de Fleur e leve-o ao acampamento para salvá-lo.</t>
   </si>
   <si>
-    <t>Conforme o desertor disse, há uma pedra azul em Crying Rock. Debaixo dela está o tesouro secreto do Velho Mundo - a Armadura Desert Ash.</t>
-  </si>
-  <si>
-    <t>Em Dunestorm, você encontra uma caravana a caminho do Camel Bell Bazaar e promete escoltá-los até o destino dentro de três dias.</t>
-  </si>
-  <si>
     <t>Você encontra uma jovem perto da área onde a serpente gigante foi vista pela última vez. Ela sugere que duas pequenas garrafas do Elixir da Rosa Branca podem ser suficientes para domar a serpente gigante</t>
   </si>
   <si>
@@ -2248,9 +2233,6 @@
     <t>Yaya se tornou uma pessoa muito mais forte depois de conhecer Ilham, mas...</t>
   </si>
   <si>
-    <t>Pouco depois que Ilham partiu, Yaya viajou sozinho para as Umbra Cliffs para encontrá-la.</t>
-  </si>
-  <si>
     <t>Ao longo dos anos, Yaya assumiu sua forma atual distorcida: mas agora, chegou a hora de ele resolver as contas com Noor!</t>
   </si>
   <si>
@@ -2290,22 +2272,7 @@
     <t>A filha do Pintor Errante se perdeu. Ele espera que você possa ajudar a encontrá-la e trazê-la de volta.</t>
   </si>
   <si>
-    <t>Vá para o local onde você encontrou o Pintor Errante em Crying Rock. Procure ao redor e veja se pode ajudar a trazer a filha dele de volta.</t>
-  </si>
-  <si>
     <t>Você conheceu duas crianças no Posto Avançado West Crag. Elas lhe entregaram uma garrafa estranha na esperança de que você pudesse jogá-la no Vazio da Lava Pāhoehoe para destruí-la.</t>
-  </si>
-  <si>
-    <t>Você comprou um cristal de um comerciante no Vale de Redstone. Ele disse que poderia transformar uma Dríade na Floresta dos Espelhos de volta à sua forma humana. Você está disposto a testar suas palavras viajando para a &lt;color=red&gt;Floresta dos Espelhos&lt;/color&gt; nas Umbra Cliffs.</t>
-  </si>
-  <si>
-    <t>Sua experiência na Floresta dos Espelhos prova que o cristal que o comerciante vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro de Redstone Keep sobre o paradeiro dele.</t>
-  </si>
-  <si>
-    <t>Você encontrou o comerciante em Crying Rock. Leve-o de volta para Redstone Keep e reivindique sua recompensa.</t>
-  </si>
-  <si>
-    <t>O comerciante lhe contou o paradeiro de uma Pedra Mítica das Maldições - em algum lugar a oeste das Umbra Cliffs. Você pode precisar perguntar por aí nas Umbra Cliffs para determinar sua localização exata.</t>
   </si>
   <si>
     <t>Inesperadamente, você obteve o Livro do Fogo, um antigo livro de magia Ifrit. A alma de seu autor, o Mestre Ifrit das Chamas, está selada em suas páginas. Colete os outros quatro fragmentos do livro e monte-o para libertar seu espírito e obter seus poderes. Procure por uma grande marca de energia perto de cada fragmento.</t>
@@ -2382,9 +2349,6 @@
     <t>Depois de derrotar Ghodja, você se lembra de Tandu. É hora de arrancar dele informações sobre o verdadeiro Spiritmancer.</t>
   </si>
   <si>
-    <t>Khaldun, um homem misterioso de cabelos brancos, lhe fala sobre um mestre arcano chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra dentro das Umbra Cliffs. A cidade mais próxima no penhasco é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria sábio.</t>
-  </si>
-  <si>
     <t>Parece que alguns moradores do leste de Fleur perderam a memória. Você só pode pensar em um culpado: um Spiritmancer.</t>
   </si>
   <si>
@@ -2442,32 +2406,16 @@
     <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:O que acontece no Circo das Areias?]]#通用线索人物猎人帮会主线6</t>
   </si>
   <si>
-    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto de Redstone Keep...]]#通用线索霍翎支线1</t>
-  </si>
-  <si>
     <t>0#Investigar Uday#1##大雪山:2079,8554:0|北风镇瓦德争吵</t>
   </si>
   <si>
-    <t>0#Ir para uma vila ao norte do Qebui Keep#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
-  </si>
-  <si>
     <t>0#Seguir Omar#1##大雪山:5594,9879:0|trigger:琥珀找到不远处的琥珀正在与怪物战斗</t>
   </si>
   <si>
     <t>4#Encontrar um Elixir do Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
   </si>
   <si>
-    <t>0#Ir para o Qebui Keep#1##大雪山:2372,8379:0</t>
-  </si>
-  <si>
     <t>0#Encontrar Omar#1##大雪山:2338,9105:0|trigger:北风镇宴会琥珀</t>
-  </si>
-  <si>
-    <t>0#Viajar para Redstone Keep e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
-  </si>
-  <si>
-    <t>0#Esperar sete dias#7
-0#Ir para a mina abandonada em Crying Rock#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
   </si>
   <si>
     <t>0#Encontrar Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
@@ -2492,31 +2440,15 @@
     <t>0#Falar com Yaksha no Vale dos Caçadores#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Ajudar o mago em Amaranth Town a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
-  </si>
-  <si>
     <t>4#Recuperar cinco Dentes de Lobo para Tausiq#5#狼牙#</t>
   </si>
   <si>
     <t>0#Recuperar suas memórias#1</t>
   </si>
   <si>
-    <t>0#Ir para Amaranth Town em Crying Rock#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Encontrar seu velho amigo no canto sudeste de Amaranth Town#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
-  </si>
-  <si>
     <t>0#Guarda a prisão à noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
   </si>
   <si>
-    <t>4#Dê 1000 Utar para Hook Nose no sudoeste de Amaranth Town#1000#金钱#|三石堡腾越1</t>
-  </si>
-  <si>
-    <t>0#Esperar informações da Corsac Merchant's Guild#1
-0#Viajar para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
-  </si>
-  <si>
     <t>0#Esperar dois dias antes de retornar a Dunestorm#1</t>
   </si>
   <si>
@@ -2524,9 +2456,6 @@
   </si>
   <si>
     <t>0#Ir para a Biblioteca Subterrânea em Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
-  </si>
-  <si>
-    <t>0#Viajar para o noroeste das Umbra Cliffs para Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
   </si>
   <si>
     <t>0#Encontrar a casa de Zarathustra#1</t>
@@ -2539,12 +2468,6 @@
     <t>0#Partir de True Nagukka#1</t>
   </si>
   <si>
-    <t>0#Procurar por Jihan, o mercador, em Redstone Keep#1##沙盒红石城:-1211,1133:100|红石城古达</t>
-  </si>
-  <si>
-    <t>0#Depois de encontrar uma árvore estranha nos cânions de Crying Rock, volte para Redstone Keep e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
-  </si>
-  <si>
     <t>0#Ir para Sandedge Village#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
   </si>
   <si>
@@ -2552,10 +2475,6 @@
   </si>
   <si>
     <t>0#Viajar para Precipice Camp#1##沙盒红石城:-545,3929:0|红石城北聚落雷毅</t>
-  </si>
-  <si>
-    <t>0#Ir para Camel Bell Bazaar#1|trigger:驼铃集市触发器
-0#Ganhar a confiança do Circus of the Sands#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
   </si>
   <si>
     <t>4#Encontrar uma Túnica de Mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
@@ -2671,12 +2590,6 @@
 0#Curar o desertor#1</t>
   </si>
   <si>
-    <t>0#Procurar a Armadura de Cinzas do Deserto em Crying Rock#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
-  </si>
-  <si>
-    <t>0#Escoltar uma caravana de Dunestorm até Camel Bell Bazaar#1|PLACE:驼铃集市</t>
-  </si>
-  <si>
     <t>4#Levar duas garrafas de Elixir da Rosa Branca#2#白蔷薇秘药小#</t>
   </si>
   <si>
@@ -2708,18 +2621,10 @@
     <t>0#Derrotar o mago Noor#1</t>
   </si>
   <si>
-    <t>0#Encontrar a entrada em Crying Rock#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
     <t>0#Encontrar a entrada nas Montanhas de Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择
 0#Encontrar as ervas#1</t>
   </si>
   <si>
-    <t>0#Encontrar a entrada nas Umbra Cliffs#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
     <t>0#Ir para a localização especificada#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102
 0#Completar a entrega1|北荒村村长</t>
   </si>
@@ -2751,15 +2656,9 @@
     <t>0#Ficar ao lado da lava no Vazio de Lava Pāhoehoe#1|PLACE:巨大熔岩空洞</t>
   </si>
   <si>
-    <t>0#Ir para a Floresta Mirage nas Umbra Cliffs#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
-  </si>
-  <si>
     <t>0#Encontrar o comerciante#1##沙盒红石城:-1471,611:500|PLACE:红石城</t>
   </si>
   <si>
-    <t>0#Retornar a Redstone Keep e entregar o mercador ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
-  </si>
-  <si>
     <t>0#Procurar a Pedra das Maldições#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
   </si>
   <si>
@@ -2829,9 +2728,6 @@
     <t>0#Prosseguir com Oli até a casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
   </si>
   <si>
-    <t>0#Conversar com Tandu em Amaranth Town#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
-  </si>
-  <si>
     <t>0#Perguntar aos moradores de Fleur sobre Zarathustra#1##沙盒黑崖花卉乡:-927,-1507:100|PLACE:花卉乡</t>
   </si>
   <si>
@@ -2845,9 +2741,6 @@
   </si>
   <si>
     <t>0#Derrotar Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Ouvir os rumores locais na taverna do Frost Valley#1##大雪山:9940,8699:50|PLACE:冰谷</t>
   </si>
   <si>
     <t>0#Entrar na caverna de Shaitan com Ouda#1##大雪山:11766,10596:0
@@ -2857,20 +2750,127 @@
     <t>0#Procurar o monumento do General do Cavaleiro#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
   </si>
   <si>
+    <t>0#Ouvir os rumores locais na taverna do Vale do Gelo#1##大雪山:9940,8699:50|PLACE:冰谷</t>
+  </si>
+  <si>
+    <t>Em Dunestorm, você encontra uma caravana a caminho do Bazar do Sino do Camelo e promete escoltá-los até o destino dentro de três dias.</t>
+  </si>
+  <si>
+    <t>0#Escoltar uma caravana de Dunestorm até Bazar do Sino do Camelo#1|PLACE:驼铃集市</t>
+  </si>
+  <si>
     <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Redstone Keep#1
+0#Ocupar Bazar do Sino do Camelo#1
+0#Ocupar Vale do Gelo#1</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18
+0#Ocupar Bazar do Sino do Camelo#1
+0#Ocupar Mireton#1
+0#Ocupar Vale do Gelo#1</t>
+  </si>
+  <si>
+    <t>0#Ir para Bazar do Sino do Camelo#1|trigger:驼铃集市触发器
+0#Ganhar a confiança do Circo das Areias#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
+  </si>
+  <si>
+    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circo das Areias. Depois, elimine o Chefe Shujae.</t>
+  </si>
+  <si>
+    <t>0#Viajar para Fortaleza de Pedra Vermelha e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
+  </si>
+  <si>
+    <t>0#Procurar por Jihan, o mercador, em Fortaleza de Pedra Vermelha#1##沙盒红石城:-1211,1133:100|红石城古达</t>
+  </si>
+  <si>
+    <t>Vá para o Vazio da Lava Pāhoehoe naquela área estranha ao sul de Fortaleza de Pedra Vermelha. Pode ser um pouco complicado chegar lá.</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto de Fortaleza de Pedra Vermelha...]]#通用线索霍翎支线1</t>
+  </si>
+  <si>
+    <t>Sua experiência na Floresta dos Espelhos prova que o cristal que o comerciante vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro de Fortaleza de Pedra Vermelha sobre o paradeiro dele.</t>
+  </si>
+  <si>
+    <t>0#Retornar a Fortaleza de Pedra Vermelha e entregar o mercador ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18
+0#Ocupar Fortaleza de Pedra Vermelha#1
 0#Ocupar Triptych Rock#1</t>
   </si>
   <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Camel Bell Bazaar#1
-0#Ocupar Frost Valley#1</t>
-  </si>
-  <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Camel Bell Bazaar#1
-0#Ocupar Mireton#1
-0#Ocupar Frost Valley#1</t>
+    <t>0#Esperar sete dias#7
+0#Ir para a mina abandonada em Rocha Chorosa#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
+  </si>
+  <si>
+    <t>Vá ao desfiladeiro em Rocha Chorosa e localize uma árvore estranha ao norte do posto avançado de West Crag e, em seguida, relate a Jihan em Fortaleza de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>0#Depois de encontrar uma árvore estranha nos cânions de Rocha Chorosa, volte para Fortaleza de Pedra Vermelha e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
+  </si>
+  <si>
+    <t>Conforme o desertor disse, há uma pedra azul em Rocha Chorosa. Debaixo dela está o tesouro secreto do Velho Mundo - a Armadura Desert Ash.</t>
+  </si>
+  <si>
+    <t>0#Procurar a Armadura de Cinzas do Deserto em Rocha Chorosa#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
+  </si>
+  <si>
+    <t>0#Encontrar a entrada em Rocha Chorosa#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
+0#Encontrar as ervas#1</t>
+  </si>
+  <si>
+    <t>Vá para o local onde você encontrou o Pintor Errante em Rocha Chorosa. Procure ao redor e veja se pode ajudar a trazer a filha dele de volta.</t>
+  </si>
+  <si>
+    <t>Você encontrou o comerciante em Rocha Chorosa. Leve-o de volta para Fortaleza de Pedra Vermelha e reivindique sua recompensa.</t>
+  </si>
+  <si>
+    <t>0#Ir para uma vila ao norte do Fortaleza Qebui#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
+  </si>
+  <si>
+    <t>0#Ir para o Fortaleza Qebui#1##大雪山:2372,8379:0</t>
+  </si>
+  <si>
+    <t>0#Ajudar o mago em Cidade de Amaranth a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
+  </si>
+  <si>
+    <t>0#Ir para Cidade de Amaranth em Rocha Chorosa#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Encontrar seu velho amigo no canto sudeste de Cidade de Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
+  </si>
+  <si>
+    <t>4#Dê 1000 Utar para Hook Nose no sudoeste de Cidade de Amaranth#1000#金钱#|三石堡腾越1</t>
+  </si>
+  <si>
+    <t>0#Conversar com Tandu em Cidade de Amaranth#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
+  </si>
+  <si>
+    <t>0#Esperar informações da Guilda dos Mercadores de Corsac#1
+0#Viajar para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
+  </si>
+  <si>
+    <t>0#Viajar para o noroeste das Penhascos Umbra para Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
+  </si>
+  <si>
+    <t>Pouco depois que Ilham partiu, Yaya viajou sozinho para as Penhascos Umbra para encontrá-la.</t>
+  </si>
+  <si>
+    <t>0#Encontrar a entrada nas Penhascos Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
+0#Encontrar as ervas#1</t>
+  </si>
+  <si>
+    <t>Você comprou um cristal de um comerciante no Vale de Redstone. Ele disse que poderia transformar uma Dríade na Floresta dos Espelhos de volta à sua forma humana. Você está disposto a testar suas palavras viajando para a &lt;color=red&gt;Floresta dos Espelhos&lt;/color&gt; nas Penhascos Umbra.</t>
+  </si>
+  <si>
+    <t>0#Ir para a Floresta Mirage nas Penhascos Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
+  </si>
+  <si>
+    <t>O comerciante lhe contou o paradeiro de uma Pedra Mítica das Maldições - em algum lugar a oeste das Penhascos Umbra. Você pode precisar perguntar por aí nas Penhascos Umbra para determinar sua localização exata.</t>
+  </si>
+  <si>
+    <t>Khaldun, um homem misterioso de cabelos brancos, lhe fala sobre um mestre arcano chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra dentro das Penhascos Umbra. A cidade mais próxima no penhasco é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria sábio.</t>
   </si>
 </sst>
 </file>
@@ -3427,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3438,6 +3438,7 @@
     <col min="3" max="3" width="62.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="229.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="167.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3491,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="148.5">
@@ -3515,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>785</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135">
@@ -3539,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108">
@@ -3563,7 +3564,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -3587,7 +3588,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>788</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="94.5">
@@ -3611,7 +3612,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135">
@@ -3635,7 +3636,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="351">
@@ -3652,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
@@ -3664,7 +3665,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="337.5">
@@ -3681,7 +3682,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>42</v>
@@ -3693,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135">
@@ -3717,7 +3718,7 @@
         <v>47</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="121.5">
@@ -3741,7 +3742,7 @@
         <v>51</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="135">
@@ -3765,7 +3766,7 @@
         <v>55</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27">
@@ -3789,7 +3790,7 @@
         <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="337.5">
@@ -3806,7 +3807,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>64</v>
@@ -3818,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="135">
@@ -3842,7 +3843,7 @@
         <v>69</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="162">
@@ -3866,7 +3867,7 @@
         <v>72</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
@@ -3890,7 +3891,7 @@
         <v>75</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="94.5">
@@ -3914,7 +3915,7 @@
         <v>79</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="351">
@@ -3931,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>83</v>
@@ -3943,7 +3944,7 @@
         <v>84</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>802</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="202.5">
@@ -3967,7 +3968,7 @@
         <v>88</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="135">
@@ -3991,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="229.5">
@@ -4015,7 +4016,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>805</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="351">
@@ -4032,7 +4033,7 @@
         <v>99</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>100</v>
@@ -4044,7 +4045,7 @@
         <v>101</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="351">
@@ -4061,7 +4062,7 @@
         <v>99</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>103</v>
@@ -4073,7 +4074,7 @@
         <v>104</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="351">
@@ -4090,7 +4091,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>108</v>
@@ -4102,7 +4103,7 @@
         <v>109</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351">
@@ -4119,7 +4120,7 @@
         <v>112</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>113</v>
@@ -4131,7 +4132,7 @@
         <v>114</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="351">
@@ -4148,7 +4149,7 @@
         <v>118</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>119</v>
@@ -4160,7 +4161,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>810</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="81">
@@ -4184,7 +4185,7 @@
         <v>124</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
@@ -4208,7 +4209,7 @@
         <v>127</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="81">
@@ -4232,7 +4233,7 @@
         <v>131</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="337.5">
@@ -4249,7 +4250,7 @@
         <v>135</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>136</v>
@@ -4261,7 +4262,7 @@
         <v>137</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>814</v>
+        <v>889</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="337.5">
@@ -4278,19 +4279,19 @@
         <v>135</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>669</v>
+        <v>896</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>815</v>
+        <v>897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="135">
@@ -4308,13 +4309,13 @@
         <v>144</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="40.5">
@@ -4332,13 +4333,13 @@
         <v>148</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="148.5">
@@ -4356,13 +4357,13 @@
         <v>152</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="351">
@@ -4379,19 +4380,19 @@
         <v>156</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>819</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="351">
@@ -4408,19 +4409,19 @@
         <v>156</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="351">
@@ -4437,19 +4438,19 @@
         <v>156</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="202.5">
@@ -4467,13 +4468,13 @@
         <v>168</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="189">
@@ -4491,13 +4492,13 @@
         <v>173</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="94.5">
@@ -4515,13 +4516,13 @@
         <v>177</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="121.5">
@@ -4539,13 +4540,13 @@
         <v>181</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>678</v>
+        <v>887</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
@@ -4563,13 +4564,13 @@
         <v>184</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>678</v>
+        <v>887</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="148.5">
@@ -4587,13 +4588,13 @@
         <v>187</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>188</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="108">
@@ -4611,13 +4612,13 @@
         <v>191</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>192</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="229.5">
@@ -4635,13 +4636,13 @@
         <v>195</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>196</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="81">
@@ -4659,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>200</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5">
@@ -4683,13 +4684,13 @@
         <v>203</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>204</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="229.5">
@@ -4707,13 +4708,13 @@
         <v>207</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>208</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="243">
@@ -4731,13 +4732,13 @@
         <v>211</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>212</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="135">
@@ -4755,13 +4756,13 @@
         <v>214</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="162">
@@ -4779,13 +4780,13 @@
         <v>218</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>219</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="81">
@@ -4803,13 +4804,13 @@
         <v>222</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>223</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="40.5">
@@ -4827,13 +4828,13 @@
         <v>226</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>227</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="81">
@@ -4851,13 +4852,13 @@
         <v>230</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>231</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="148.5">
@@ -4875,13 +4876,13 @@
         <v>234</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>235</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="54">
@@ -4899,13 +4900,13 @@
         <v>238</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>239</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="67.5">
@@ -4923,13 +4924,13 @@
         <v>242</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>243</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="54">
@@ -4947,13 +4948,13 @@
         <v>246</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>247</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="81">
@@ -4971,13 +4972,13 @@
         <v>250</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>251</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="108">
@@ -4995,13 +4996,13 @@
         <v>253</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>254</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="135">
@@ -5019,13 +5020,13 @@
         <v>256</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>257</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="108">
@@ -5043,13 +5044,13 @@
         <v>259</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>260</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="108">
@@ -5067,13 +5068,13 @@
         <v>262</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>263</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="108">
@@ -5091,13 +5092,13 @@
         <v>265</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>266</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="94.5">
@@ -5115,13 +5116,13 @@
         <v>268</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>269</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="94.5">
@@ -5139,13 +5140,13 @@
         <v>272</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>273</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="121.5">
@@ -5163,13 +5164,13 @@
         <v>275</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>276</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="148.5">
@@ -5187,13 +5188,13 @@
         <v>278</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>704</v>
+        <v>890</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>279</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="216">
@@ -5211,13 +5212,13 @@
         <v>281</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="108">
@@ -5235,13 +5236,13 @@
         <v>284</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>285</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="202.5">
@@ -5259,13 +5260,13 @@
         <v>287</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>288</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="148.5">
@@ -5283,13 +5284,13 @@
         <v>290</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>291</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="162">
@@ -5307,13 +5308,13 @@
         <v>294</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>295</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="148.5">
@@ -5331,13 +5332,13 @@
         <v>298</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>710</v>
+        <v>898</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>299</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="108">
@@ -5355,13 +5356,13 @@
         <v>302</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>711</v>
+        <v>882</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>303</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135">
@@ -5379,13 +5380,13 @@
         <v>306</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>307</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="121.5">
@@ -5403,13 +5404,13 @@
         <v>310</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="94.5">
@@ -5427,13 +5428,13 @@
         <v>313</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>860</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="108">
@@ -5451,13 +5452,13 @@
         <v>316</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>317</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="81">
@@ -5475,13 +5476,13 @@
         <v>319</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="108">
@@ -5498,13 +5499,13 @@
         <v>323</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>324</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="94.5">
@@ -5522,13 +5523,13 @@
         <v>326</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>327</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="81">
@@ -5546,13 +5547,13 @@
         <v>329</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>719</v>
+        <v>912</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>330</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="148.5">
@@ -5569,13 +5570,13 @@
         <v>332</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>333</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="162">
@@ -5593,13 +5594,13 @@
         <v>336</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>337</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>867</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="162">
@@ -5617,13 +5618,13 @@
         <v>339</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>340</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>868</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="175.5">
@@ -5641,13 +5642,13 @@
         <v>342</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>343</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="162">
@@ -5665,13 +5666,13 @@
         <v>346</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>347</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="135">
@@ -5689,13 +5690,13 @@
         <v>350</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>351</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="108">
@@ -5713,13 +5714,13 @@
         <v>354</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>355</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="270">
@@ -5737,13 +5738,13 @@
         <v>358</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>359</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="162">
@@ -5761,13 +5762,13 @@
         <v>361</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>359</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="148.5">
@@ -5785,13 +5786,13 @@
         <v>364</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>365</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="148.5">
@@ -5809,13 +5810,13 @@
         <v>368</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>369</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="67.5">
@@ -5833,13 +5834,13 @@
         <v>372</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>373</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>876</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="81">
@@ -5857,13 +5858,13 @@
         <v>375</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>376</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="108">
@@ -5881,13 +5882,13 @@
         <v>378</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>733</v>
+        <v>901</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>379</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="162">
@@ -5905,13 +5906,13 @@
         <v>381</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="202.5">
@@ -5928,19 +5929,19 @@
         <v>384</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>783</v>
+        <v>891</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>735</v>
+        <v>914</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>386</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>880</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="202.5">
@@ -5958,13 +5959,13 @@
         <v>389</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>736</v>
+        <v>892</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>881</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="135">
@@ -5982,13 +5983,13 @@
         <v>392</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>737</v>
+        <v>902</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="202.5">
@@ -6006,13 +6007,13 @@
         <v>395</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>738</v>
+        <v>916</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>396</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="222.75" customHeight="1">
@@ -6030,13 +6031,13 @@
         <v>398</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>399</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="148.5">
@@ -6054,13 +6055,13 @@
         <v>402</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>403</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="189">
@@ -6078,13 +6079,13 @@
         <v>406</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>407</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="81">
@@ -6102,13 +6103,13 @@
         <v>410</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>411</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="148.5">
@@ -6126,13 +6127,13 @@
         <v>415</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>411</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>888</v>
+        <v>856</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="148.5">
@@ -6150,13 +6151,13 @@
         <v>418</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>419</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="148.5">
@@ -6174,13 +6175,13 @@
         <v>423</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>424</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>890</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="162">
@@ -6198,13 +6199,13 @@
         <v>428</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>429</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>891</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="108">
@@ -6222,13 +6223,13 @@
         <v>432</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>433</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135">
@@ -6246,13 +6247,13 @@
         <v>436</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>437</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>893</v>
+        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="148.5">
@@ -6270,13 +6271,13 @@
         <v>441</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>442</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>894</v>
+        <v>862</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="94.5">
@@ -6294,13 +6295,13 @@
         <v>445</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>446</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>895</v>
+        <v>863</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="216">
@@ -6318,13 +6319,13 @@
         <v>449</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>450</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>896</v>
+        <v>864</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="202.5">
@@ -6342,13 +6343,13 @@
         <v>454</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>455</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>897</v>
+        <v>865</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="94.5">
@@ -6366,13 +6367,13 @@
         <v>457</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>458</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>898</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="135">
@@ -6390,13 +6391,13 @@
         <v>461</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>433</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="175.5">
@@ -6414,13 +6415,13 @@
         <v>464</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>465</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="94.5">
@@ -6438,13 +6439,13 @@
         <v>468</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>469</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>900</v>
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="121.5">
@@ -6462,13 +6463,13 @@
         <v>471</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>472</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>901</v>
+        <v>869</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="189">
@@ -6486,13 +6487,13 @@
         <v>475</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>476</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>902</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="148.5">
@@ -6510,13 +6511,13 @@
         <v>479</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>480</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>903</v>
+        <v>871</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="324">
@@ -6534,13 +6535,13 @@
         <v>483</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>484</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>904</v>
+        <v>872</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="270">
@@ -6558,13 +6559,13 @@
         <v>487</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>488</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>905</v>
+        <v>873</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="135">
@@ -6582,13 +6583,13 @@
         <v>491</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>492</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="283.5">
@@ -6606,13 +6607,13 @@
         <v>496</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>763</v>
+        <v>917</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>497</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="175.5">
@@ -6630,13 +6631,13 @@
         <v>500</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>501</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="175.5">
@@ -6654,13 +6655,13 @@
         <v>504</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>505</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="148.5">
@@ -6678,13 +6679,13 @@
         <v>508</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>509</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="135">
@@ -6702,13 +6703,13 @@
         <v>513</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>514</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="108">
@@ -6726,13 +6727,13 @@
         <v>517</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>518</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="148.5">
@@ -6750,13 +6751,13 @@
         <v>522</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>523</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="94.5">
@@ -6774,13 +6775,13 @@
         <v>525</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>526</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="202.5">
@@ -6798,13 +6799,13 @@
         <v>528</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>529</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="202.5">
@@ -6822,13 +6823,13 @@
         <v>531</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>532</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="229.5">
@@ -6846,13 +6847,13 @@
         <v>534</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>535</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>917</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_zyc_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576B766-E189-4E44-8A18-299E70E01A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F61D72-A4CE-4431-BB2F-817E8AEB3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="921">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -584,9 +584,6 @@
     <t>前往宴会</t>
   </si>
   <si>
-    <t>The Banquet</t>
-  </si>
-  <si>
     <t>长孙弘告诉你雷毅的计划，他希望你能前往宴会阻止雷毅。前往[[imp:大雪山的最东南角]]赴宴。</t>
   </si>
   <si>
@@ -1244,9 +1241,6 @@
   </si>
   <si>
     <t>追问到底</t>
-  </si>
-  <si>
-    <t>Follow Up</t>
   </si>
   <si>
     <t>在林间秘境的遭遇证明了行商交给你的宝石是个赝品，得去找到他讨个说法。也许去红石城的卫兵处打探打探行商的下落是个好主意。</t>
@@ -1698,25 +1692,25 @@
 0#占领冰谷#1</t>
   </si>
   <si>
-    <t>Quem Sou Eu?</t>
+    <t>Quem sou eu?</t>
   </si>
   <si>
     <t>Mina Abandonada</t>
   </si>
   <si>
-    <t>Buscando Favores</t>
-  </si>
-  <si>
-    <t>A Praga da Vila Misty</t>
-  </si>
-  <si>
-    <t>Relatório</t>
+    <t>Buscando um Favor</t>
+  </si>
+  <si>
+    <t>A Praga da Vila Nebulosa</t>
+  </si>
+  <si>
+    <t>Relatar de Volta</t>
   </si>
   <si>
     <t>Forma de Dragão</t>
   </si>
   <si>
-    <t>Vale dos Caçadores</t>
+    <t>Vale do Caçador</t>
   </si>
   <si>
     <t>Vizinho Desaparecido</t>
@@ -1725,7 +1719,7 @@
     <t>Cinco Presas</t>
   </si>
   <si>
-    <t>Vingança Inteligente</t>
+    <t>Vingança Astuta</t>
   </si>
   <si>
     <t>Cidade Amaranth</t>
@@ -1737,28 +1731,31 @@
     <t>Guarda da Prisão</t>
   </si>
   <si>
-    <t>Pistas Enganosas</t>
-  </si>
-  <si>
-    <t>Guilda de Comerciantes Corsac</t>
+    <t>Pistas Decisivas</t>
+  </si>
+  <si>
+    <t>Guilda dos Mercadores Corsac</t>
+  </si>
+  <si>
+    <t>A Guilda dos Mercadores Corsac</t>
   </si>
   <si>
     <t>Biblioteca Subterrânea</t>
   </si>
   <si>
-    <t>A Residência Zaratustra</t>
-  </si>
-  <si>
-    <t>O Verdadeiro Nagukka</t>
+    <t>Residência Zarathustra</t>
+  </si>
+  <si>
+    <t>Verdadeira Nagukka</t>
   </si>
   <si>
     <t>Uma Árvore Estranha</t>
   </si>
   <si>
-    <t>Novo Contrato</t>
-  </si>
-  <si>
-    <t>Calabouço Shujae</t>
+    <t>Nova Recompensa</t>
+  </si>
+  <si>
+    <t>Dungeon de Shujae</t>
   </si>
   <si>
     <t>Carta de Shujae</t>
@@ -1776,7 +1773,10 @@
     <t>Amigo ou Inimigo</t>
   </si>
   <si>
-    <t>Pare Laik</t>
+    <t>O Banquete</t>
+  </si>
+  <si>
+    <t>Interrompa Laik</t>
   </si>
   <si>
     <t>Assassinato na Montanha</t>
@@ -1800,13 +1800,10 @@
     <t>A Calamidade se Repete &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
   </si>
   <si>
-    <t>Dia da Destruição &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Princesa Ilayda &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
   </si>
   <si>
-    <t>Miragem &lt;color=red&gt;(Main Quest)&lt;/color&gt;</t>
+    <t>Miragem &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
   </si>
   <si>
     <t>Uma Nova Esperança &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
@@ -1830,7 +1827,13 @@
     <t>Cerca</t>
   </si>
   <si>
-    <t>Mina Vermelha Abandonada</t>
+    <t>O Dia da Destruição &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Ifrit Carniceiro &lt;color=red&gt;(Missão Principal)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mina de Pedra Vermelha Abandonada</t>
   </si>
   <si>
     <t>Vale Verdejante</t>
@@ -1851,7 +1854,7 @@
     <t>Cavernas de Neve</t>
   </si>
   <si>
-    <t>Cavernas de Ossos do Leviatã</t>
+    <t>Cavernas de Ossos de Leviatã</t>
   </si>
   <si>
     <t>Vácuo de Lava Pāhoehoe</t>
@@ -1863,7 +1866,7 @@
     <t>Cavernas do Ritual</t>
   </si>
   <si>
-    <t>Covil dos Lobos dos Penhascos Umbra</t>
+    <t>Toca do Lobo dos Penhascos de Umbra</t>
   </si>
   <si>
     <t>O Tesouro da Cidade de Jamal</t>
@@ -1878,7 +1881,7 @@
     <t>Guardião da Caravana</t>
   </si>
   <si>
-    <t>Monte a Serpente</t>
+    <t>Monte na Serpente</t>
   </si>
   <si>
     <t>Memórias de Alaf Jahim</t>
@@ -1887,7 +1890,7 @@
     <t>Memórias de Yaya</t>
   </si>
   <si>
-    <t>Vale das Ervas de Tiqin</t>
+    <t>Vale de Ervas de Tiqin</t>
   </si>
   <si>
     <t>Comissão de Amira Zahra</t>
@@ -1896,10 +1899,10 @@
     <t>Casa Ocupada</t>
   </si>
   <si>
-    <t>De Quem é Esta Casa?</t>
-  </si>
-  <si>
-    <t>Ameaça dos Nemishi</t>
+    <t>De Quem é a Casa?</t>
+  </si>
+  <si>
+    <t>A Ameaça Nemishi</t>
   </si>
   <si>
     <t>O Ataque Final</t>
@@ -1908,7 +1911,7 @@
     <t>Época</t>
   </si>
   <si>
-    <t>Recapture a Capital</t>
+    <t>Recapturar a Capital</t>
   </si>
   <si>
     <t>Filha Desaparecida</t>
@@ -1917,28 +1920,31 @@
     <t>Crianças e Garrafas</t>
   </si>
   <si>
-    <t>Miragem na Floresta</t>
+    <t>Miragem da Floresta</t>
   </si>
   <si>
     <t>Acompanhamento</t>
   </si>
   <si>
+    <t>Justiça Entregue</t>
+  </si>
+  <si>
     <t>Pedra das Maldições</t>
   </si>
   <si>
     <t>Livro do Fogo</t>
   </si>
   <si>
-    <t>Dançar na Planície em Desaparecimento</t>
-  </si>
-  <si>
-    <t>Vida de Artista</t>
+    <t>A Vida Boêmia</t>
   </si>
   <si>
     <t>Um Momento de Descanso</t>
   </si>
   <si>
-    <t>Igreja dos Hereges</t>
+    <t>Igreja dos Pagãos</t>
+  </si>
+  <si>
+    <t>Sapatos de Dança Perdidos</t>
   </si>
   <si>
     <t>Capturar Burak</t>
@@ -1947,7 +1953,7 @@
     <t>Pacote em uma Taverna</t>
   </si>
   <si>
-    <t>Derrote Burak</t>
+    <t>Derrotar Burak</t>
   </si>
   <si>
     <t>Retornar a Agadir</t>
@@ -1956,921 +1962,943 @@
     <t>Salvar Rubi</t>
   </si>
   <si>
-    <t>Bálsamo de Cura</t>
+    <t>Medicamento Secreto</t>
   </si>
   <si>
     <t>Deixando Agadir</t>
   </si>
   <si>
-    <t>Cidade de Amaranth</t>
+    <t>O Segredo de Ghodja</t>
+  </si>
+  <si>
+    <t>Poções! Poções!</t>
+  </si>
+  <si>
+    <t>Espiritomancia Honrosa</t>
+  </si>
+  <si>
+    <t>Apelo de Tandu</t>
+  </si>
+  <si>
+    <t>Penhascos Orientais</t>
+  </si>
+  <si>
+    <t>Penhascos Orientais II</t>
+  </si>
+  <si>
+    <t>O Caçador Ferido</t>
   </si>
   <si>
     <t>O Espiritomante da Cidade de Cotta</t>
   </si>
   <si>
-    <t>O Segredo de Ghodja</t>
-  </si>
-  <si>
-    <t>Poções! Poções!</t>
-  </si>
-  <si>
-    <t>Espiritomancia Honrosa</t>
-  </si>
-  <si>
-    <t>Pedido de Tandu</t>
-  </si>
-  <si>
-    <t>Leste do Penhasco</t>
-  </si>
-  <si>
-    <t>Leste do Penhasco II</t>
-  </si>
-  <si>
-    <t>O Caçador Ferido</t>
-  </si>
-  <si>
-    <t>Vale do Gelo</t>
-  </si>
-  <si>
     <t>General Cavaleiro</t>
   </si>
   <si>
-    <t>Restauração de Akhal</t>
-  </si>
-  <si>
-    <t>Restauração de Dakn</t>
-  </si>
-  <si>
-    <t>Restauração de Nasir</t>
-  </si>
-  <si>
-    <t>Investigue os negócios do Uday, o Mercador.</t>
-  </si>
-  <si>
-    <t>Uday, da Fortaleza Qebui, quer que você encontre seu filho e ex-esposa.</t>
+    <t>Vale da Geada</t>
+  </si>
+  <si>
+    <t>Restauração dos Akhal</t>
+  </si>
+  <si>
+    <t>Restauração dos Dakn</t>
+  </si>
+  <si>
+    <t>Restauração dos Nasir</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Shafaqat?]]#通用线索人物兽人主线2</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre Ouma, o mago...]]#通用线索人物兽人主线3</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre a Legião Sombria...]]#通用线索人物兽人主线8</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece o nome Zarathustra?]]#通用线索人物心灵巫师主线1</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Como a Guilda dos Mercadores Corsac está conectada...?]]#通用线索人物心灵巫师主线4</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece a história de Diresprings?]]#通用线索人物心灵巫师主线7</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você pode me contar sobre Nagukka?]]#通用线索人物心灵巫师主线8</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Jihan?]]#通用线索人物猎人帮会主线1</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:O que acontece no Circo das Areias em Sands of Salzaar?]]#通用线索人物猎人帮会主线6</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto da Fortaleza de Pedra Vermelha...]]#通用线索霍翎支线1</t>
+  </si>
+  <si>
+    <t>Investigue os assuntos de Uday, o Mercador.</t>
   </si>
   <si>
     <t>Siga Omar.</t>
   </si>
   <si>
-    <t>Encontre o Elixir do Gigante Alpino para Omar.</t>
-  </si>
-  <si>
-    <t>Siga para a Fortaleza Qebui para se juntar às festividades de Uday.</t>
+    <t>Procure o Elixir do Gigante Alpino para Omar.</t>
   </si>
   <si>
     <t>Encontre Omar.</t>
   </si>
   <si>
-    <t>Você procura freneticamente por quem chamou seu nome. Ele foi em direção à Fortaleza Redstone.</t>
-  </si>
-  <si>
-    <t>Quando chegar a hora, siga para as minas abandonadas a leste da Vila Rocha do Prisma e encontre Shafaqat.</t>
-  </si>
-  <si>
-    <t>Encontre um mago chamado Ouma na extremidade norte do Vale da Geada nas Montanhas Zagros.</t>
-  </si>
-  <si>
-    <t>Você deve expandir sua reputação e ganhar mais Favor.</t>
-  </si>
-  <si>
-    <t>Entregue remédios aos moradores da Vila Misty.</t>
-  </si>
-  <si>
-    <t>Os moradores da Vila Misty têm ideias estranhas sobre medicina. Volte para a cabana e pergunte ao servo de Ouma sobre o que está acontecendo.</t>
-  </si>
-  <si>
-    <t>Lute contra Ouma.</t>
+    <t>Uday, de Fortaleza Qebui, pede que você encontre seu filho e ex-esposa.</t>
+  </si>
+  <si>
+    <t>Dirija-se a Fortaleza Qebui para participar das festividades de Uday.</t>
+  </si>
+  <si>
+    <t>Você procura freneticamente por quem chamou seu nome. Ele seguiu em direção a Fortaleza de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Você precisa ampliar sua reputação e ganhar mais Favor.</t>
+  </si>
+  <si>
+    <t>Enfrente Ouma.</t>
   </si>
   <si>
     <t>Descubra a verdade sobre sua própria vida.</t>
   </si>
   <si>
-    <t>Pegue um barco do norte de Agadir de volta ao Vale do Caçador e dê uma olhada.</t>
-  </si>
-  <si>
-    <t>Um mago na Cidade de Amaranth pede sua ajuda para rastrear um residente muito especial.</t>
-  </si>
-  <si>
-    <t>O explorador Tausiq espera que você encontre para ele cinco presas de lobo. No entanto, você sente que ele está escondendo algo de você.</t>
-  </si>
-  <si>
-    <t>Áreas de sua memória permanecem confusas para você. Levará alguns dias para sua memória se recuperar.</t>
-  </si>
-  <si>
-    <t>Desejando esclarecer seu passado, Zeynep sugere que você vá para a Cidade de Amaranth em Rocha Chorosa e rastreie "aquela" pessoa.</t>
-  </si>
-  <si>
-    <t>Tudo o que você pode fazer é tentar outra coisa: encontrar seu velho amigo nos subúrbios sudeste da Cidade de Amaranth.</t>
+    <t>O explorador Tausiq espera que você possa encontrar cinco presas de lobo para ele. No entanto, você não consegue se livrar da sensação de que ele está escondendo algo de você.</t>
+  </si>
+  <si>
+    <t>Algumas áreas da sua memória permanecem embaçadas. Levará alguns dias para sua memória se recuperar.</t>
+  </si>
+  <si>
+    <t>Quando chegar a hora, vá para as minas abandonadas a leste da Vila da Rocha Prismática e encontre Shafaqat.</t>
+  </si>
+  <si>
+    <t>Localize um feiticeiro chamado Ouma na extremidade norte de Vale da Geada, nas Montanhas Zagros.</t>
+  </si>
+  <si>
+    <t>Entregue medicamentos aos moradores da Vila Nebulosa.</t>
+  </si>
+  <si>
+    <t>Os habitantes de Vila Nebulosa têm ideias estranhas sobre medicina. Volte para a cabana e pergunte ao servo de Ouma sobre o que está acontecendo.</t>
+  </si>
+  <si>
+    <t>Pegue um barco do norte de Agadir de volta para o Vale do Caçador e dê uma olhada.</t>
+  </si>
+  <si>
+    <t>Um feiticeiro em Cidade de Amaranth pede sua ajuda para localizar um residente muito especial.</t>
+  </si>
+  <si>
+    <t>Querendo esclarecer seu passado, Zeynep sugere que você vá para Cidade de Amaranth em Rocha Chorosa e procure por "aquela" pessoa.</t>
+  </si>
+  <si>
+    <t>Tudo o que você pode fazer é tentar algo diferente: encontre seu antigo amigo nos subúrbios do sudeste da Cidade de Amaranth.</t>
   </si>
   <si>
     <t>Você concorda em ajudar a vigiar a prisão para o prefeito em troca de informações.</t>
   </si>
   <si>
-    <t>Quer você goste ou não, Nariz de Gancho só divulgará o que sabe sobre Zarathustra por 1000 Utar. Você pode extorquir Tandu, um jovem em Rocha Tríplice, para uma dívida que ele deve a Nariz de Gancho - ou você pode pagar o Utar sozinho.</t>
-  </si>
-  <si>
-    <t>As pistas levaram de volta à Guilda dos Mercadores Corsac de Dunestorm.</t>
-  </si>
-  <si>
-    <t>Espere dois dias antes de retornar a Dunestorm.</t>
-  </si>
-  <si>
-    <t>Procure Khurram Aslae a leste de Dunestorm.</t>
-  </si>
-  <si>
-    <t>Khurram Aslae conta o que espera por você na Biblioteca Subterrânea em Diresprings.</t>
-  </si>
-  <si>
-    <t>Zarathustra está em &lt;color=red&gt;Nagukka&lt;/color&gt; perto dos Penhascos de Umbra. Encontre-o em Nagukka.</t>
-  </si>
-  <si>
-    <t>Encontre a residência de Zarathustra em &lt;color=red&gt;True Nagukka&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Encontre a residência de Zarathustra em &lt;color=red&gt;True Nagukka&lt;/color&gt; e derrote-o para se vingar.</t>
-  </si>
-  <si>
-    <t>Já conhecendo a verdade, agora você pode partir de &lt;color=red&gt;True Nagukka&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Encontre um mercador chamado Jihan na Fortaleza Redstone para coletar sua próxima missão de recompensa.</t>
-  </si>
-  <si>
-    <t>Fuja da masmorra dos Shujae.</t>
+    <t>Quer goste ou não, Nariz de Gancho só revelará o que sabe sobre Zarathustra por 1000 Utar. Você pode extorquir Tandu, um jovem em Rocha Tríptica, por uma dívida que ele tem com Nariz de Gancho - ou você pode adiantar o Utar você mesmo.</t>
+  </si>
+  <si>
+    <t>Procure por Khurram Aslae a leste de Tempestade de Dunas/Dunestorm.</t>
+  </si>
+  <si>
+    <t>Espere dois dias antes de retornar a Tempestade de Dunas/Dunestorm.</t>
+  </si>
+  <si>
+    <t>As pistas levaram diretamente de volta à Guilda de Comerciantes Corsac de Tempestade de Dunas/Dunestorm.</t>
+  </si>
+  <si>
+    <t>Khurram Aslae diz a você o que o aguarda na Biblioteca Subterrânea em Diresprings.</t>
+  </si>
+  <si>
+    <t>Zarathustra está em &lt;color=red&gt;Nagukka&lt;/color&gt;, perto dos Penhascos da Umbra. Vá encontrá-lo em Nagukka.</t>
+  </si>
+  <si>
+    <t>Encontre a residência de Zarathustra em &lt;color=red&gt;Verdadeira Nagukka&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Encontre a residência de Zarathustra em &lt;color=red&gt;Verdadeira Nagukka&lt;/color&gt; e derrote-o para se vingar.</t>
+  </si>
+  <si>
+    <t>Já conhecendo a verdade do assunto, você pode agora deixar &lt;color=red&gt;Verdadeira Nagukka&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Encontre um mercador chamado Jihan na Fortaleza de Pedra Vermelha para coletar sua próxima missão de recompensa.</t>
+  </si>
+  <si>
+    <t>Escape da masmorra dos Shujae.</t>
+  </si>
+  <si>
+    <t>Vá até o desfiladeiro em Pedra Chorosa e encontre uma árvore estranha localizada ao norte do Posto Avançado de Penhasco Oeste, depois informe Jihan na Fortaleza de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Reivindique uma nova missão de recompensa perto da Vila de Sandedge no Vale da Lua Gêmea.</t>
   </si>
   <si>
     <t>Encontre Laik no Acampamento do Precipício.</t>
   </si>
   <si>
-    <t>Siga para o Bazar do Sino do Camelo e encontre uma maneira de entrar no Circo das Areias.</t>
-  </si>
-  <si>
-    <t>Pegue uma nova missão de recompensa perto da Vila Orla da Areia no Vale Twinluna.</t>
-  </si>
-  <si>
-    <t>Descubra como obter uma fantasia adequada para o circo.</t>
-  </si>
-  <si>
-    <t>Siga para as Montanhas Zagros e encontre-se com Badis no lago a sudeste de Snowridge. Como comandante das forças Shujae que o aprisionaram... você pode realmente confiar nele?</t>
-  </si>
-  <si>
-    <t>Badis revela o plano de Laik e espera que você o impeça no banquete. Vá ao banquete no canto sudeste mais distante das Montanhas Zagros.</t>
-  </si>
-  <si>
-    <t>Você recebe o sinal de Badis. Laika está em movimento. Vá ajudá-lo.</t>
-  </si>
-  <si>
-    <t>Malak informa que seu experimento estará concluído em um mês e solicita sua ajuda. Use esse período para aperfeiçoar suas habilidades.</t>
-  </si>
-  <si>
-    <t>Viaje para o covil do Ifrit ao sul do Vale de Redstone.</t>
-  </si>
-  <si>
-    <t>Isra é uma mulher altamente misteriosa, mas ela afirma que agora não é o momento para revelar tudo. Quando você estiver forte o suficiente, ela compartilhará tudo. Espere 30 dias até que Isra entre em contato novamente.</t>
-  </si>
-  <si>
-    <t>Isra escreveu uma carta informando que ela está esperando por você ao norte de Agadir, no Vale de Twinluna.</t>
+    <t>Vá para o Bazar da Sino de Camelo e descubra uma maneira de se infiltrar no Circo das Areias.</t>
+  </si>
+  <si>
+    <t>Encontre uma maneira de obter um traje de circo adequado.</t>
+  </si>
+  <si>
+    <t>Adquira cinco unidades de Madeira de Palmeira.</t>
+  </si>
+  <si>
+    <t>Dirija-se às Montanhas Zagros e encontre-se com Badis no lago a sudeste de Snowridge. Como comandante das forças Shujae que o aprisionaram... você realmente pode confiar nele?</t>
+  </si>
+  <si>
+    <t>Badis conta sobre o plano de Laik e espera que você possa impedi-lo no banquete. Vá participar do banquete no canto sudeste mais distante das Montanhas Zagros.</t>
+  </si>
+  <si>
+    <t>Você vê o sinal de Badis. Laika está em movimento. Vá ajudá-lo.</t>
+  </si>
+  <si>
+    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circo das Areias. Em seguida, mate o Chefe Shujae.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malak diz que seu experimento estará concluído em um mês e precisa da sua ajuda. Aperfeiçoe suas habilidades durante este tempo.
+</t>
+  </si>
+  <si>
+    <t>Dirija-se à toca do Ifrit ao sul do Vale de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Isra é uma mulher altamente misteriosa, mas ela afirma que agora não é o momento de confessar tudo. Quando você estiver forte o suficiente, ela contará tudo. Espere 30 dias até que Isra entre em contato novamente.</t>
+  </si>
+  <si>
+    <t>Isra escreveu uma carta informando que está esperando por você ao norte de Agadir no Vale da Lua Gêmea.</t>
   </si>
   <si>
     <t>Atravesse o túnel secreto com Ilayda e descubra os segredos da Deusa do Rio e do Ifrit.</t>
   </si>
   <si>
-    <t>Ilyada disse que o Ifrit voltará. Faça preparativos para esse dia. Fale com o Árbitro no Vazio da Lava Pāhoehoe em Vale de Redstone se a missão não puder progredir.</t>
-  </si>
-  <si>
-    <t>O dia da profecia chegou! Derrote o Ifrit e defenda as terras do deserto! 
-Fale com o Árbitro no Vazio da Lava Pāhoehoe em Vale de Redstone se a missão não puder progredir.</t>
-  </si>
-  <si>
-    <t>ocê tem uma vaga lembrança de ter que ir ao portal próximo ao Vazio da Lava Pāhoehoe dentro do próximo mês para derrotar Malak.</t>
-  </si>
-  <si>
-    <t>A Princesa Ilayda o convida novamente para o Vale de Twinluna e promete explicar tudo quando você chegar lá.</t>
-  </si>
-  <si>
-    <t>Visite o mirante da Deusa do Rio e recupere a cimitarra.</t>
-  </si>
-  <si>
-    <t>Prepare-se para o dia em que aquela fenda vai se abrir.</t>
-  </si>
-  <si>
-    <t>Chegou a hora de reverter o destino do universo. Entre na fenda com Ilayda.</t>
-  </si>
-  <si>
-    <t>Você se encontra em um espaço desconhecido. Será que este é realmente o mundo como era mil anos atrás? Ilayda não pode responder, pois desapareceu. Procure por ela.</t>
-  </si>
-  <si>
-    <t>Encontre Ilayda e converse com ela.</t>
-  </si>
-  <si>
-    <t>Este é realmente o fim. Derrote a Fenda!</t>
-  </si>
-  <si>
-    <t>Ajude o Pequeno Jarah a encontrar os outros dois jovens.</t>
+    <t>Ilayda disse que o Ifrit vai retornar. Faça os preparativos nesse dia. Fale com o Árbitro no Vazio de Lava Pāhoehoe no Vale de Pedra Vermelha se essa missão não puder progredir.</t>
+  </si>
+  <si>
+    <t>O dia da profecia chegou! Derrote o Ifrit e defenda as terras do deserto!
+Fale com o Árbitro no Vazio de Lava Pāhoehoe no Vale de Pedra Vermelha se essa missão não puder progredir.</t>
+  </si>
+  <si>
+    <t>Você recorda vagamente que precisa ir ao portal próximo ao Vazio de Lava Pāhoehoe dentro de um mês para derrotar Malak.</t>
+  </si>
+  <si>
+    <t>A Princesa Ilayda convida você novamente para o Vale da Lua Gêmea e promete explicar absolutamente tudo para você então.</t>
+  </si>
+  <si>
+    <t>Visite a miragem da Deusa do Rio e pegue o cimitarra novamente.</t>
+  </si>
+  <si>
+    <t>Prepare-se para o dia em que aquela fenda ira se abrir.</t>
+  </si>
+  <si>
+    <t>Chegou o momento de reverter o destino do universo. Entre na fenda com Ilayda.</t>
+  </si>
+  <si>
+    <t>Você se encontra em um espaço desconhecido. Será que isso realmente é como o mundo era mil anos atrás? Ilayda não pode responder, no entanto - ela desapareceu. Encontre-a.</t>
+  </si>
+  <si>
+    <t>Encontre Ilayda e fale com ela.</t>
+  </si>
+  <si>
+    <t>Isso realmente é o fim. Derrote a Fenda!</t>
+  </si>
+  <si>
+    <t>Ajude o Pequeno Jarah a encontrar as outras duas crianças.</t>
   </si>
   <si>
     <t>Ajude Ghazi a transportar madeira para o sul e a construir uma cerca para proteger a cidade do Ifrit.</t>
   </si>
   <si>
-    <t>Explore a Mina de Redstone Abandonada, que fica ao sul do Acampamento do Precipício.</t>
-  </si>
-  <si>
-    <t>A Valente Vale aguarda sua exploração. Siga para o norte a partir de Snowridge e siga uma trilha estreita para o leste.</t>
-  </si>
-  <si>
-    <t>Vá para o sul a partir da Vila Khamsin para explorar o Vale Sirocco.</t>
-  </si>
-  <si>
-    <t>Procure nas Cavernas Agadir pela bebida de que os fazendeiros estavam falando. Elas estão próximas a Northport.</t>
-  </si>
-  <si>
-    <t>Um homem implora para que você vasculhe o Esconderijo Secreto e resgate sua esposa do mago que a sequestrou.</t>
-  </si>
-  <si>
-    <t>Dirija-se ao noroeste de Fleur até o Palácio Arbor e recupere o cristal do transeunte.</t>
+    <t>Explore a Mina de Pedra Vermelha Abandonada ao sul do Acampamento do Precipício.</t>
+  </si>
+  <si>
+    <t>O Vale Verdejante aguarda sua exploração. Dirija-se ao norte de Snowridge e siga uma trilha pequena para o leste.</t>
+  </si>
+  <si>
+    <t>Dirija-se ao sul da Vila Khamsin para explorar o Vale Sirocco.</t>
+  </si>
+  <si>
+    <t>Procure nas Cavernas de Agadir pela bebida que os fazendeiros estavam mencionando. Elas ficam perto de Porto Norte.</t>
+  </si>
+  <si>
+    <t>Um homem implora para que você procure o Esconderijo Secreto e resgate sua esposa do feiticeiro que a sequestrou.</t>
+  </si>
+  <si>
+    <t>Dirija-se a noroeste de Fleur até o Palácio Arbor e recupere o cristal do transeunte.</t>
   </si>
   <si>
     <t>Vá para as Cavernas de Neve ao lado do pequeno lago a sudeste de Snowridge.</t>
   </si>
   <si>
-    <t>Vá para as Cavernas dos Ossos do Leviatã, perto da Vila Marfim. Fica ao sul das terras agrícolas da vila.</t>
-  </si>
-  <si>
-    <t>Vá para a Formação do Gigante Zagros a sudoeste de Snowridge. A lenda diz que há um desfiladeiro se você seguir para o sul e depois para o oeste a partir de Snowridge. A formação fica no final deste desfiladeiro.</t>
-  </si>
-  <si>
-    <t>Vá para as Cavernas do Ritual.</t>
-  </si>
-  <si>
-    <t>Explore o Covil dos Lobos ao sul da Vila Black Bog e capture o Lobo Alfa.</t>
-  </si>
-  <si>
-    <t>Há rumores de que os Dakn estão organizando um concurso de gladiadores. O vencedor receberá os despojos obtidos no saque de Jamal City.</t>
-  </si>
-  <si>
-    <t>Um homem foi gravemente ferido no Acampamento dos Bandidos perto de Fleur. Traga um médico de Fleur e leve-o ao acampamento para salvá-lo.</t>
-  </si>
-  <si>
-    <t>Você encontra uma jovem perto da área onde a serpente gigante foi vista pela última vez. Ela sugere que duas pequenas garrafas do Elixir da Rosa Branca podem ser suficientes para domar a serpente gigante</t>
-  </si>
-  <si>
-    <t>Alaf Jahim conta uma história de seus dias de juventude, quando ele era apenas um patrulheiro do deserto comum...</t>
-  </si>
-  <si>
-    <t>Alaf Jahim foi capturado por bandidos junto com o resto da caravana. Pense em um plano de fuga.</t>
-  </si>
-  <si>
-    <t>Assim que estava prestes a fugir, Alaf Jahim descobre que o líder dos bandidos é Muna - um velho amigo de sua cidade natal.</t>
-  </si>
-  <si>
-    <t>Você ouviu as histórias de Alaf Jahim. Converse com ele novamente.</t>
-  </si>
-  <si>
-    <t>Yaya começa a contar sobre quando era um garoto comum... antes de se tornar assim...</t>
-  </si>
-  <si>
-    <t>Yaya se tornou uma pessoa muito mais forte depois de conhecer Ilham, mas...</t>
-  </si>
-  <si>
-    <t>Ao longo dos anos, Yaya assumiu sua forma atual distorcida: mas agora, chegou a hora de ele resolver as contas com Noor!</t>
-  </si>
-  <si>
-    <t>Tiqin implora para que você vá com ela a um vale secreto cheio de ervas perto do &lt;color=red&gt;Posto Avançado North Crag&lt;/color&gt; em busca de ingredientes herbais preciosos raros.</t>
-  </si>
-  <si>
-    <t>Você já encontrou uma entrada. Uma segunda entrada está &lt;color=red&gt;entre a Formação do Gigante Zagros e a Vila Southcliff&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Após uma missão gelada, uma terceira entrada pode ser encontrada no pântano ao lado de &lt;color=red&gt;Ebon Village&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Amira Zahra implora para que você vá até o desfiladeiro ao norte de Diresprings e entregue alguns itens às pessoas que lá vivem.</t>
-  </si>
-  <si>
-    <t>Um vagabundo de um olho só afirma que sua casa foi tomada por um rico tirano. Ele pede que você elabore um plano para ajudá-lo a recuperar sua propriedade.</t>
-  </si>
-  <si>
-    <t>Elam provou que a propriedade pertence a ele. E agora?</t>
-  </si>
-  <si>
-    <t>Nemishi não está disposto a desistir após as duas primeiras derrotas. Ouvi rumores que ele está mobilizando um exército para lançar um ataque final contra nós!</t>
-  </si>
-  <si>
-    <t>Você impediu a primeira invasão de Nemishi, mas ele prometeu retornar com tropas em dois meses. Você deve treinar para derrotá-los.</t>
-  </si>
-  <si>
-    <t>Você assumiu a liderança da tribo de seu pai, mas seu vizinho, &lt;color=red&gt;Nemishi&lt;/color&gt;, veio procurando algo chamado &lt;color=red&gt;Epoch Reed&lt;/color&gt;. Se você não conseguir encontrá-lo dentro de um mês, suas forças atacarão a nossa tribo!</t>
-  </si>
-  <si>
-    <t>Nemishi foi derrotado e, julgando pelo que ele deixou para trás, o &lt;color=red&gt;Caniço Epoch&lt;/color&gt; está escondido em algum lugar nas &lt;color=red&gt;Ruínas Destruídas&lt;/color&gt; de sua própria tribo.</t>
-  </si>
-  <si>
-    <t>A sua capital foi capturada! Encontre uma forma de reconquistar a cidade!</t>
+    <t>Vá para as Cavernas dos Ossos de Leviatã perto da Vila Marfim. Fica ao sul das terras agrícolas da vila.</t>
+  </si>
+  <si>
+    <t>Vá até o Vazio de Lava Pāhoehoe, naquela área estranha ao sul da Fortaleza de Pedra Vermelha. Você pode encontrar algumas dificuldades para chegar lá.</t>
+  </si>
+  <si>
+    <t>Dirija-se à Formação Gigante Zagros, a sudoeste de Snowridge. Diz a lenda que há um desfiladeiro se você seguir para o sul e depois a oeste a partir de Snowridge. A formação está no final deste desfiladeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visite as Cavernas do Ritual.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore a Toca do Lobo ao sul da Vila Pântano Negro e capture o Lobo Alfa.
+</t>
+  </si>
+  <si>
+    <t>Rumor tem, os Dakn estão organizando um concurso gladiatório. O vencedor receberá os despojos saqueados da cidade de Jamal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um homem foi gravemente ferido no Acampamento dos Bandidos perto de Fleur. Busque um médico em Fleur e o conduza ao acampamento para salvá-lo.
+</t>
+  </si>
+  <si>
+    <t>Como o desertor mencionou, há uma pedra azul em Rocha Chorosa. Sob ela, está o tesouro secreto do Mundo Antigo - a Armadura das Cinzas do Deserto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Tempestade de Dunas, você encontra uma caravana a caminho do Bazar do Sino do Camelo e promete escoltá-los até o destino deles dentro de três dias.
+</t>
+  </si>
+  <si>
+    <t>Você vê uma jovem perto de uma das áreas onde a serpente gigante foi avistada pela última vez. Ela sugere que duas pequenas garrafas de Elixir de Rosa Branca podem ser suficientes para domar a serpente gigante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaf Jahim entretém você com uma história de seus dias mais jovens, quando era apenas um simples patrulheiro do deserto...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaf Jahim foi capturado por bandidos junto com o resto da caravana. Quebre a cabeça e pense em uma maneira de escapar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justo quando ele estava prestes a fugir, Alaf Jahim descobre que o líder dos bandidos é Muna - uma velha amiga de sua própria cidade natal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você já ouviu as histórias de Alaf Jahim. Tenha outra conversa com ele.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaya começa a contar sobre quando ele era um garoto comum... antes de se tornar assim...
+</t>
+  </si>
+  <si>
+    <t>Yaya se tornou uma pessoa muito mais forte depois de conhecer Ilham, mas…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um curto período depois que Ilham partiu, Yaya viajou sozinho para os Penhascos da Umbra para encontrá-la. </t>
+  </si>
+  <si>
+    <t>Ao longo dos anos, Yaya se transformou na sua forma atual deformada, mas agora chegou a hora dele acertar as contas com Noor!</t>
+  </si>
+  <si>
+    <t>Tiqin implora para que você a acompanhe até um vale secreto cheio de ervas próximo ao &lt;color=red&gt;Posto Avançado do Cânion Norte&lt;/color&gt; para procurar alguns preciosos ingredientes herbáceos raros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Você já encontrou uma entrada. Uma segunda entrada está &lt;color=red&gt;entre a Formação Gigante Zagros e a Vila Penhasco do Sul&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Após uma missão gelada, uma terceira entrada pode ser encontrada no pântano ao lado de &lt;color=red&gt;Vila Ebon&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Amira Zahra suplica para que você vá ao desfiladeiro ao norte de Diresprings e entregue alguns itens às pessoas que vivem lá.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um vagabundo de um olho só alega que sua casa foi tomada por um tirano rico. Ele implora para que você elabore um plano para ajudá-lo a recuperar sua propriedade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elam provou que a propriedade é dele. E agora?
+</t>
+  </si>
+  <si>
+    <t>Você assumiu a liderança de sua tribo de seu pai, mas seu vizinho, &lt;color=red&gt;Nemishi&lt;/color&gt;, veio procurar por algo chamado &lt;color=red&gt;Epoch Reed&lt;/color&gt;. Se você não puder fornecer isso dentro do mês, suas forças atacarão nossa tribo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Você conseguiu deter a primeira invasão de Nemishi, mas ele promete voltar com tropas em dois meses. Você precisa se preparar para derrotá-los.</t>
+  </si>
+  <si>
+    <t>Após as duas primeiras derrotas, Nemishi não está disposto a deixar as coisas assim. Surgem rumores de que ele está mobilizando um exército para lançar um ataque final contra nós!</t>
+  </si>
+  <si>
+    <t>Nemishi foi derrotado e, julgando pelo que ele deixou para trás, o Epoch Reed está escondido em algum lugar das &lt;color=red&gt;Ruínas Despedaçadas&lt;/color&gt; de sua própria tribo.</t>
+  </si>
+  <si>
+    <t>Sua capital foi capturada! Encontre uma maneira de recapturar a cidade!</t>
   </si>
   <si>
     <t>A filha do Pintor Errante se perdeu. Ele espera que você possa ajudar a encontrá-la e trazê-la de volta.</t>
   </si>
   <si>
-    <t>Você conheceu duas crianças no Posto Avançado West Crag. Elas lhe entregaram uma garrafa estranha na esperança de que você pudesse jogá-la no Vazio da Lava Pāhoehoe para destruí-la.</t>
-  </si>
-  <si>
-    <t>Inesperadamente, você obteve o Livro do Fogo, um antigo livro de magia Ifrit. A alma de seu autor, o Mestre Ifrit das Chamas, está selada em suas páginas. Colete os outros quatro fragmentos do livro e monte-o para libertar seu espírito e obter seus poderes. Procure por uma grande marca de energia perto de cada fragmento.</t>
-  </si>
-  <si>
-    <t>Os sapatos de dança de Umara desapareceram. Você decide esperar pelo culpado junto à árvore grande ao longo do rio do Posto Avançado North Crag.</t>
-  </si>
-  <si>
-    <t>Umara não poderia recusar um trabalho que valesse dez mil Utar, certo? Mas algo parece errado. Você decide ficar de olho nela em segredo para protegê-la.</t>
+    <t>Dirija-se ao local onde encontrou o Pintor Errante na Rocha Chorosa. Procure ao redor e veja se consegue ajudar a trazer a filha dele de volta.</t>
+  </si>
+  <si>
+    <t>Você encontrou duas crianças no Posto Avançado da Rocha Oeste. Elas lhe entregaram uma garrafa estranha na esperança de que você pudesse jogá-la no Vazio de Lava Pāhoehoe para destruí-la.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você comprou um cristal de um comerciante no Vale de Pedra Vermelha. Ele afirmou que o cristal poderia transformar uma Dríade na Floresta da Ilusão de volta à sua forma humana. Você está pronto para testar suas palavras viajando para a &lt;color=red&gt;Floresta da Ilusão&lt;/color&gt; nas Falésias Umbra.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua experiência na Floresta da Ilusão prova que o cristal que o comerciante lhe vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro da Fortaleza de Pedra Vermelha sobre a localização dele.
+</t>
+  </si>
+  <si>
+    <t>Você encontrou o comerciante na Rocha Chorosa. Leve-o de volta à Fortaleza de Pedra Vermelha e reivindique sua recompensa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comerciante lhe contou sobre o paradeiro de uma mítica Pedra das Maldições - em algum lugar a oeste das Falésias Umbra. Você pode precisar perguntar por aí nas Falésias Umbra para determinar sua localização exata.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você obteve inesperadamente o Livro do Fogo, um antigo livro de magias Ifrit. A alma de seu autor, o Mestre Ifrit das Chamas, está selada entre suas páginas. Colete os outros quatro fragmentos do livro e junte-os para libertar seu espírito e obter seus poderes. Procure por uma grande marca de energia perto de cada fragmento.
+</t>
+  </si>
+  <si>
+    <t>Os sapatos de dança de Umara desapareceram. Você decide esperar pelo culpado perto da grande árvore ao longo do rio no Posto Avançado da Rocha Norte.</t>
+  </si>
+  <si>
+    <t>Umara não poderia recusar um trabalho que vale dez mil Utar, não é mesmo? Mas algo parece estranho. Você decide ficar de olho nela secretamente para protegê-la.</t>
   </si>
   <si>
     <t>Está ficando tarde. Mathali procura abrigo para descansar sua mente cansada.</t>
   </si>
   <si>
-    <t>Mathali salvou uma jovem garota chamada Yara dos pagãos. Yara, agradecida, decidiu levar Mathali para sua aldeia.</t>
-  </si>
-  <si>
-    <t>Mathali está determinado a livrar os aldeões da Igreja da Radiância, que os atormenta. Ele decide viajar para seu reduto subterrâneo para expulsá-los.</t>
-  </si>
-  <si>
-    <t>Rumores dizem que um poderoso Espiritualista reside em Agadir. Encontre-o e derrote-o como o primeiro passo de sua jornada.</t>
-  </si>
-  <si>
-    <t>Você encontra um feiticeiro chamado Malek que compartilha seu conhecimento sobre Burak. Você decide procurar mais pistas juntos - um pouco de trabalho em equipe nunca fez mal a ninguém.</t>
-  </si>
-  <si>
-    <t>Mais informações sobre Burak foram descobertas. Hora de voltar a Agadir e pegá-lo!</t>
-  </si>
-  <si>
-    <t>Malek foi gravemente ferido e não pôde lhe entregar sua recompensa pessoalmente. Em vez disso, ele deixou um pacote com o taberneiro em Agadir.</t>
-  </si>
-  <si>
-    <t>Uma anciã te conta sobre Burak, um feiticeiro dos espíritos que vive em Agadir. Você decide segui-la até a sua cabana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você foi enganado por Burak e Kun'na. Eles pretendem sacrificá-lo em um ritual infernal!
+    <t>Mathali encontrou uma jovem chamada Yara depois de derrotar os hereges. Yara, radiante por ter sido salva, decidiu guiar Mathali até sua vila próxima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mathali pretende livrar os aldeões da Igreja da Radiância que os assola. Ele decide viajar até a fortaleza subterrânea deles para expulsá-los.</t>
+  </si>
+  <si>
+    <t>Há rumores sobre um Spitiromancer poderoso que reside em Agadir. Encontre-o e derrote-o como o primeiro passo de sua jornada.</t>
+  </si>
+  <si>
+    <t>Você encontra um feiticeiro chamado Malek que compartilha seu conhecimento sobre Burak. Vocês decidem procurar mais pistas juntos - um pouco de trabalho em equipe nunca fez mal a ninguém.</t>
+  </si>
+  <si>
+    <t>Você e Malek aprenderam mais informações sobre Burak. Voltem para Agadir e o peguem!</t>
+  </si>
+  <si>
+    <t>Malek ficou gravemente ferido e incapaz de lhe dar a recompensa pessoalmente. Em vez disso, ele deixou um pacote com o taberneiro em Agadir.</t>
+  </si>
+  <si>
+    <t>Uma mulher idosa lhe conta sobre Burak, um Spiritomancer que mora em Agadir. Você decide segui-la até a casa de Burak.</t>
+  </si>
+  <si>
+    <t>Você foi enganado por Burak e Kun'na. Eles pretendem sacrificá-lo em um ritual infernal!</t>
+  </si>
+  <si>
+    <t>Kun'na pode parecer uma doce senhora idosa, mas você não é enganado por sua atuação. Decide continuar procurando o Spiritomancer sozinho nas ruas de Agadir.</t>
+  </si>
+  <si>
+    <t>Você encontra Rubi, uma jovem que vende flores. Ela diz que vai levá-lo para conhecer um de seus empregadores sintonizados com a magia - depois que você a acompanhar até em casa.</t>
+  </si>
+  <si>
+    <t>Rubi terminou de verificar o estado de saúde de seu pai. É hora de procurar o mago.</t>
+  </si>
+  <si>
+    <t>Burak e a senhora idosa estão planejando matar Rubi. Você não pode simplesmente ficar parado e assistir - salve-a!</t>
+  </si>
+  <si>
+    <t>O pai de Rubi implora para que você salve sua filha. Apenas uma Poção da Rosa Branca pode ajudá-la agora.</t>
+  </si>
+  <si>
+    <t>Você fez tudo o que podia aqui. Decide deixar Agadir em busca do próximo alvo.</t>
+  </si>
+  <si>
+    <t>Você fica sabendo de uma jovem Bruxa Espiritual recentemente vista perto da Cidade de Amaranth. Seria do seu melhor interesse aprender mais sobre ela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um jovem chamado Tandu sugere que você procure o herbalista na Cidade de Cotta para obter ajuda. Aparentemente, ele tem um método infalível para derrotar inimigos poderosos.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Kun'na pode parecer uma doce velhinha, mas você não se deixa enganar por sua atuação. Você decide continuar procurando o Spiritmancer pelas ruas de Agadir sozinho.
+    <t>Ghodja desvia facilmente o seu feitiço e o controla em troca. Como ele poderia vencê-lo? Você está determinado a descobrir. Dê uma volta pela Cidade de Cotta e veja o que pode descobrir.</t>
+  </si>
+  <si>
+    <t>Você conhece um jovem mago chamado Oli. Após uma breve conversa, ele revela alegremente a técnica secreta de Ghodja - tomar poção após poção. Você decide reunir poções de qualidade superior e usar o próprio truque dele contra ele. (Os Elixires de Arcana podem ser criados ou comprados na Botica na Cidade de Amaranth.)</t>
+  </si>
+  <si>
+    <t>Você conhece um jovem mago chamado Oli. Após uma breve conversa, ele revela alegremente a técnica secreta de Ghodja - tomar poção após poção. Você não se envergonha do método dele - na verdade, você está intrigado pelo desafio.</t>
+  </si>
+  <si>
+    <t>Você pensa em Tandu depois de derrotar Ghodja. É hora de exigir algumas informações sobre o verdadeiro Spiritomancer dele.</t>
+  </si>
+  <si>
+    <t>Khaldun, um homem misterioso de cabelos brancos, conta sobre um mestre da magia chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra nas Falésias Umbra. A cidade mais próxima nas falésias é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria prudente.</t>
+  </si>
+  <si>
+    <t>Parece que alguns habitantes locais no leste de Fleur perderam suas memórias. Você só pode pensar em um culpado - um Spiritomancer.</t>
+  </si>
+  <si>
+    <t>Você conversa com Barqash, um pai que está procurando por sua filha, na entrada das falésias. Ele pediu que você ajudasse a encontrar sua filha Basila.</t>
+  </si>
+  <si>
+    <t>Enquanto explora as falésias do leste, você encontra um caçador ferido. Prepara-se para escoltá-lo de volta à Vila Esmeralda.</t>
+  </si>
+  <si>
+    <t>Você finalmente, conduz Basila para longe. Nadira aceitou seu desafio.</t>
+  </si>
+  <si>
+    <t>Siga o conselho de Khaldun e viaje para o Vale Gélido.</t>
+  </si>
+  <si>
+    <t>Você encontra um caçador de recompensas desanimado nas picadas nevadas chamado Ouda. Ele sabe onde encontrar o Shaitan e está disposto a levá-lo até a caverna.</t>
+  </si>
+  <si>
+    <t>Ao juntar os dois fragmentos do mapa, você descobre a localização específica do General Cavaleiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu objetivo? Derrotar os Dhib e os Akhal. Ocupe o Bazar do Sino de Camelo e o Vale Gélido para colocá-los de joelhos. O progresso da ocupação será atualizado toda manhã.
 </t>
   </si>
   <si>
-    <t>Você encontra Rubi, uma jovem vendedora de flores. Ela diz que o levará para encontrar um de seus empregadores arcanos, mas só depois que você a acompanhar para casa.</t>
-  </si>
-  <si>
-    <t>Rubi já cuidou de seu pai. Agora é hora de encontrar o mago.</t>
-  </si>
-  <si>
-    <t>Burak e a velha estão planejando matar Rubi. Você tem que fazer alguma coisa para salvá-la!</t>
-  </si>
-  <si>
-    <t>O pai da Rubi está desesperado. Sua filha está doente e só uma Poção de Rosa Branca pode salvá-la. Ele implora que você ajude.</t>
-  </si>
-  <si>
-    <t>Você já fez tudo o que podia em Agadir. É hora de partir em busca do seu próximo desafio.</t>
-  </si>
-  <si>
-    <t>Há rumores de uma jovem Bruxa Espiritual que está vagando perto da Cidade de Amaranth. É melhor você investigar.</t>
-  </si>
-  <si>
-    <t>Um jovem chamado Tandu sugere que você procure o herbalista em Cotta Town para obter ajuda. Aparentemente, ele tem um método infalível para derrotar inimigos poderosos.</t>
-  </si>
-  <si>
-    <t>Ghodja desvia facilmente do seu feitiço e o controla em troca. Como ele pôde derrotá-lo? Você está determinado a descobrir. Dê uma volta pela Cidade de Cotta e veja o que pode descobrir.</t>
-  </si>
-  <si>
-    <t>O jovem mago Oli revela o segredo de Ghodja: beber poções uma atrás da outra. Você decide juntar poções de melhor qualidade e usar o próprio truque dele contra ele. (Elixires Arcanos podem ser fabricados ou comprados no Boticário da Cidade de Amaranto.)</t>
-  </si>
-  <si>
-    <t>Você conhece um jovem mago chamado Oli. Após um breve bate-papo, ele revela com alegria a técnica secreta de Ghodja: beber uma poção atrás da outra. Você não se envergonha de seu método - na verdade, você está intrigado com o desafio.</t>
-  </si>
-  <si>
-    <t>Depois de derrotar Ghodja, você se lembra de Tandu. É hora de arrancar dele informações sobre o verdadeiro Spiritmancer.</t>
-  </si>
-  <si>
-    <t>Parece que alguns moradores do leste de Fleur perderam a memória. Você só pode pensar em um culpado: um Spiritmancer.</t>
-  </si>
-  <si>
-    <t>Você fala com Barqash, um pai que está procurando sua filha, na entrada dos penhascos. Ele pediu sua ajuda para encontrar sua filha Basila.</t>
-  </si>
-  <si>
-    <t>Você encontra um caçador ferido enquanto explora os penhascos a leste. Você se prepara para escoltá-lo de volta para a Vila Esmeralda.</t>
-  </si>
-  <si>
-    <t>Você finalmente leva Basila embora. Nadira aceitou seu duelo.</t>
-  </si>
-  <si>
-    <t>Siga o conselho de Khaldun e viaje para o Vale do Gelo.</t>
-  </si>
-  <si>
-    <t>Você encontra um caçador de recompensas abatido nos picos nevados chamado Ouda. Ele sabe onde encontrar o Shaitan e está disposto a levá-lo até sua caverna.</t>
-  </si>
-  <si>
-    <t>Depois de juntar os dois fragmentos do mapa, você descobre a localização específica do General Cavaleiro.</t>
-  </si>
-  <si>
-    <t>Seu objetivo? Derrote os Dakn e os Nasir. Ocupe o Forte Pedra Vermelha e a Rocha Tríplice para colocá-los de joelhos. O progresso da ocupação será atualizado todas as manhãs.</t>
-  </si>
-  <si>
-    <t>Seu objetivo? Derrote os Dhib e os Akhal. Ocupe o Bazar do Sino do Camelo e o Vale da Geada para colocá-los de joelhos. O progresso da ocupação será atualizado todas as manhãs.</t>
-  </si>
-  <si>
-    <t>Seu objetivo? Derrote os Akhal, os Thur e os Dhib. Ocupe o Bazar do Sino do Camelo, Mireton e o Vale da Geada para colocá-los de joelhos. O progresso da ocupação será atualizado todas as manhãs.</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Shafaqat?]]#通用线索人物兽人主线2</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre Ouma, o mago...]]#通用线索人物兽人主线3</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Sobre a Legião das Trevas...]]#通用线索人物兽人主线8</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece o nome Zaratustra?]]#通用线索人物心灵巫师主线1</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Como a Guilda dos Mercadores Corsac está conectada...?]]#通用线索人物心灵巫师主线4</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece a história de Diresprings?]]#通用线索人物心灵巫师主线7</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você pode me contar sobre Nagukka?]]#通用线索人物心灵巫师主线8</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:Você conhece alguém chamado Jihan?]]#通用线索人物猎人帮会主线1</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:O que acontece no Circo das Areias?]]#通用线索人物猎人帮会主线6</t>
+    <t>Seu objetivo? Derrotar os Dakn e os Nasir. Ocupe a Fortaleza de Pedra Vermelha e a Rocha Tríptica para colocá-los de joelhos. O progresso da ocupação será atualizado toda manhã.</t>
+  </si>
+  <si>
+    <t>Seu objetivo? Derrotar os Akhal, os Thur e os Dhib. Ocupe o Bazar do Sino de Camelo, Mireton e o Vale Gélido para colocá-los de joelhos. O progresso da ocupação será atualizado toda manhã.</t>
   </si>
   <si>
     <t>0#Investigar Uday#1##大雪山:2079,8554:0|北风镇瓦德争吵</t>
   </si>
   <si>
+    <t>0#Ir para uma vila ao norte da Fortaleza de Qebui#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
+  </si>
+  <si>
     <t>0#Seguir Omar#1##大雪山:5594,9879:0|trigger:琥珀找到不远处的琥珀正在与怪物战斗</t>
   </si>
   <si>
-    <t>4#Encontrar um Elixir do Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
+    <t>4#Encontrar um Elixir de Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
+  </si>
+  <si>
+    <t>0#Ir para a Fortaleza de Qebui#1##大雪山:2372,8379:0</t>
   </si>
   <si>
     <t>0#Encontrar Omar#1##大雪山:2338,9105:0|trigger:北风镇宴会琥珀</t>
   </si>
   <si>
-    <t>0#Encontrar Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Ganhar 8 ou mais Pontos de Talento e depois encontrar o servo de Ouma#1##大雪山:10072,11659:0|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Examinar a vila#3##大雪山:9515,15488:400
-0#Encontrar o Chefe da Vila#1|兽人主线村长</t>
-  </si>
-  <si>
-    <t>0#Encontrar o servo de Ouma e relatar suas descobertas#1##大雪山:10072,11659:0|大雪山乌尤</t>
-  </si>
-  <si>
-    <t>0#Derrotar Ouma#1</t>
-  </si>
-  <si>
-    <t>0#Ir para o norte da Vila Sandedge no Vale de Twinluna#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞</t>
-  </si>
-  <si>
-    <t>0#Falar com Yaksha no Vale dos Caçadores#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
-    <t>4#Recuperar cinco Dentes de Lobo para Tausiq#5#狼牙#</t>
-  </si>
-  <si>
-    <t>0#Recuperar suas memórias#1</t>
-  </si>
-  <si>
-    <t>0#Guarda a prisão à noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
-  </si>
-  <si>
-    <t>0#Esperar dois dias antes de retornar a Dunestorm#1</t>
-  </si>
-  <si>
-    <t>0#Ir para leste de Dunestorm em busca do palácio de Corsac#1##大沙漠:-3052,-872:300|trigger:心灵巫师主线401</t>
-  </si>
-  <si>
-    <t>0#Ir para a Biblioteca Subterrânea em Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
-  </si>
-  <si>
-    <t>0#Encontrar a casa de Zarathustra#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar a casa de Zarathustra#1
-0#Derrotar Zarathustra#1</t>
-  </si>
-  <si>
-    <t>0#Partir de True Nagukka#1</t>
-  </si>
-  <si>
-    <t>0#Ir para Sandedge Village#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
-  </si>
-  <si>
-    <t>0#Escapar da masmorra do Shujae#1</t>
-  </si>
-  <si>
-    <t>0#Viajar para Precipice Camp#1##沙盒红石城:-545,3929:0|红石城北聚落雷毅</t>
-  </si>
-  <si>
-    <t>4#Encontrar uma Túnica de Mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
-  </si>
-  <si>
-    <t>4#Obter 5 unidades de Madeira de Palmeira#5#棕榈木#大沙漠:343,-317:300|trigger:猎人帮会主线8棕榈园</t>
-  </si>
-  <si>
-    <t>0#Encontrar Badis perto do lago a sudeste de Snowridge#1##大雪山:7976,-2851:100|大沙漠长孙弘</t>
-  </si>
-  <si>
-    <t>0#Badis conta a você o plano de Laik. Ele espera que você possa impedir Laik no banquete!#1##大雪山:10911,-4848:500|trigger:白狮宴会树林触发器</t>
-  </si>
-  <si>
-    <t>0#Derrotar Laik e seu exército#1|trigger:白狮宴会雷毅触发器</t>
-  </si>
-  <si>
-    <t>0#Encontrar Eisa#1|白狮宴会蓝伊莎
-0#Matar o Chefe Shujae#1|trigger:白狮宴会触发器</t>
-  </si>
-  <si>
-    <t>0#Esperar notícias de Malak#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar Malak perto do Pāhoehoe Lava Void#1
-0#Derrotar o Ifrit#1|火魔巢穴入口格瓦</t>
-  </si>
-  <si>
-    <t>0#Esperar notícias de Isra#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar Isra#1|双月山谷入口银珊</t>
-  </si>
-  <si>
-    <t>0#Explorar o túnel secreto#1|trigger:大主线5009</t>
-  </si>
-  <si>
-    <t>0#Esperar o Rift reabrir#1</t>
-  </si>
-  <si>
-    <t>0#Resistir ao Ifrit#1|trigger:大主线8006</t>
-  </si>
-  <si>
-    <t>0#r para o portal perto do Pāhoehoe Lava Void#1|trigger:大主线真结局2001</t>
-  </si>
-  <si>
-    <t>0#Encontrar a Princesa Ilayda perto de Agadir (Posto Avançado Norte) no Vale de Twinluna#1|双月山谷入口银珊</t>
-  </si>
-  <si>
-    <t>0#Recuperar o cimitarra da miragem#1|trigger:大主线真结局4004</t>
-  </si>
-  <si>
-    <t>0#Entrar no Rift com Ilayda#1|trigger:大主线真结局6002</t>
-  </si>
-  <si>
-    <t>0#Tentar encontrar Ilayda#1|trigger:大主线真结局8001</t>
-  </si>
-  <si>
-    <t>0#Falar com Ilayda#1|二周目河边银珊</t>
+    <t>0#Viajar para a Fortaleza de Pedra Vermelha e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
+  </si>
+  <si>
+    <t>0#Esperar sete dias#7
+0#Vá para a mina abandonada em Rocha Chorosa#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
+  </si>
+  <si>
+    <t>0#Encontre Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Ganhe 8 ou mais Pontos de Talento e, em seguida, encontre o servo de Ouma#1##大雪山:10072,11659:0|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Investigue a vila#3##大雪山:9515,15488:400
+0#Encontre o Chefe da Vila#1|兽人主线村长</t>
+  </si>
+  <si>
+    <t>0#Localize o servo de Ouma e relate suas descobertas#1##大雪山:10072,11659:0|大雪山乌尤</t>
+  </si>
+  <si>
+    <t>0#Derrote Ouma#1</t>
+  </si>
+  <si>
+    <t>0#Vá ao norte da Vila de Sandedge no Vale da Lua Gêmea#1##沙盒双月山谷:5572,-1538:350|trigger:野兽血脉拉克尔山洞</t>
+  </si>
+  <si>
+    <t>0#Converse com Yaksha no Vale do Caçador#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Ajude o mago na Cidade de Amaranth a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
+  </si>
+  <si>
+    <t>4#Recupere cinco Dentes de Lobo para Tausiq#5#狼牙#</t>
+  </si>
+  <si>
+    <t>0#Recupere suas memórias#1</t>
+  </si>
+  <si>
+    <t>0#Vá para a Cidade de Amaranth em Rocha Chorosa#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Encontre seu velho amigo no canto sudeste da Cidade de Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
+  </si>
+  <si>
+    <t>0#Guarde a prisão durante a noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
+  </si>
+  <si>
+    <t>4#Dê 1000 Utar para Nariz de Gancho no sudoeste da Cidade de Amaranth#1000#金钱#|三石堡腾越1</t>
+  </si>
+  <si>
+    <t>0#Aguarde por informações da Guilda Mercante Corsac#1
+0#Viaje para Tempestade de Dunas/Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
+  </si>
+  <si>
+    <t>0#Aguarde dois dias antes de retornar a Tempestade de Dunas/Dunestorm#1</t>
+  </si>
+  <si>
+    <t>0#á a leste de Tempestade de Dunas/Dunestorm em busca do palácio Corsac #1##大沙漠:-3052,-872:300|trigger:心灵巫师主线401</t>
+  </si>
+  <si>
+    <t>0#Vá para a Biblioteca Subterrânea em Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
+  </si>
+  <si>
+    <t>0#Viaje para o noroeste dos Penhascos Umbra até Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
+  </si>
+  <si>
+    <t>0#Encontre a casa de Zarathustra#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a casa de Zarathustra#1
+0#Derrote Zarathustra#1</t>
+  </si>
+  <si>
+    <t>0#Parta de Verdadeira Nagukka#1</t>
+  </si>
+  <si>
+    <t>0#Procure por Jihan, o comerciante, em Fortaleza da Pedra Vermelha#1##沙盒红石城:-1211,1133:100|红石城古达</t>
+  </si>
+  <si>
+    <t>0#Após encontrar uma árvore estranha nos desfiladeiros de Rocha Chorosa, retorne a Fortaleza da Pedra Vermelha e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
+  </si>
+  <si>
+    <t>0#Vá para a Vila Sandedge#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
+  </si>
+  <si>
+    <t>0#Escape do calabouço de Shujae#1</t>
+  </si>
+  <si>
+    <t>0#Viaje para o Acampamento Precipício#1##沙盒红石城:-545,3929:0|红石城北聚落雷毅</t>
+  </si>
+  <si>
+    <t>0#Vá para o Bazar do Sino do Camelo#1|trigger:驼铃集市触发器
+0#Ganhe a confiança do Circo das Areias#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
+  </si>
+  <si>
+    <t>4#Encontre uma Túnica de Mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
+  </si>
+  <si>
+    <t>4#Obtenha 5 unidades de Madeira de Palmeira#5#棕榈木#大沙漠:343,-317:300|trigger:猎人帮会主线8棕榈园</t>
+  </si>
+  <si>
+    <t>0#Encontre Badis ao lado do lago a sudeste de Snowridge#1##大雪山:7976,-2851:100|大沙漠长孙弘</t>
+  </si>
+  <si>
+    <t>0#Badis conta sobre o plano de Laik. Ele espera que você possa impedi-lo no banquete!#1##大雪山:10911,-4848:500|trigger:白狮宴会树林触发器</t>
+  </si>
+  <si>
+    <t>0#Derrote Laik e seu exército#1|trigger:白狮宴会雷毅触发器</t>
+  </si>
+  <si>
+    <t>0#Encontre Eisa#1|白狮宴会蓝伊莎
+0#Mate o Chefe Shujae#1|trigger:白狮宴会触发器</t>
+  </si>
+  <si>
+    <t>0#Aguarde notícias de Malak#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Malak perto do Vácuo de  Lava Pāhoehoe#1
+0#Derrote o Ifrit#1|火魔巢穴入口格瓦</t>
+  </si>
+  <si>
+    <t>0#Aguarde notícias de Isra#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Isra#1|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Explore o túnel secreto#1|trigger:大主线5009</t>
+  </si>
+  <si>
+    <t>0#Aguarde a reabertura da Fenda#1</t>
+  </si>
+  <si>
+    <t>0#Resista ao Ifrit#1|trigger:大主线8006</t>
+  </si>
+  <si>
+    <t>0#Vá para o portal próximo ao Vácuo de Lava Pāhoehoe#1|trigger:大主线真结局2001</t>
+  </si>
+  <si>
+    <t>0#Encontre a Princesa Ilayda perto de Agadir (Outpost Norte) no Vale da Lua Gêmea#1|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Recupere o cimitarra da miragem#1|trigger:大主线真结局4004</t>
+  </si>
+  <si>
+    <t>0#Aguarde a abertura da Fenda#1</t>
+  </si>
+  <si>
+    <t>0#Entre na Fenda com Ilayda#1|trigger:大主线真结局6002</t>
+  </si>
+  <si>
+    <t>0#Tente encontrar Ilayda#1|trigger:大主线真结局8001</t>
+  </si>
+  <si>
+    <t>0#Converse com Ilayda#1|二周目河边银珊</t>
   </si>
   <si>
     <t>0#Este é o fim! Lute!#1</t>
   </si>
   <si>
-    <t>0#Encontrar Little Hewez#1
-0#Encontrar Ali##1</t>
-  </si>
-  <si>
-    <t>0#Transportar a cerca#1|木工</t>
-  </si>
-  <si>
-    <t>0#Explorar a mina abandonada#1##沙盒红石城:-310,3163:0|PLACE:红石城废弃矿洞</t>
-  </si>
-  <si>
-    <t>0#Explorar Verdant Valley#1##大雪山:6598,2333:0|PLACE:采药雪谷</t>
-  </si>
-  <si>
-    <t>0#Explorar Sirocco Valley#1##沙盒风哭岩:3322,-5951:0|PLACE:狂风山谷</t>
-  </si>
-  <si>
-    <t>0#Explorar as Cavernas de Agadir#1##沙盒双月山谷:-1725,1471:0|PLACE:浅溪溶洞</t>
-  </si>
-  <si>
-    <t>0#Encontrar a esposa do homem#1##沙盒双月山谷:2760,6661:0|PLACE:秘密集会所</t>
-  </si>
-  <si>
-    <t>0#Explorar o Palácio Arbor#1##沙盒黑崖花卉乡:-4267,3378:0|PLACE:树宫</t>
-  </si>
-  <si>
-    <t>0#Explorar as Cavernas de Neve#1##大雪山:9107,-2394:0|PLACE:雪山冰窟</t>
-  </si>
-  <si>
-    <t>0#Explorar as Cavernas de Ossos de Leviatã#1##沙盒双月山谷:-305,596:0|PLACE:巨大兽骨洞窟</t>
-  </si>
-  <si>
-    <t>0#Explorar o Vazio de Lava Pāhoehoe#1##沙盒红石城:-914,-1727:0|PLACE:巨大熔岩空洞</t>
-  </si>
-  <si>
-    <t>0#Explorar a Formação Gigante de Zagros#1##大雪山:4926,-2923:0|PLACE:雪山巨人石阵</t>
-  </si>
-  <si>
-    <t>0#Explorar as Cavernas do Ritual#1##大雪山:4557,7657:0|PLACE:古老秘仪之窟</t>
-  </si>
-  <si>
-    <t>0#Expulsar os lobos selvagens#3##沙盒黑崖花卉乡:-4813,-13013:2000
-0#Derrotar o Rei Canis#1##沙盒黑崖花卉乡:-6196,-13160:300</t>
-  </si>
-  <si>
-    <t>0#Participar do concurso na Vila Papyriduo#1##沙盒风哭岩:422,2677:0|trigger:骆驼城的秘宝2001</t>
-  </si>
-  <si>
-    <t>0#Encontrar um curandeiro em Fleur#1##沙盒黑崖花卉乡:-1301,-1918:1000|花卉乡普洛
-0#Curar o desertor#1</t>
-  </si>
-  <si>
-    <t>4#Levar duas garrafas de Elixir da Rosa Branca#2#白蔷薇秘药小#</t>
-  </si>
-  <si>
-    <t>0#Fale com o Líder da Caravana#1
+    <t>0#Encontre o Pequeno Hewez#1
+0#Encontre Ali#1</t>
+  </si>
+  <si>
+    <t>0#Transporte a cerca#1|木工</t>
+  </si>
+  <si>
+    <t>0#Explore a mina abandonada#1##沙盒红石城:-310,3163:0|PLACE:红石城废弃矿洞</t>
+  </si>
+  <si>
+    <t>0#Explore o Vale Verdejante#1##大雪山:6598,2333:0|PLACE:采药雪谷</t>
+  </si>
+  <si>
+    <t>0#Explore o Vale Sirocco#1##沙盒风哭岩:3322,-5951:0|PLACE:狂风山谷</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas de Agadir#1##沙盒双月山谷:-1725,1471:0|PLACE:浅溪溶洞</t>
+  </si>
+  <si>
+    <t>0#Encontre a esposa do homem#1##沙盒双月山谷:2760,6661:0|PLACE:秘密集会所</t>
+  </si>
+  <si>
+    <t>0#Explore o Palácio Arbor#1##沙盒黑崖花卉乡:-4267,3378:0|PLACE:树宫</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas de Neve#1##大雪山:9107,-2394:0|PLACE:雪山冰窟</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas dos Ossos de Leviatã#1##沙盒双月山谷:-305,596:0|PLACE:巨大兽骨洞窟</t>
+  </si>
+  <si>
+    <t>0#Explore o Vácuo de Lava Pāhoehoe#1##沙盒红石城:-914,-1727:0|PLACE:巨大熔岩空洞</t>
+  </si>
+  <si>
+    <t>0#Explore a Formação Gigante de Zagros#1##大雪山:4926,-2923:0|PLACE:雪山巨人石阵</t>
+  </si>
+  <si>
+    <t>0#Explore as Cavernas do Ritual#1##大雪山:4557,7657:0|PLACE:古老秘仪之窟</t>
+  </si>
+  <si>
+    <t>0#Afaste os lobos selvagens#3##沙盒黑崖花卉乡:-4813,-13013:2000
+0#Derrote o Rei Canis#1##沙盒黑崖花卉乡:-6196,-13160:300</t>
+  </si>
+  <si>
+    <t>0#Participe do concurso na Vila Papyriduo#1##沙盒风哭岩:422,2677:0|trigger:骆驼城的秘宝2001</t>
+  </si>
+  <si>
+    <t>0#Encontre um curandeiro em Fleur#1##沙盒黑崖花卉乡:-1301,-1918:1000|花卉乡普洛
+0#Cure o desertor#1</t>
+  </si>
+  <si>
+    <t>0#Procure pela Armadura das Cinzas do Deserto em Rocha Chorosa#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
+  </si>
+  <si>
+    <t>0#Escolte uma caravana de Tempestade de Dunas até o Bazar do Sino do Camelo#1|PLACE:驼铃集市</t>
+  </si>
+  <si>
+    <t>4#Traga duas garrafas do Elixir da Rosa Branca#2#白蔷薇秘药小#</t>
+  </si>
+  <si>
+    <t>0#Converse com o Líder da Caravana#1
 0#Escolte a caravana#1</t>
   </si>
   <si>
     <t>0#Elabore um plano de resgate#1
-0#Fuja do Acampamento dos Bandidos#1</t>
-  </si>
-  <si>
-    <t>0#Derrotar Muna#1</t>
-  </si>
-  <si>
-    <t>0#Conversar com Alaf Jahim#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar algo para comer#1</t>
-  </si>
-  <si>
-    <t>0#Ensinar uma lição ao valentão#1
-0#Conversar com Ilham#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar algo para comer#1
-0#Encontrar o Pequeno Ilham#1</t>
-  </si>
-  <si>
-    <t>0#Derrotar o mago Noor#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar a entrada nas Montanhas de Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
-    <t>0#Ir para a localização especificada#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102
-0#Completar a entrega1|北荒村村长</t>
-  </si>
-  <si>
-    <t>0#Ir para a periferia do Acampamento Sava em busca de uma casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
-  </si>
-  <si>
-    <t>0#Encontrar outra maneira de conseguir a escritura da casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
-  </si>
-  <si>
-    <t>0#Desenvolver sua tribo e repelir os Nemishi#1</t>
-  </si>
-  <si>
-    <t>0#Repelir a última invasão dos Nemishi#1</t>
-  </si>
-  <si>
-    <t>0#Entrar na miragem e procurar o Bambu da Época#1|CHEST:建设MOD美舍卢标记</t>
-  </si>
-  <si>
-    <t>0#Recapturar a capital#1|PLACE:建设MOD主城</t>
-  </si>
-  <si>
-    <t>0#Procurar pela filha do pintor#1</t>
-  </si>
-  <si>
-    <t>0#Ir até a grande árvore junto aos penhascos do norte de Cotta Town#1|CHEST:流浪画师女儿之墓</t>
-  </si>
-  <si>
-    <t>0#Ficar ao lado da lava no Vazio de Lava Pāhoehoe#1|PLACE:巨大熔岩空洞</t>
-  </si>
-  <si>
-    <t>0#Encontrar o comerciante#1##沙盒红石城:-1471,611:500|PLACE:红石城</t>
-  </si>
-  <si>
-    <t>0#Procurar a Pedra das Maldições#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
-  </si>
-  <si>
-    <t>0#Coletar quatro fragmentos do Livro do Fogo#4</t>
-  </si>
-  <si>
-    <t>0#Esperar na margem perto do Posto de Observação de North Crag#1##沙盒风哭岩:-1811,6976:0|trigger:希云娜支线102</t>
-  </si>
-  <si>
-    <t>0#Acompanhar Umara em sua apresentação#1##沙盒黑崖花卉乡:-8858,-12217:0|trigger:希云娜支线202</t>
-  </si>
-  <si>
-    <t>0#Explorar a vila próxima#1##韩靖主线村庄:2558,-4378:0</t>
-  </si>
-  <si>
-    <t>0#Explorar a vila próxim#1##韩靖主线村庄:2558,-4378:0</t>
-  </si>
-  <si>
-    <t>0#Entrar na fortaleza subterrânea da Igreja da Radiância na memória de Mathali#1</t>
-  </si>
-  <si>
-    <t>0#Viajar para Agadir no Vale de Twinluna para buscar pistas sobre o Spiritmancer#1##沙盒双月山谷:-2017,-268:500|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Viajar para Northport com Malek#1##沙盒双月山谷:-2551,2264:0|PLACE:浅溪镇北聚落</t>
-  </si>
-  <si>
-    <t>0#Derrotar Burak#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Conversar com Shukriya em Agadir#1##沙盒双月山谷:-2580,-535:0|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Seguir Kun'na até a casa de Burak#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Derrotar Burak e Kun'na#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>0#Retornar a Agadir#1##沙盒双月山谷:-2552,-471:500|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>0#Seguir Rubi até sua casa#1##沙盒双月山谷:-2134,-1283:0</t>
-  </si>
-  <si>
-    <t>0#Seguir Rubi até a casa do mago#1##沙盒双月山谷:-2725,-1717:0</t>
-  </si>
-  <si>
-    <t>4#Localizar as Poções da Rosa Branca e levá-las para a casa de Rubi#1#白蔷薇秘药小#沙盒双月山谷:-2134,-1283:0|trigger:心灵女巫主线225</t>
-  </si>
-  <si>
-    <t>0#Ir para os portões de Agadi#1##沙盒双月山谷:-2025,-72:0</t>
-  </si>
-  <si>
-    <t>0#Ir para a cidade de Amaranth#1##沙盒风哭岩:2330,8441:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Ir para Cotta Town#1##沙盒风哭岩:-638,-5306:0|PLACE:陶山镇</t>
-  </si>
-  <si>
-    <t>0#Descobrir o segredo da técnica de Ghodja#1</t>
-  </si>
-  <si>
-    <t>4#Coletar 5 Elixires de Arcana e depois desafiar Ghodja para um duelo#5#巫术药剂#沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
-  </si>
-  <si>
-    <t>0#Prosseguir com Oli até a casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
-  </si>
-  <si>
-    <t>0#Perguntar aos moradores de Fleur sobre Zarathustra#1##沙盒黑崖花卉乡:-927,-1507:100|PLACE:花卉乡</t>
-  </si>
-  <si>
-    <t>0#Ir para a entrada do penhasco a leste de Fleur#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Entrar nos penhascos orientais para procurar Basila, a filha de Barqash#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Escoltar o caçador ferido de volta para Emerald Village antes que ele perca muito sangue#1##沙盒黑崖花卉乡:3247,-1045:0|PLACE:花卉乡东聚落</t>
-  </si>
-  <si>
-    <t>0#Derrotar Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Entrar na caverna de Shaitan com Ouda#1##大雪山:11766,10596:0
-0#Derrotar Shaitan#1</t>
-  </si>
-  <si>
-    <t>0#Procurar o monumento do General do Cavaleiro#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
-  </si>
-  <si>
-    <t>0#Ouvir os rumores locais na taverna do Vale do Gelo#1##大雪山:9940,8699:50|PLACE:冰谷</t>
-  </si>
-  <si>
-    <t>Em Dunestorm, você encontra uma caravana a caminho do Bazar do Sino do Camelo e promete escoltá-los até o destino dentro de três dias.</t>
-  </si>
-  <si>
-    <t>0#Escoltar uma caravana de Dunestorm até Bazar do Sino do Camelo#1|PLACE:驼铃集市</t>
-  </si>
-  <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Bazar do Sino do Camelo#1
-0#Ocupar Vale do Gelo#1</t>
-  </si>
-  <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Bazar do Sino do Camelo#1
-0#Ocupar Mireton#1
-0#Ocupar Vale do Gelo#1</t>
-  </si>
-  <si>
-    <t>0#Ir para Bazar do Sino do Camelo#1|trigger:驼铃集市触发器
-0#Ganhar a confiança do Circo das Areias#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
-  </si>
-  <si>
-    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circo das Areias. Depois, elimine o Chefe Shujae.</t>
-  </si>
-  <si>
-    <t>0#Viajar para Fortaleza de Pedra Vermelha e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
-  </si>
-  <si>
-    <t>0#Procurar por Jihan, o mercador, em Fortaleza de Pedra Vermelha#1##沙盒红石城:-1211,1133:100|红石城古达</t>
-  </si>
-  <si>
-    <t>Vá para o Vazio da Lava Pāhoehoe naquela área estranha ao sul de Fortaleza de Pedra Vermelha. Pode ser um pouco complicado chegar lá.</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto de Fortaleza de Pedra Vermelha...]]#通用线索霍翎支线1</t>
-  </si>
-  <si>
-    <t>Sua experiência na Floresta dos Espelhos prova que o cristal que o comerciante vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro de Fortaleza de Pedra Vermelha sobre o paradeiro dele.</t>
-  </si>
-  <si>
-    <t>0#Retornar a Fortaleza de Pedra Vermelha e entregar o mercador ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
-  </si>
-  <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Fortaleza de Pedra Vermelha#1
-0#Ocupar Triptych Rock#1</t>
-  </si>
-  <si>
-    <t>0#Esperar sete dias#7
-0#Ir para a mina abandonada em Rocha Chorosa#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
-  </si>
-  <si>
-    <t>Vá ao desfiladeiro em Rocha Chorosa e localize uma árvore estranha ao norte do posto avançado de West Crag e, em seguida, relate a Jihan em Fortaleza de Pedra Vermelha.</t>
-  </si>
-  <si>
-    <t>0#Depois de encontrar uma árvore estranha nos cânions de Rocha Chorosa, volte para Fortaleza de Pedra Vermelha e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
-  </si>
-  <si>
-    <t>Conforme o desertor disse, há uma pedra azul em Rocha Chorosa. Debaixo dela está o tesouro secreto do Velho Mundo - a Armadura Desert Ash.</t>
-  </si>
-  <si>
-    <t>0#Procurar a Armadura de Cinzas do Deserto em Rocha Chorosa#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
-  </si>
-  <si>
-    <t>0#Encontrar a entrada em Rocha Chorosa#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
-    <t>Vá para o local onde você encontrou o Pintor Errante em Rocha Chorosa. Procure ao redor e veja se pode ajudar a trazer a filha dele de volta.</t>
-  </si>
-  <si>
-    <t>Você encontrou o comerciante em Rocha Chorosa. Leve-o de volta para Fortaleza de Pedra Vermelha e reivindique sua recompensa.</t>
-  </si>
-  <si>
-    <t>0#Ir para uma vila ao norte do Fortaleza Qebui#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
-  </si>
-  <si>
-    <t>0#Ir para o Fortaleza Qebui#1##大雪山:2372,8379:0</t>
-  </si>
-  <si>
-    <t>0#Ajudar o mago em Cidade de Amaranth a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
-  </si>
-  <si>
-    <t>0#Ir para Cidade de Amaranth em Rocha Chorosa#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Encontrar seu velho amigo no canto sudeste de Cidade de Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
-  </si>
-  <si>
-    <t>4#Dê 1000 Utar para Hook Nose no sudoeste de Cidade de Amaranth#1000#金钱#|三石堡腾越1</t>
-  </si>
-  <si>
-    <t>0#Conversar com Tandu em Cidade de Amaranth#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
-  </si>
-  <si>
-    <t>0#Esperar informações da Guilda dos Mercadores de Corsac#1
-0#Viajar para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
-  </si>
-  <si>
-    <t>0#Viajar para o noroeste das Penhascos Umbra para Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
-  </si>
-  <si>
-    <t>Pouco depois que Ilham partiu, Yaya viajou sozinho para as Penhascos Umbra para encontrá-la.</t>
-  </si>
-  <si>
-    <t>0#Encontrar a entrada nas Penhascos Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
-    <t>Você comprou um cristal de um comerciante no Vale de Redstone. Ele disse que poderia transformar uma Dríade na Floresta dos Espelhos de volta à sua forma humana. Você está disposto a testar suas palavras viajando para a &lt;color=red&gt;Floresta dos Espelhos&lt;/color&gt; nas Penhascos Umbra.</t>
-  </si>
-  <si>
-    <t>0#Ir para a Floresta Mirage nas Penhascos Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
-  </si>
-  <si>
-    <t>O comerciante lhe contou o paradeiro de uma Pedra Mítica das Maldições - em algum lugar a oeste das Penhascos Umbra. Você pode precisar perguntar por aí nas Penhascos Umbra para determinar sua localização exata.</t>
-  </si>
-  <si>
-    <t>Khaldun, um homem misterioso de cabelos brancos, lhe fala sobre um mestre arcano chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra dentro das Penhascos Umbra. A cidade mais próxima no penhasco é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria sábio.</t>
+0#Escape do Acampamento de Bandidos#1</t>
+  </si>
+  <si>
+    <t>0#Derrote Muna#1</t>
+  </si>
+  <si>
+    <t>0#Converse com Alaf Jahim#1</t>
+  </si>
+  <si>
+    <t>0#Encontre algo para comer#1</t>
+  </si>
+  <si>
+    <t>0#Ensine uma lição ao valentão#1
+0#Converse com Ilham#1</t>
+  </si>
+  <si>
+    <t>0#Encontre algo para comer#1
+0#Encontre o Pequeno Ilham#1</t>
+  </si>
+  <si>
+    <t>0#Derrote o feiticeiro Noor#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada em Rocha Chorosa#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
+0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada nas Montanhas Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择
+0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a entrada nos Penhascos de Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
+0#Encontre as ervas#1</t>
+  </si>
+  <si>
+    <t>0#Vá para a localização especificada#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102
+0#Complete a entrega#1|北荒村村长</t>
+  </si>
+  <si>
+    <t>0#Vá para as proximidades do Acampamento Sava em busca de uma casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
+  </si>
+  <si>
+    <t>0#Encontre outra maneira de obter a escritura da casa#1##大沙漠:-3343,1355:0|野马部落富豪</t>
+  </si>
+  <si>
+    <t>0#Desenvolva sua tribo e defenda-se contra Nemish#1</t>
+  </si>
+  <si>
+    <t>0#Desenvolva sua tribo e repila a invasão de Nemishi#1</t>
+  </si>
+  <si>
+    <t>0#Repila a última invasão de Nemishi#1</t>
+  </si>
+  <si>
+    <t>0#Entre na Ilusão e procure pelo Junco da Época#1|CHEST:建设MOD美舍卢标记</t>
+  </si>
+  <si>
+    <t>0#Recapture a capital#1|PLACE:建设MOD主城</t>
+  </si>
+  <si>
+    <t>0#Procure pela filha do pintor#1</t>
+  </si>
+  <si>
+    <t>0#Vá até a grande árvore junto aos penhascos ao norte da Cidade de Cotta #1|CHEST:流浪画师女儿之墓</t>
+  </si>
+  <si>
+    <t>0#Fique ao lado da lava no Vácuo de Lava Pāhoehoe#1|PLACE:巨大熔岩空洞</t>
+  </si>
+  <si>
+    <t>0#Vá para a Floresta da Mirage/Ilusão no Penhascos Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
+  </si>
+  <si>
+    <t>0#Localize o comerciante#1##沙盒红石城:-1471,611:500|PLACE:红石城</t>
+  </si>
+  <si>
+    <t>0#Volte para a Fortaleza de Pedra Vermelha e entregue o ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
+  </si>
+  <si>
+    <t>0#Procure pela Pedra das Maldições#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
+  </si>
+  <si>
+    <t>0#Colete quatro fragmentos do Livro do Fogo#4</t>
+  </si>
+  <si>
+    <t>0#Aguarde à beira do rio perto do Posto Avançado Penhasco Norte#1##沙盒风哭岩:-1811,6976:0|trigger:希云娜支线102</t>
+  </si>
+  <si>
+    <t>0#Acompanhe Umara em sua apresentação#1##沙盒黑崖花卉乡:-8858,-12217:0|trigger:希云娜支线202</t>
+  </si>
+  <si>
+    <t>0#Explore a vila próxima#1##韩靖主线村庄:2558,-4378:0</t>
+  </si>
+  <si>
+    <t>0#Entre na fortaleza subterrânea da Igreja do Esplendor na memória de Mathali#1</t>
+  </si>
+  <si>
+    <t>0#Viaje para Agadir no Vale da Lua Gêmea para procurar pistas sobre o Spiritomancer#1##沙盒双月山谷:-2017,-268:500|PLACE:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Viaje para Porto Norte com Malek#1##沙盒双月山谷:-2551,2264:0|PLACE:浅溪镇北聚落</t>
+  </si>
+  <si>
+    <t>0#Derrote Burak#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Converse com Shukriya em Agadir#1##沙盒双月山谷:-2580,-535:0|PLACE:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Siga Kun'na até a casa de Burak#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Derrote Burak e Kun'na#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>0#Volte para Agadir#1##沙盒双月山谷:-2552,-471:500|PLACE:浅溪镇</t>
+  </si>
+  <si>
+    <t>0#Siga Rubi até sua casa#1##沙盒双月山谷:-2134,-1283:0</t>
+  </si>
+  <si>
+    <t>0#Siga Rubi até a casa do feiticeiro#1##沙盒双月山谷:-2725,-1717:0</t>
+  </si>
+  <si>
+    <t>4#Encontre Poções de Rosa Branca e leve-as para a casa de Rubi#1#白蔷薇秘药小#沙盒双月山谷:-2134,-1283:0|trigger:心灵女巫主线225</t>
+  </si>
+  <si>
+    <t>0#Vá até os portões de Agadir#1##沙盒双月山谷:-2025,-72:0</t>
+  </si>
+  <si>
+    <t>0#Vá para a Cidade Amaranth#1##沙盒风哭岩:2330,8441:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Vá para a Cidade de Cotta#1##沙盒风哭岩:-638,-5306:0|PLACE:陶山镇</t>
+  </si>
+  <si>
+    <t>0#Descubra o segredo da técnica de Ghodja#1</t>
+  </si>
+  <si>
+    <t>4#Colete 5 Elixires de Arcana e então desafie Ghodja para um duelo#5#巫术药剂#沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
+  </si>
+  <si>
+    <t>0#Prossiga com Oli até a casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
+  </si>
+  <si>
+    <t>0#Converse com Tandu na Cidade de Amaranth#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
+  </si>
+  <si>
+    <t>0#Pergunte aos moradores de Fleur sobre Zarathustra#1##沙盒黑崖花卉乡:-927,-1507:100|PLACE:花卉乡</t>
+  </si>
+  <si>
+    <t>0#Dirija-se à entrada do penhasco a leste de Fleur#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Entre nos penhascos do leste para procurar Basila, a filha de Barqash#1##沙盒黑崖花卉乡:1559,-2746:1000|trigger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Escolte o caçador ferido de volta à Vila Esmeralda antes que ele perca muito sangue#1##沙盒黑崖花卉乡:3247,-1045:0|PLACE:花卉乡东聚落</t>
+  </si>
+  <si>
+    <t>0#Derrote Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
+  </si>
+  <si>
+    <t>0#Ouça os rumores locais na taverna do Vale da Geada#1##大雪山:9940,8699:50|PLACE:冰谷</t>
+  </si>
+  <si>
+    <t>0#Entre na caverna de Shaitan com Ouda#1##大雪山:11766,10596:0
+0#Derrote Shaitan#1</t>
+  </si>
+  <si>
+    <t>0#Procure pelo monumento do General Cavaleiro#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
+  </si>
+  <si>
+    <t>0#Controle pelo menos 18 cidades#18
+0#Ocupe a Fortaleza de Pedra Vermelha#1
+0#Ocupe Rocha Tríptica#1</t>
+  </si>
+  <si>
+    <t>0#Controle pelo menos 18 cidades#18
+0#Ocupe o Bazar do Sino do Camelo#1
+0#Ocupe o Vale da Geada#1</t>
+  </si>
+  <si>
+    <t>0#Controle pelo menos 18 cidades#18
+0#Ocupe o Bazar do Sino do Camelo#1
+0#Ocupe Mireton#1
+0#Ocupe o Vale da Geada#1</t>
   </si>
 </sst>
 </file>
@@ -3427,18 +3455,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="G137" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="229.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="167.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3486,13 +3512,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="148.5">
@@ -3510,13 +3536,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>903</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135">
@@ -3534,13 +3560,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108">
@@ -3558,13 +3584,13 @@
         <v>21</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -3582,13 +3608,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>904</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="94.5">
@@ -3606,13 +3632,13 @@
         <v>27</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135">
@@ -3623,20 +3649,20 @@
         <v>30</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>888</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="351">
@@ -3647,25 +3673,25 @@
         <v>34</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>762</v>
+        <v>639</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>895</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="337.5">
@@ -3682,19 +3708,19 @@
         <v>41</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>763</v>
+        <v>640</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135">
@@ -3705,20 +3731,20 @@
         <v>45</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="121.5">
@@ -3729,20 +3755,20 @@
         <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="135">
@@ -3753,20 +3779,20 @@
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27">
@@ -3777,20 +3803,20 @@
         <v>57</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="337.5">
@@ -3807,19 +3833,19 @@
         <v>63</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>764</v>
+        <v>641</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="135">
@@ -3830,20 +3856,20 @@
         <v>67</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="162">
@@ -3854,20 +3880,20 @@
         <v>70</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>905</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
@@ -3878,20 +3904,20 @@
         <v>73</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="94.5">
@@ -3902,20 +3928,20 @@
         <v>77</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="351">
@@ -3926,25 +3952,25 @@
         <v>81</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>765</v>
+        <v>642</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>906</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="202.5">
@@ -3955,20 +3981,20 @@
         <v>86</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>907</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="135">
@@ -3979,20 +4005,20 @@
         <v>90</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="229.5">
@@ -4003,20 +4029,20 @@
         <v>94</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="351">
@@ -4027,25 +4053,25 @@
         <v>98</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>766</v>
+        <v>643</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>910</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="351">
@@ -4056,25 +4082,25 @@
         <v>98</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>766</v>
+        <v>643</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="351">
@@ -4091,19 +4117,19 @@
         <v>99</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>766</v>
+        <v>643</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351">
@@ -4114,25 +4140,25 @@
         <v>111</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>767</v>
+        <v>644</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>114</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="351">
@@ -4149,19 +4175,19 @@
         <v>118</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>768</v>
+        <v>645</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>120</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="81">
@@ -4172,20 +4198,20 @@
         <v>122</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
@@ -4196,20 +4222,20 @@
         <v>122</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="81">
@@ -4220,20 +4246,20 @@
         <v>129</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>131</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="337.5">
@@ -4250,19 +4276,19 @@
         <v>135</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>889</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="337.5">
@@ -4273,25 +4299,25 @@
         <v>139</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>896</v>
+        <v>681</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>897</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="135">
@@ -4302,20 +4328,20 @@
         <v>143</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="40.5">
@@ -4326,20 +4352,20 @@
         <v>147</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="148.5">
@@ -4350,20 +4376,20 @@
         <v>151</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="351">
@@ -4374,25 +4400,25 @@
         <v>155</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>886</v>
+        <v>821</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="351">
@@ -4403,25 +4429,25 @@
         <v>155</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="351">
@@ -4432,25 +4458,25 @@
         <v>163</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="202.5">
@@ -4461,20 +4487,20 @@
         <v>167</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="189">
@@ -4485,2108 +4511,2108 @@
         <v>171</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>172</v>
+        <v>561</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I41" s="14" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="94.5">
       <c r="A42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>562</v>
       </c>
       <c r="D42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="I42" s="14" t="s">
-        <v>798</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="121.5">
       <c r="A43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>563</v>
       </c>
       <c r="D43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>887</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I43" s="15" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>563</v>
       </c>
       <c r="D44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>887</v>
+        <v>690</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="148.5">
       <c r="A45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>564</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="I45" s="14" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="108">
       <c r="A46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>565</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="I46" s="15" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="229.5">
       <c r="A47" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>566</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="I47" s="14" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="81">
       <c r="A48" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>567</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="I48" s="14" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5">
       <c r="A49" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>568</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="I49" s="14" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="229.5">
       <c r="A50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>569</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="I50" s="14" t="s">
-        <v>805</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="243">
       <c r="A51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="C51" s="14" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D51" s="6"/>
       <c r="F51" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="I51" s="14" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="135">
       <c r="A52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D52" s="7"/>
       <c r="F52" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="I52" s="14" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="162">
       <c r="A53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="C53" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D53" s="7"/>
       <c r="F53" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="I53" s="14" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="81">
       <c r="A54" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="C54" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D54" s="7"/>
       <c r="F54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G54" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="54">
+      <c r="A55" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="40.5">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="C55" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D55" s="7"/>
       <c r="F55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="I55" s="14" t="s">
-        <v>805</v>
+        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="81">
       <c r="A56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="C56" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D56" s="7"/>
       <c r="F56" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="I56" s="14" t="s">
-        <v>810</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="148.5">
       <c r="A57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="C57" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D57" s="7"/>
       <c r="F57" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="I57" s="14" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="54">
       <c r="A58" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D58" s="7"/>
       <c r="F58" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="I58" s="14" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="67.5">
       <c r="A59" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="C59" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D59" s="7"/>
       <c r="F59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="I59" s="14" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="54">
       <c r="A60" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="C60" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D60" s="7"/>
       <c r="F60" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="I60" s="15" t="s">
-        <v>814</v>
+        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="81">
       <c r="A61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="C61" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D61" s="7"/>
       <c r="F61" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="I61" s="14" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="108">
       <c r="A62" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D62" s="8"/>
       <c r="F62" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="H62" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G62" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="I62" s="14" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="135">
       <c r="A63" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D63" s="8"/>
       <c r="F63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="I63" s="14" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="108">
       <c r="A64" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D64" s="8"/>
       <c r="F64" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="I64" s="14" t="s">
-        <v>818</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="108">
       <c r="A65" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D65" s="8"/>
       <c r="F65" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="I65" s="14" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="108">
       <c r="A66" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D66" s="8"/>
       <c r="F66" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G66" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="I66" s="14" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="94.5">
       <c r="A67" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D67" s="8"/>
       <c r="F67" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H67" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="I67" s="14" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="94.5">
       <c r="A68" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="C68" s="14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D68" s="8"/>
       <c r="F68" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="I68" s="14" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="121.5">
       <c r="A69" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D69" s="8"/>
       <c r="F69" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="I69" s="14" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="148.5">
       <c r="A70" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D70" s="8"/>
       <c r="F70" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>890</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="I70" s="14" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="216">
       <c r="A71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D71" s="8"/>
       <c r="F71" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="I71" s="14" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="108">
       <c r="A72" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D72" s="8"/>
       <c r="F72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="I72" s="14" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="202.5">
       <c r="A73" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D73" s="2"/>
       <c r="F73" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="I73" s="15" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="148.5">
       <c r="A74" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D74" s="2"/>
       <c r="F74" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="I74" s="14" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="162">
       <c r="A75" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="C75" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D75" s="9"/>
       <c r="F75" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="I75" s="15" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="148.5">
       <c r="A76" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="C76" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D76" s="9"/>
       <c r="F76" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>898</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="I76" s="14" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="108">
       <c r="A77" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="C77" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D77" s="9"/>
       <c r="F77" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>882</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="I77" s="14" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135">
       <c r="A78" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="C78" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D78" s="9"/>
       <c r="F78" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G78" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>307</v>
-      </c>
       <c r="I78" s="14" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="121.5">
       <c r="A79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C79" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D79" s="1"/>
       <c r="F79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G79" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I79" s="15" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="94.5">
       <c r="A80" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D80" s="1"/>
       <c r="F80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="I80" s="15" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="108">
       <c r="A81" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D81" s="1"/>
       <c r="F81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G81" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="I81" s="14" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="81">
       <c r="A82" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D82" s="1"/>
       <c r="F82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G82" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I82" s="14" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="108">
       <c r="A83" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="I83" s="14" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="94.5">
       <c r="A84" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D84" s="1"/>
       <c r="F84" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I84" s="15" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="81">
       <c r="A85" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D85" s="1"/>
       <c r="F85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="I85" s="15" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="148.5">
       <c r="A86" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="I86" s="14" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="162">
       <c r="A87" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C87" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D87" s="1"/>
       <c r="F87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G87" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="I87" s="15" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="162">
       <c r="A88" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D88" s="1"/>
       <c r="F88" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="I88" s="15" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="175.5">
       <c r="A89" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D89" s="1"/>
       <c r="F89" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I89" s="15" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="162">
       <c r="A90" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="C90" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D90" s="1"/>
       <c r="F90" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="I90" s="15" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="135">
       <c r="A91" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="C91" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D91" s="1"/>
       <c r="F91" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G91" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="I91" s="14" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="108">
       <c r="A92" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D92" s="1"/>
       <c r="F92" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G92" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I92" s="14" t="s">
-        <v>842</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="270">
       <c r="A93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="C93" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D93" s="1"/>
       <c r="F93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="I93" s="14" t="s">
-        <v>843</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="162">
       <c r="A94" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="148.5">
       <c r="A95" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C95" s="14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D95" s="1"/>
       <c r="F95" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="I95" s="14" t="s">
-        <v>844</v>
+        <v>878</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="148.5">
       <c r="A96" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C96" s="14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D96" s="1"/>
       <c r="F96" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="I96" s="14" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="67.5">
       <c r="A97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="C97" s="14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D97" s="1"/>
       <c r="F97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G97" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="I97" s="14" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="81">
       <c r="A98" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D98" s="1"/>
       <c r="F98" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G98" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="I98" s="14" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="108">
       <c r="A99" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D99" s="1"/>
       <c r="F99" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G99" s="14" t="s">
-        <v>901</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I99" s="14" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="162">
       <c r="A100" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D100" s="1"/>
       <c r="F100" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G100" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="I100" s="14" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="202.5">
       <c r="A101" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>891</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G101" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="I101" s="14" t="s">
-        <v>915</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="202.5">
       <c r="A102" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
       <c r="D102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>892</v>
+        <v>387</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="135">
       <c r="A103" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>902</v>
+        <v>390</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>749</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="202.5">
       <c r="A104" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D104" s="1"/>
       <c r="F104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="378">
+      <c r="A105" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G104" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="222.75" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="B105" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>728</v>
+        <v>396</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>751</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="148.5">
       <c r="A106" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="189">
       <c r="A107" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="81">
       <c r="A108" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="148.5">
       <c r="A109" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="D109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="148.5">
       <c r="A110" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>733</v>
+        <v>416</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>756</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="148.5">
       <c r="A111" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>422</v>
       </c>
       <c r="D111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="162">
       <c r="A112" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="D112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="108">
       <c r="A113" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135">
       <c r="A114" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="148.5">
       <c r="A115" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>438</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="D115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>738</v>
+        <v>439</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>761</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="94.5">
       <c r="A116" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D116" s="10"/>
       <c r="F116" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>739</v>
+        <v>443</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>863</v>
+        <v>898</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="216">
       <c r="A117" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D117" s="10"/>
       <c r="F117" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>740</v>
+        <v>447</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>763</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>864</v>
+        <v>899</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="202.5">
       <c r="A118" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>453</v>
       </c>
       <c r="D118" s="11"/>
       <c r="F118" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>865</v>
+        <v>900</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="94.5">
       <c r="A119" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>866</v>
+        <v>901</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="135">
       <c r="A120" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>743</v>
+        <v>459</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>766</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="175.5">
       <c r="A121" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>867</v>
+        <v>902</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="94.5">
       <c r="A122" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D122" s="5"/>
       <c r="F122" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>745</v>
+        <v>466</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>768</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>868</v>
+        <v>903</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="121.5">
       <c r="A123" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="D123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>746</v>
+        <v>469</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>769</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>869</v>
+        <v>904</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="189">
       <c r="A124" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>747</v>
+        <v>473</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>870</v>
+        <v>905</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="148.5">
       <c r="A125" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>626</v>
       </c>
       <c r="D125" s="5"/>
       <c r="F125" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>871</v>
+        <v>906</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="324">
       <c r="A126" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>627</v>
       </c>
       <c r="D126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>749</v>
+        <v>481</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>772</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>872</v>
+        <v>907</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="270">
       <c r="A127" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>628</v>
       </c>
       <c r="D127" s="5"/>
       <c r="F127" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="135">
       <c r="A128" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>629</v>
       </c>
       <c r="D128" s="5"/>
       <c r="F128" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>909</v>
@@ -6594,266 +6620,266 @@
     </row>
     <row r="129" spans="1:9" ht="283.5">
       <c r="A129" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="D129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>917</v>
+        <v>775</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="175.5">
       <c r="A130" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>630</v>
       </c>
       <c r="D130" s="10"/>
       <c r="F130" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="175.5">
       <c r="A131" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>631</v>
       </c>
       <c r="D131" s="10"/>
       <c r="F131" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="148.5">
       <c r="A132" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>632</v>
       </c>
       <c r="D132" s="10"/>
       <c r="F132" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="135">
       <c r="A133" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>512</v>
       </c>
       <c r="D133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="108">
       <c r="A134" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D134" s="10"/>
       <c r="F134" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="148.5">
       <c r="A135" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>521</v>
       </c>
       <c r="D135" s="10"/>
       <c r="F135" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="94.5">
       <c r="A136" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>634</v>
       </c>
       <c r="D136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="202.5">
       <c r="A137" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>759</v>
+        <v>526</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>784</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="202.5">
       <c r="A138" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>760</v>
+        <v>529</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>783</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>884</v>
+        <v>919</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="229.5">
       <c r="A139" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>885</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
